--- a/excel/FactorialAnalysis_MeanResponseTime.xlsx
+++ b/excel/FactorialAnalysis_MeanResponseTime.xlsx
@@ -20,9 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="83">
   <si>
     <t xml:space="preserve">FACTORIAL ANALYSYS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Applied Log tranformation</t>
   </si>
   <si>
     <t xml:space="preserve">A</t>
@@ -276,7 +279,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -370,6 +373,11 @@
       <sz val="14"/>
       <color rgb="FF595959"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -753,16 +761,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -777,15 +785,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -801,15 +809,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1065,7 +1073,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart123.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1166,8 +1174,8 @@
             <c:trendlineType val="linear"/>
             <c:forward val="0"/>
             <c:backward val="0"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -1425,255 +1433,255 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="80"/>
                 <c:pt idx="0">
-                  <c:v>-0.075776457293598</c:v>
+                  <c:v>-0.0778132709973807</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.045080488021368</c:v>
+                  <c:v>-0.0432246611626868</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.00451807745682099</c:v>
+                  <c:v>-0.0397957315506618</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.0044763060101</c:v>
+                  <c:v>-0.0358432221304852</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.004071374263218</c:v>
+                  <c:v>-0.0201903092088587</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.00314348735164401</c:v>
+                  <c:v>-0.017504341863078</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.00290802866996399</c:v>
+                  <c:v>-0.0170367719881794</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.00240745624837402</c:v>
+                  <c:v>-0.0141473268676529</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.00236691453256419</c:v>
+                  <c:v>-0.0128335603301013</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.002143591067157</c:v>
+                  <c:v>-0.0125415962610576</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.00179909902766619</c:v>
+                  <c:v>-0.0118472574604453</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.00164101055188619</c:v>
+                  <c:v>-0.0117505856629205</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.00133277554691541</c:v>
+                  <c:v>-0.0115729768986347</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.00113665214801059</c:v>
+                  <c:v>-0.0101086021637608</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.000671531141663594</c:v>
+                  <c:v>-0.0094700184274763</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.000667341486114012</c:v>
+                  <c:v>-0.00856914714968915</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.000593175407909201</c:v>
+                  <c:v>-0.00795276566557868</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.00052737559653341</c:v>
+                  <c:v>-0.00714300507820354</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.000453567869636989</c:v>
+                  <c:v>-0.00502353454705751</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.000414751945534201</c:v>
+                  <c:v>-0.00455954304848905</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.000386177971613201</c:v>
+                  <c:v>-0.00416110685465432</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.000345211532473993</c:v>
+                  <c:v>-0.0036930020842092</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.000343078006352998</c:v>
+                  <c:v>-0.00369270139561517</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.000266728961236196</c:v>
+                  <c:v>-0.00356491030044848</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.0002427196308814</c:v>
+                  <c:v>-0.00275059167751801</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.000232318962789999</c:v>
+                  <c:v>-0.00267738438665965</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.0001557408040054</c:v>
+                  <c:v>-0.00258369662241731</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.0001173031914296</c:v>
+                  <c:v>-0.00230879545316309</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.000113797864157999</c:v>
+                  <c:v>-0.00225997028604241</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-7.61793969896E-005</c:v>
+                  <c:v>-0.00185774946258621</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-7.57853418417997E-005</c:v>
+                  <c:v>-0.00168975482168676</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-6.98658170889994E-005</c:v>
+                  <c:v>-0.00168923748593097</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-5.39552470410001E-005</c:v>
+                  <c:v>-0.00116757760054009</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-3.28190545852008E-005</c:v>
+                  <c:v>-0.00103453917720331</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-3.12867060354091E-005</c:v>
+                  <c:v>-0.000805590934121581</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-2.37732372667995E-005</c:v>
+                  <c:v>-0.000655967778113942</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-2.01117099639936E-005</c:v>
+                  <c:v>-0.000483233655375059</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-1.93868271948002E-005</c:v>
+                  <c:v>-0.000377082130895046</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-1.54787980369987E-005</c:v>
+                  <c:v>-0.000195315649659245</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-1.1921848139999E-005</c:v>
+                  <c:v>-0.00017201683751078</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-6.71744121360021E-006</c:v>
+                  <c:v>0.000125333585443199</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.96925138700099E-006</c:v>
+                  <c:v>0.000134731975652502</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.03473090349998E-005</c:v>
+                  <c:v>0.000350170205916545</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.51785893181995E-005</c:v>
+                  <c:v>0.000459678826931098</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.05302786737988E-005</c:v>
+                  <c:v>0.000521279809865716</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.21067634610015E-005</c:v>
+                  <c:v>0.000765974812742209</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.33580302300015E-005</c:v>
+                  <c:v>0.00100430430466436</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.06815295164106E-005</c:v>
+                  <c:v>0.00104335058695315</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>7.0974353528E-005</c:v>
+                  <c:v>0.00230251389231584</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>8.28580023263994E-005</c:v>
+                  <c:v>0.00250289102035772</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>8.46915798776004E-005</c:v>
+                  <c:v>0.00251504986700901</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.0001037668169852</c:v>
+                  <c:v>0.00318671163492956</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.0001173420273064</c:v>
+                  <c:v>0.00344530788925135</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.000118256681555001</c:v>
+                  <c:v>0.00348906397117421</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.000118576873543601</c:v>
+                  <c:v>0.00352397552478667</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.000124611175859001</c:v>
+                  <c:v>0.0035539715362618</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.000126013104594799</c:v>
+                  <c:v>0.00402754060883126</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.000195191981465601</c:v>
+                  <c:v>0.00409947928873866</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.000301027616850798</c:v>
+                  <c:v>0.00414883164905677</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.000446792978553</c:v>
+                  <c:v>0.00430414750965413</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.00048262552497659</c:v>
+                  <c:v>0.00442332772050391</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.00059672078896341</c:v>
+                  <c:v>0.00449979676177104</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.000758438681525989</c:v>
+                  <c:v>0.00492116508065577</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.000978941704473005</c:v>
+                  <c:v>0.00557300291761009</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.000979363907745987</c:v>
+                  <c:v>0.00571059313515976</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.001093370831351</c:v>
+                  <c:v>0.00874271472905885</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.00117078097119441</c:v>
+                  <c:v>0.00919231541791454</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.0012954969424728</c:v>
+                  <c:v>0.00939676148632018</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.0013248669889358</c:v>
+                  <c:v>0.00988942877135046</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.00133699514521599</c:v>
+                  <c:v>0.01011174372246</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.0014088123245076</c:v>
+                  <c:v>0.0127035658702857</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.0019595112776388</c:v>
+                  <c:v>0.0140082243471023</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.002460223259084</c:v>
+                  <c:v>0.0151915126500359</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.0024732312438278</c:v>
+                  <c:v>0.0175513454571099</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.00289933279063399</c:v>
+                  <c:v>0.0233921946998858</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.006416839264046</c:v>
+                  <c:v>0.0251474187845795</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.008231048081391</c:v>
+                  <c:v>0.027915450120964</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.026286572716862</c:v>
+                  <c:v>0.0319809784786133</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.030728988768662</c:v>
+                  <c:v>0.0611415035604904</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.0638413838294419</c:v>
+                  <c:v>0.0697511008443399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="47226589"/>
-        <c:axId val="44458056"/>
+        <c:axId val="67961634"/>
+        <c:axId val="33844260"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="47226589"/>
+        <c:axId val="67961634"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1715,12 +1723,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44458056"/>
+        <c:crossAx val="33844260"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="44458056"/>
+        <c:axId val="33844260"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1762,7 +1770,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47226589"/>
+        <c:crossAx val="67961634"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1790,7 +1798,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart124.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1885,244 +1893,244 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="80"/>
                 <c:pt idx="0">
-                  <c:v>0.10825189114284</c:v>
+                  <c:v>-0.965564507854728</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10568907400535</c:v>
+                  <c:v>-0.975969907152823</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10857699096535</c:v>
+                  <c:v>-0.964262198278536</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10545361532367</c:v>
+                  <c:v>-0.976938526515246</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.11501394193936</c:v>
+                  <c:v>-0.939249511469609</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.062712193880956</c:v>
+                  <c:v>-1.20264800589461</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.063225913847145</c:v>
+                  <c:v>-1.1991048847846</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.060485953642081</c:v>
+                  <c:v>-1.21834546772764</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.058385768070753</c:v>
+                  <c:v>-1.23369300222989</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.058953583575651</c:v>
+                  <c:v>-1.22948979057181</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.014905594386911</c:v>
+                  <c:v>-1.82665070102628</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.015016094788499</c:v>
+                  <c:v>-1.82344299891147</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.014939479680577</c:v>
+                  <c:v>-1.82566452807546</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.014665162003028</c:v>
+                  <c:v>-1.83371313509512</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.014578183176152</c:v>
+                  <c:v>-1.83629659712484</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.013175360957011</c:v>
+                  <c:v>-1.88023747786185</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.012894863618834</c:v>
+                  <c:v>-1.88958324677157</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.012841514285575</c:v>
+                  <c:v>-1.89138376076151</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.013000346444755</c:v>
+                  <c:v>-1.88604507407466</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.012459581394626</c:v>
+                  <c:v>-1.90449654845196</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.10168682936953</c:v>
+                  <c:v>-0.99273529390663</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.099766438283369</c:v>
+                  <c:v>-1.00101553205641</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.094269419122075</c:v>
+                  <c:v>-1.02562916898577</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.098333928709259</c:v>
+                  <c:v>-1.0072966092395</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.099880867410247</c:v>
+                  <c:v>-1.00051769469626</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.062374625992463</c:v>
+                  <c:v>-1.20499204545507</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.062403996038926</c:v>
+                  <c:v>-1.20478759938666</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.060485953642081</c:v>
+                  <c:v>-1.21834546772764</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.059438118498104</c:v>
+                  <c:v>-1.22593494653591</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.060692951078377</c:v>
+                  <c:v>-1.21686174525964</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.01347686032498</c:v>
+                  <c:v>-1.87041127266381</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.013530497147311</c:v>
+                  <c:v>-1.86868624594729</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.013393964123312</c:v>
+                  <c:v>-1.87309086868702</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.013336020154363</c:v>
+                  <c:v>-1.87497375684217</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.013292088107294</c:v>
+                  <c:v>-1.87640678864033</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.013085875498398</c:v>
+                  <c:v>-1.88319721598141</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.01264942982888</c:v>
+                  <c:v>-1.89792904980451</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.0127573392014</c:v>
+                  <c:v>-1.89423989698239</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.012406763557055</c:v>
+                  <c:v>-1.90634149429702</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.012296004513492</c:v>
+                  <c:v>-1.91023598609189</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.47233724959933</c:v>
+                  <c:v>-0.325747803613357</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.50989206071191</c:v>
+                  <c:v>-0.292521750173831</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.47677966565113</c:v>
+                  <c:v>-0.321682275255708</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.4009701888611</c:v>
+                  <c:v>-0.396887914897008</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.37027421958887</c:v>
+                  <c:v>-0.431476524731702</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.062883585449605</c:v>
+                  <c:v>-1.20146270398223</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.060947397528564</c:v>
+                  <c:v>-1.2150448341492</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.061443486419062</c:v>
+                  <c:v>-1.21152414959109</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.061957398650074</c:v>
+                  <c:v>-1.20790682486433</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.060141997578182</c:v>
+                  <c:v>-1.22082215118106</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.044290998496489</c:v>
+                  <c:v>-1.35368452886793</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.051227527765673</c:v>
+                  <c:v>-1.29049660261738</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.044695930243371</c:v>
+                  <c:v>-1.34973201944776</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.05699835258798</c:v>
+                  <c:v>-1.24413769647293</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.046623713439432</c:v>
+                  <c:v>-1.33139313918035</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.014432408572029</c:v>
+                  <c:v>-1.84066118503592</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.014238887147733</c:v>
+                  <c:v>-1.84652395202534</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.014197763353293</c:v>
+                  <c:v>-1.84778006687263</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.014308349103509</c:v>
+                  <c:v>-1.84441047222184</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.014397924547049</c:v>
+                  <c:v>-1.84170010670517</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.10522663492544</c:v>
+                  <c:v>-0.977874317814857</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.10500570969922</c:v>
+                  <c:v>-0.978787085468666</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.10558426616291</c:v>
+                  <c:v>-0.976400794185985</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.10357992953158</c:v>
+                  <c:v>-0.984724388781113</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.10183981476932</c:v>
+                  <c:v>-0.992082399267356</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.059046863379219</c:v>
+                  <c:v>-1.22880316753865</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.057204551266361</c:v>
+                  <c:v>-1.24256941681477</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.056739430260014</c:v>
+                  <c:v>-1.2461150294174</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.058472803196988</c:v>
+                  <c:v>-1.23304608550594</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.057916763937541</c:v>
+                  <c:v>-1.2371957120618</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.013916659743746</c:v>
+                  <c:v>-1.85646499094222</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.013869074182248</c:v>
+                  <c:v>-1.85795252890226</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.013917911010515</c:v>
+                  <c:v>-1.85642594465993</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.013888522231672</c:v>
+                  <c:v>-1.85734396166144</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.013830597733244</c:v>
+                  <c:v>-1.85915905006857</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.012768703056534</c:v>
+                  <c:v>-1.89385321268139</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.012734137640021</c:v>
+                  <c:v>-1.89503046026937</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.012729751229949</c:v>
+                  <c:v>-1.89518008342538</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.012677739125374</c:v>
+                  <c:v>-1.89695818911367</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.012857291284201</c:v>
+                  <c:v>-1.89085051696647</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2134,255 +2142,255 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="80"/>
                 <c:pt idx="0">
-                  <c:v>-0.000345211532473993</c:v>
+                  <c:v>-0.00116757760054009</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.00290802866996399</c:v>
+                  <c:v>-0.0115729768986347</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.01117099639936E-005</c:v>
+                  <c:v>0.000134731975652502</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.00314348735164401</c:v>
+                  <c:v>-0.0125415962610576</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.006416839264046</c:v>
+                  <c:v>0.0251474187845795</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0019595112776388</c:v>
+                  <c:v>0.0140082243471023</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0024732312438278</c:v>
+                  <c:v>0.0175513454571099</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.000266728961236196</c:v>
+                  <c:v>-0.00168923748593097</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.00236691453256419</c:v>
+                  <c:v>-0.0170367719881794</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.00179909902766619</c:v>
+                  <c:v>-0.0128335603301013</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.46915798776004E-005</c:v>
+                  <c:v>0.00250289102035772</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.000195191981465601</c:v>
+                  <c:v>0.00571059313515976</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.000118576873543601</c:v>
+                  <c:v>0.00348906397117421</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.0001557408040054</c:v>
+                  <c:v>-0.00455954304848905</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.0002427196308814</c:v>
+                  <c:v>-0.00714300507820354</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.000301027616850798</c:v>
+                  <c:v>0.01011174372246</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.05302786737988E-005</c:v>
+                  <c:v>0.000765974812742209</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-3.28190545852008E-005</c:v>
+                  <c:v>-0.00103453917720331</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.000126013104594799</c:v>
+                  <c:v>0.00430414750965413</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.000414751945534201</c:v>
+                  <c:v>-0.0141473268676529</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.00289933279063399</c:v>
+                  <c:v>0.0127035658702857</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.000978941704473005</c:v>
+                  <c:v>0.00442332772050391</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.00451807745682099</c:v>
+                  <c:v>-0.0201903092088587</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.000453567869636989</c:v>
+                  <c:v>-0.00185774946258621</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.001093370831351</c:v>
+                  <c:v>0.00492116508065577</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.0012954969424728</c:v>
+                  <c:v>0.00919231541791454</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.0013248669889358</c:v>
+                  <c:v>0.00939676148632018</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.000593175407909201</c:v>
+                  <c:v>-0.00416110685465432</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.00164101055188619</c:v>
+                  <c:v>-0.0117505856629205</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.000386177971613201</c:v>
+                  <c:v>-0.00267738438665965</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.0974353528E-005</c:v>
+                  <c:v>0.00230251389231584</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.000124611175859001</c:v>
+                  <c:v>0.00402754060883126</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-1.1921848139999E-005</c:v>
+                  <c:v>-0.000377082130895046</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-6.98658170889994E-005</c:v>
+                  <c:v>-0.00225997028604241</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.000113797864157999</c:v>
+                  <c:v>-0.0036930020842092</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.000446792978553</c:v>
+                  <c:v>0.0151915126500359</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.03473090349998E-005</c:v>
+                  <c:v>0.000459678826931098</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.000118256681555001</c:v>
+                  <c:v>0.00414883164905677</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-0.000232318962789999</c:v>
+                  <c:v>-0.00795276566557868</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.000343078006352998</c:v>
+                  <c:v>-0.0118472574604453</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.026286572716862</c:v>
+                  <c:v>0.027915450120964</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.0638413838294419</c:v>
+                  <c:v>0.0611415035604904</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.030728988768662</c:v>
+                  <c:v>0.0319809784786133</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-0.045080488021368</c:v>
+                  <c:v>-0.0432246611626868</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-0.075776457293598</c:v>
+                  <c:v>-0.0778132709973807</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.0014088123245076</c:v>
+                  <c:v>0.00988942877135046</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-0.00052737559653341</c:v>
+                  <c:v>-0.00369270139561517</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-3.12867060354091E-005</c:v>
+                  <c:v>-0.00017201683751078</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.00048262552497659</c:v>
+                  <c:v>0.00344530788925135</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-0.00133277554691541</c:v>
+                  <c:v>-0.0094700184274763</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-0.0044763060101</c:v>
+                  <c:v>-0.0397957315506618</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.002460223259084</c:v>
+                  <c:v>0.0233921946998858</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-0.004071374263218</c:v>
+                  <c:v>-0.0358432221304852</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.008231048081391</c:v>
+                  <c:v>0.0697511008443399</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-0.002143591067157</c:v>
+                  <c:v>-0.017504341863078</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.0001173420273064</c:v>
+                  <c:v>0.0035539715362618</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-7.61793969896E-005</c:v>
+                  <c:v>-0.00230879545316309</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-0.0001173031914296</c:v>
+                  <c:v>-0.00356491030044848</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-6.71744121360021E-006</c:v>
+                  <c:v>-0.000195315649659245</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>8.28580023263994E-005</c:v>
+                  <c:v>0.00251504986700901</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.000979363907745987</c:v>
+                  <c:v>0.00409947928873866</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.000758438681525989</c:v>
+                  <c:v>0.00318671163492956</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.00133699514521599</c:v>
+                  <c:v>0.00557300291761009</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-0.000667341486114012</c:v>
+                  <c:v>-0.00275059167751801</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-0.00240745624837402</c:v>
+                  <c:v>-0.0101086021637608</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.00117078097119441</c:v>
+                  <c:v>0.00874271472905885</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-0.000671531141663594</c:v>
+                  <c:v>-0.00502353454705751</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-0.00113665214801059</c:v>
+                  <c:v>-0.00856914714968915</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.00059672078896341</c:v>
+                  <c:v>0.00449979676177104</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4.06815295164106E-005</c:v>
+                  <c:v>0.000350170205916545</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3.21067634610015E-005</c:v>
+                  <c:v>0.00100430430466436</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-1.54787980369987E-005</c:v>
+                  <c:v>-0.000483233655375059</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3.33580302300015E-005</c:v>
+                  <c:v>0.00104335058695315</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3.96925138700099E-006</c:v>
+                  <c:v>0.000125333585443199</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-5.39552470410001E-005</c:v>
+                  <c:v>-0.00168975482168676</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.51785893181995E-005</c:v>
+                  <c:v>0.000521279809865716</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-1.93868271948002E-005</c:v>
+                  <c:v>-0.000655967778113942</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-2.37732372667995E-005</c:v>
+                  <c:v>-0.000805590934121581</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-7.57853418417997E-005</c:v>
+                  <c:v>-0.00258369662241731</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.0001037668169852</c:v>
+                  <c:v>0.00352397552478667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="59210116"/>
-        <c:axId val="69625686"/>
+        <c:axId val="57377667"/>
+        <c:axId val="119025"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="59210116"/>
+        <c:axId val="57377667"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2424,12 +2432,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69625686"/>
+        <c:crossAx val="119025"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="69625686"/>
+        <c:axId val="119025"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2471,7 +2479,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59210116"/>
+        <c:crossAx val="57377667"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2533,16 +2541,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>17280</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>350280</xdr:colOff>
       <xdr:row>137</xdr:row>
-      <xdr:rowOff>129960</xdr:rowOff>
+      <xdr:rowOff>52200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>614160</xdr:colOff>
-      <xdr:row>168</xdr:row>
-      <xdr:rowOff>62640</xdr:rowOff>
+      <xdr:colOff>172440</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>160200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2550,7 +2558,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12336840" y="24195600"/>
+        <a:off x="11895120" y="24117840"/>
         <a:ext cx="9118440" cy="5365800"/>
       </xdr:xfrm>
       <a:graphic>
@@ -2569,10 +2577,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:AK225"/>
+  <dimension ref="B1:AR225"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L62" activeCellId="0" sqref="L62"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S2" activeCellId="0" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2610,110 +2618,115 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U3" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>1</v>
-      </c>
       <c r="G4" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="V4" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="W4" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X4" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y4" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z4" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA4" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB4" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC4" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AD4" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE4" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI4" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ4" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AK4" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E5" s="9" t="n">
         <v>1</v>
@@ -2775,60 +2788,75 @@
         <v>1</v>
       </c>
       <c r="U5" s="12" t="n">
-        <v>0.10825189114284</v>
-      </c>
-      <c r="V5" s="13" t="n">
-        <v>0.10568907400535</v>
-      </c>
-      <c r="W5" s="13" t="n">
-        <v>0.10857699096535</v>
-      </c>
-      <c r="X5" s="13" t="n">
-        <v>0.10545361532367</v>
-      </c>
-      <c r="Y5" s="13" t="n">
-        <v>0.11501394193936</v>
+        <v>-0.965564507854728</v>
+      </c>
+      <c r="V5" s="12" t="n">
+        <v>-0.975969907152823</v>
+      </c>
+      <c r="W5" s="12" t="n">
+        <v>-0.964262198278536</v>
+      </c>
+      <c r="X5" s="12" t="n">
+        <v>-0.976938526515246</v>
+      </c>
+      <c r="Y5" s="12" t="n">
+        <v>-0.939249511469609</v>
       </c>
       <c r="Z5" s="10" t="n">
         <f aca="false">AVERAGE(U5:Y5)</f>
-        <v>0.108597102675314</v>
+        <v>-0.964396930254188</v>
       </c>
       <c r="AA5" s="10" t="n">
         <f aca="false">U5-$Z5</f>
-        <v>-0.000345211532473993</v>
+        <v>-0.00116757760054009</v>
       </c>
       <c r="AB5" s="10" t="n">
         <f aca="false">V5-$Z5</f>
-        <v>-0.00290802866996399</v>
+        <v>-0.0115729768986347</v>
       </c>
       <c r="AC5" s="10" t="n">
         <f aca="false">W5-$Z5</f>
-        <v>-2.01117099639936E-005</v>
+        <v>0.000134731975652502</v>
       </c>
       <c r="AD5" s="10" t="n">
         <f aca="false">X5-$Z5</f>
-        <v>-0.00314348735164401</v>
-      </c>
-      <c r="AE5" s="14" t="n">
+        <v>-0.0125415962610576</v>
+      </c>
+      <c r="AE5" s="13" t="n">
         <f aca="false">Y5-$Z5</f>
-        <v>0.006416839264046</v>
+        <v>0.0251474187845795</v>
       </c>
       <c r="AI5" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AJ5" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK5" s="15" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK5" s="14" t="n">
         <v>0.10825189114284</v>
+      </c>
+      <c r="AN5" s="12" t="n">
+        <v>0.10825189114284</v>
+      </c>
+      <c r="AO5" s="15" t="n">
+        <v>0.10568907400535</v>
+      </c>
+      <c r="AP5" s="15" t="n">
+        <v>0.10857699096535</v>
+      </c>
+      <c r="AQ5" s="15" t="n">
+        <v>0.10545361532367</v>
+      </c>
+      <c r="AR5" s="15" t="n">
+        <v>0.11501394193936</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="16" t="n">
@@ -2890,61 +2918,76 @@
         <f aca="false">F6*G6*H6*I6</f>
         <v>-1</v>
       </c>
-      <c r="U6" s="19" t="n">
-        <v>0.062712193880956</v>
-      </c>
-      <c r="V6" s="20" t="n">
-        <v>0.063225913847145</v>
-      </c>
-      <c r="W6" s="20" t="n">
-        <v>0.060485953642081</v>
-      </c>
-      <c r="X6" s="20" t="n">
-        <v>0.058385768070753</v>
-      </c>
-      <c r="Y6" s="20" t="n">
-        <v>0.058953583575651</v>
+      <c r="U6" s="12" t="n">
+        <v>-1.20264800589461</v>
+      </c>
+      <c r="V6" s="12" t="n">
+        <v>-1.1991048847846</v>
+      </c>
+      <c r="W6" s="12" t="n">
+        <v>-1.21834546772764</v>
+      </c>
+      <c r="X6" s="12" t="n">
+        <v>-1.23369300222989</v>
+      </c>
+      <c r="Y6" s="12" t="n">
+        <v>-1.22948979057181</v>
       </c>
       <c r="Z6" s="17" t="n">
         <f aca="false">AVERAGE(U6:Y6)</f>
-        <v>0.0607526826033172</v>
+        <v>-1.21665623024171</v>
       </c>
       <c r="AA6" s="17" t="n">
         <f aca="false">U6-$Z6</f>
-        <v>0.0019595112776388</v>
+        <v>0.0140082243471023</v>
       </c>
       <c r="AB6" s="17" t="n">
         <f aca="false">V6-$Z6</f>
-        <v>0.0024732312438278</v>
+        <v>0.0175513454571099</v>
       </c>
       <c r="AC6" s="17" t="n">
         <f aca="false">W6-$Z6</f>
-        <v>-0.000266728961236196</v>
+        <v>-0.00168923748593097</v>
       </c>
       <c r="AD6" s="17" t="n">
         <f aca="false">X6-$Z6</f>
-        <v>-0.00236691453256419</v>
-      </c>
-      <c r="AE6" s="21" t="n">
+        <v>-0.0170367719881794</v>
+      </c>
+      <c r="AE6" s="19" t="n">
         <f aca="false">Y6-$Z6</f>
-        <v>-0.00179909902766619</v>
+        <v>-0.0128335603301013</v>
       </c>
       <c r="AI6" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AJ6" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK6" s="15" t="n">
+        <v>37</v>
+      </c>
+      <c r="AK6" s="14" t="n">
         <v>0.10568907400535</v>
+      </c>
+      <c r="AN6" s="20" t="n">
+        <v>0.062712193880956</v>
+      </c>
+      <c r="AO6" s="21" t="n">
+        <v>0.063225913847145</v>
+      </c>
+      <c r="AP6" s="21" t="n">
+        <v>0.060485953642081</v>
+      </c>
+      <c r="AQ6" s="21" t="n">
+        <v>0.058385768070753</v>
+      </c>
+      <c r="AR6" s="21" t="n">
+        <v>0.058953583575651</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E7" s="16" t="n">
         <v>1</v>
@@ -3005,53 +3048,68 @@
         <f aca="false">F7*G7*H7*I7</f>
         <v>-1</v>
       </c>
-      <c r="U7" s="19" t="n">
-        <v>0.014905594386911</v>
-      </c>
-      <c r="V7" s="20" t="n">
-        <v>0.015016094788499</v>
-      </c>
-      <c r="W7" s="20" t="n">
-        <v>0.014939479680577</v>
-      </c>
-      <c r="X7" s="20" t="n">
-        <v>0.014665162003028</v>
-      </c>
-      <c r="Y7" s="20" t="n">
-        <v>0.014578183176152</v>
+      <c r="U7" s="12" t="n">
+        <v>-1.82665070102628</v>
+      </c>
+      <c r="V7" s="12" t="n">
+        <v>-1.82344299891147</v>
+      </c>
+      <c r="W7" s="12" t="n">
+        <v>-1.82566452807546</v>
+      </c>
+      <c r="X7" s="12" t="n">
+        <v>-1.83371313509512</v>
+      </c>
+      <c r="Y7" s="12" t="n">
+        <v>-1.83629659712484</v>
       </c>
       <c r="Z7" s="17" t="n">
         <f aca="false">AVERAGE(U7:Y7)</f>
-        <v>0.0148209028070334</v>
+        <v>-1.82915359204663</v>
       </c>
       <c r="AA7" s="17" t="n">
         <f aca="false">U7-$Z7</f>
-        <v>8.46915798776004E-005</v>
+        <v>0.00250289102035772</v>
       </c>
       <c r="AB7" s="17" t="n">
         <f aca="false">V7-$Z7</f>
-        <v>0.000195191981465601</v>
+        <v>0.00571059313515976</v>
       </c>
       <c r="AC7" s="17" t="n">
         <f aca="false">W7-$Z7</f>
-        <v>0.000118576873543601</v>
+        <v>0.00348906397117421</v>
       </c>
       <c r="AD7" s="17" t="n">
         <f aca="false">X7-$Z7</f>
-        <v>-0.0001557408040054</v>
-      </c>
-      <c r="AE7" s="21" t="n">
+        <v>-0.00455954304848905</v>
+      </c>
+      <c r="AE7" s="19" t="n">
         <f aca="false">Y7-$Z7</f>
-        <v>-0.0002427196308814</v>
+        <v>-0.00714300507820354</v>
       </c>
       <c r="AI7" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AJ7" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK7" s="15" t="n">
+        <v>39</v>
+      </c>
+      <c r="AK7" s="14" t="n">
         <v>0.10857699096535</v>
+      </c>
+      <c r="AN7" s="20" t="n">
+        <v>0.014905594386911</v>
+      </c>
+      <c r="AO7" s="21" t="n">
+        <v>0.015016094788499</v>
+      </c>
+      <c r="AP7" s="21" t="n">
+        <v>0.014939479680577</v>
+      </c>
+      <c r="AQ7" s="21" t="n">
+        <v>0.014665162003028</v>
+      </c>
+      <c r="AR7" s="21" t="n">
+        <v>0.014578183176152</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3115,53 +3173,68 @@
         <f aca="false">F8*G8*H8*I8</f>
         <v>1</v>
       </c>
-      <c r="U8" s="19" t="n">
-        <v>0.013175360957011</v>
-      </c>
-      <c r="V8" s="20" t="n">
-        <v>0.012894863618834</v>
-      </c>
-      <c r="W8" s="20" t="n">
-        <v>0.012841514285575</v>
-      </c>
-      <c r="X8" s="20" t="n">
-        <v>0.013000346444755</v>
-      </c>
-      <c r="Y8" s="20" t="n">
-        <v>0.012459581394626</v>
+      <c r="U8" s="12" t="n">
+        <v>-1.88023747786185</v>
+      </c>
+      <c r="V8" s="12" t="n">
+        <v>-1.88958324677157</v>
+      </c>
+      <c r="W8" s="12" t="n">
+        <v>-1.89138376076151</v>
+      </c>
+      <c r="X8" s="12" t="n">
+        <v>-1.88604507407466</v>
+      </c>
+      <c r="Y8" s="12" t="n">
+        <v>-1.90449654845196</v>
       </c>
       <c r="Z8" s="17" t="n">
         <f aca="false">AVERAGE(U8:Y8)</f>
-        <v>0.0128743333401602</v>
+        <v>-1.89034922158431</v>
       </c>
       <c r="AA8" s="17" t="n">
         <f aca="false">U8-$Z8</f>
-        <v>0.000301027616850798</v>
+        <v>0.01011174372246</v>
       </c>
       <c r="AB8" s="17" t="n">
         <f aca="false">V8-$Z8</f>
-        <v>2.05302786737988E-005</v>
+        <v>0.000765974812742209</v>
       </c>
       <c r="AC8" s="17" t="n">
         <f aca="false">W8-$Z8</f>
-        <v>-3.28190545852008E-005</v>
+        <v>-0.00103453917720331</v>
       </c>
       <c r="AD8" s="17" t="n">
         <f aca="false">X8-$Z8</f>
-        <v>0.000126013104594799</v>
-      </c>
-      <c r="AE8" s="21" t="n">
+        <v>0.00430414750965413</v>
+      </c>
+      <c r="AE8" s="19" t="n">
         <f aca="false">Y8-$Z8</f>
-        <v>-0.000414751945534201</v>
+        <v>-0.0141473268676529</v>
       </c>
       <c r="AI8" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AJ8" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK8" s="15" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK8" s="14" t="n">
         <v>0.10545361532367</v>
+      </c>
+      <c r="AN8" s="20" t="n">
+        <v>0.013175360957011</v>
+      </c>
+      <c r="AO8" s="21" t="n">
+        <v>0.012894863618834</v>
+      </c>
+      <c r="AP8" s="21" t="n">
+        <v>0.012841514285575</v>
+      </c>
+      <c r="AQ8" s="21" t="n">
+        <v>0.013000346444755</v>
+      </c>
+      <c r="AR8" s="21" t="n">
+        <v>0.012459581394626</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3224,53 +3297,68 @@
         <f aca="false">F9*G9*H9*I9</f>
         <v>-1</v>
       </c>
-      <c r="U9" s="19" t="n">
-        <v>0.10168682936953</v>
-      </c>
-      <c r="V9" s="20" t="n">
-        <v>0.099766438283369</v>
-      </c>
-      <c r="W9" s="20" t="n">
-        <v>0.094269419122075</v>
-      </c>
-      <c r="X9" s="20" t="n">
-        <v>0.098333928709259</v>
-      </c>
-      <c r="Y9" s="20" t="n">
-        <v>0.099880867410247</v>
+      <c r="U9" s="12" t="n">
+        <v>-0.99273529390663</v>
+      </c>
+      <c r="V9" s="12" t="n">
+        <v>-1.00101553205641</v>
+      </c>
+      <c r="W9" s="12" t="n">
+        <v>-1.02562916898577</v>
+      </c>
+      <c r="X9" s="12" t="n">
+        <v>-1.0072966092395</v>
+      </c>
+      <c r="Y9" s="12" t="n">
+        <v>-1.00051769469626</v>
       </c>
       <c r="Z9" s="17" t="n">
         <f aca="false">AVERAGE(U9:Y9)</f>
-        <v>0.098787496578896</v>
+        <v>-1.00543885977692</v>
       </c>
       <c r="AA9" s="17" t="n">
         <f aca="false">U9-$Z9</f>
-        <v>0.00289933279063399</v>
+        <v>0.0127035658702857</v>
       </c>
       <c r="AB9" s="17" t="n">
         <f aca="false">V9-$Z9</f>
-        <v>0.000978941704473005</v>
+        <v>0.00442332772050391</v>
       </c>
       <c r="AC9" s="17" t="n">
         <f aca="false">W9-$Z9</f>
-        <v>-0.00451807745682099</v>
+        <v>-0.0201903092088587</v>
       </c>
       <c r="AD9" s="17" t="n">
         <f aca="false">X9-$Z9</f>
-        <v>-0.000453567869636989</v>
-      </c>
-      <c r="AE9" s="21" t="n">
+        <v>-0.00185774946258621</v>
+      </c>
+      <c r="AE9" s="19" t="n">
         <f aca="false">Y9-$Z9</f>
-        <v>0.001093370831351</v>
+        <v>0.00492116508065577</v>
       </c>
       <c r="AI9" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AJ9" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="AK9" s="15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK9" s="14" t="n">
         <v>0.11501394193936</v>
+      </c>
+      <c r="AN9" s="20" t="n">
+        <v>0.10168682936953</v>
+      </c>
+      <c r="AO9" s="21" t="n">
+        <v>0.099766438283369</v>
+      </c>
+      <c r="AP9" s="21" t="n">
+        <v>0.094269419122075</v>
+      </c>
+      <c r="AQ9" s="21" t="n">
+        <v>0.098333928709259</v>
+      </c>
+      <c r="AR9" s="21" t="n">
+        <v>0.099880867410247</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3333,46 +3421,61 @@
         <f aca="false">F10*G10*H10*I10</f>
         <v>1</v>
       </c>
-      <c r="U10" s="19" t="n">
-        <v>0.062374625992463</v>
-      </c>
-      <c r="V10" s="20" t="n">
-        <v>0.062403996038926</v>
-      </c>
-      <c r="W10" s="20" t="n">
-        <v>0.060485953642081</v>
-      </c>
-      <c r="X10" s="20" t="n">
-        <v>0.059438118498104</v>
-      </c>
-      <c r="Y10" s="20" t="n">
-        <v>0.060692951078377</v>
+      <c r="U10" s="12" t="n">
+        <v>-1.20499204545507</v>
+      </c>
+      <c r="V10" s="12" t="n">
+        <v>-1.20478759938666</v>
+      </c>
+      <c r="W10" s="12" t="n">
+        <v>-1.21834546772764</v>
+      </c>
+      <c r="X10" s="12" t="n">
+        <v>-1.22593494653591</v>
+      </c>
+      <c r="Y10" s="12" t="n">
+        <v>-1.21686174525964</v>
       </c>
       <c r="Z10" s="17" t="n">
         <f aca="false">AVERAGE(U10:Y10)</f>
-        <v>0.0610791290499902</v>
+        <v>-1.21418436087299</v>
       </c>
       <c r="AA10" s="17" t="n">
         <f aca="false">U10-$Z10</f>
-        <v>0.0012954969424728</v>
+        <v>0.00919231541791454</v>
       </c>
       <c r="AB10" s="17" t="n">
         <f aca="false">V10-$Z10</f>
-        <v>0.0013248669889358</v>
+        <v>0.00939676148632018</v>
       </c>
       <c r="AC10" s="17" t="n">
         <f aca="false">W10-$Z10</f>
-        <v>-0.000593175407909201</v>
+        <v>-0.00416110685465432</v>
       </c>
       <c r="AD10" s="17" t="n">
         <f aca="false">X10-$Z10</f>
-        <v>-0.00164101055188619</v>
-      </c>
-      <c r="AE10" s="21" t="n">
+        <v>-0.0117505856629205</v>
+      </c>
+      <c r="AE10" s="19" t="n">
         <f aca="false">Y10-$Z10</f>
-        <v>-0.000386177971613201</v>
-      </c>
-      <c r="AK10" s="15"/>
+        <v>-0.00267738438665965</v>
+      </c>
+      <c r="AK10" s="14"/>
+      <c r="AN10" s="20" t="n">
+        <v>0.062374625992463</v>
+      </c>
+      <c r="AO10" s="21" t="n">
+        <v>0.062403996038926</v>
+      </c>
+      <c r="AP10" s="21" t="n">
+        <v>0.060485953642081</v>
+      </c>
+      <c r="AQ10" s="21" t="n">
+        <v>0.059438118498104</v>
+      </c>
+      <c r="AR10" s="21" t="n">
+        <v>0.060692951078377</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="16" t="n">
@@ -3434,53 +3537,68 @@
         <f aca="false">F11*G11*H11*I11</f>
         <v>1</v>
       </c>
-      <c r="U11" s="19" t="n">
-        <v>0.01347686032498</v>
-      </c>
-      <c r="V11" s="20" t="n">
-        <v>0.013530497147311</v>
-      </c>
-      <c r="W11" s="20" t="n">
-        <v>0.013393964123312</v>
-      </c>
-      <c r="X11" s="20" t="n">
-        <v>0.013336020154363</v>
-      </c>
-      <c r="Y11" s="20" t="n">
-        <v>0.013292088107294</v>
+      <c r="U11" s="12" t="n">
+        <v>-1.87041127266381</v>
+      </c>
+      <c r="V11" s="12" t="n">
+        <v>-1.86868624594729</v>
+      </c>
+      <c r="W11" s="12" t="n">
+        <v>-1.87309086868702</v>
+      </c>
+      <c r="X11" s="12" t="n">
+        <v>-1.87497375684217</v>
+      </c>
+      <c r="Y11" s="12" t="n">
+        <v>-1.87640678864033</v>
       </c>
       <c r="Z11" s="17" t="n">
         <f aca="false">AVERAGE(U11:Y11)</f>
-        <v>0.013405885971452</v>
+        <v>-1.87271378655612</v>
       </c>
       <c r="AA11" s="17" t="n">
         <f aca="false">U11-$Z11</f>
-        <v>7.0974353528E-005</v>
+        <v>0.00230251389231584</v>
       </c>
       <c r="AB11" s="17" t="n">
         <f aca="false">V11-$Z11</f>
-        <v>0.000124611175859001</v>
+        <v>0.00402754060883126</v>
       </c>
       <c r="AC11" s="17" t="n">
         <f aca="false">W11-$Z11</f>
-        <v>-1.1921848139999E-005</v>
+        <v>-0.000377082130895046</v>
       </c>
       <c r="AD11" s="17" t="n">
         <f aca="false">X11-$Z11</f>
-        <v>-6.98658170889994E-005</v>
-      </c>
-      <c r="AE11" s="21" t="n">
+        <v>-0.00225997028604241</v>
+      </c>
+      <c r="AE11" s="19" t="n">
         <f aca="false">Y11-$Z11</f>
-        <v>-0.000113797864157999</v>
+        <v>-0.0036930020842092</v>
       </c>
       <c r="AI11" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AJ11" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK11" s="15" t="n">
+        <v>37</v>
+      </c>
+      <c r="AK11" s="14" t="n">
         <v>0.063225913847145</v>
+      </c>
+      <c r="AN11" s="20" t="n">
+        <v>0.01347686032498</v>
+      </c>
+      <c r="AO11" s="21" t="n">
+        <v>0.013530497147311</v>
+      </c>
+      <c r="AP11" s="21" t="n">
+        <v>0.013393964123312</v>
+      </c>
+      <c r="AQ11" s="21" t="n">
+        <v>0.013336020154363</v>
+      </c>
+      <c r="AR11" s="21" t="n">
+        <v>0.013292088107294</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3543,53 +3661,68 @@
         <f aca="false">F12*G12*H12*I12</f>
         <v>-1</v>
       </c>
-      <c r="U12" s="19" t="n">
-        <v>0.013085875498398</v>
-      </c>
-      <c r="V12" s="20" t="n">
-        <v>0.01264942982888</v>
-      </c>
-      <c r="W12" s="20" t="n">
-        <v>0.0127573392014</v>
-      </c>
-      <c r="X12" s="20" t="n">
-        <v>0.012406763557055</v>
-      </c>
-      <c r="Y12" s="20" t="n">
-        <v>0.012296004513492</v>
+      <c r="U12" s="12" t="n">
+        <v>-1.88319721598141</v>
+      </c>
+      <c r="V12" s="12" t="n">
+        <v>-1.89792904980451</v>
+      </c>
+      <c r="W12" s="12" t="n">
+        <v>-1.89423989698239</v>
+      </c>
+      <c r="X12" s="12" t="n">
+        <v>-1.90634149429702</v>
+      </c>
+      <c r="Y12" s="12" t="n">
+        <v>-1.91023598609189</v>
       </c>
       <c r="Z12" s="17" t="n">
         <f aca="false">AVERAGE(U12:Y12)</f>
-        <v>0.012639082519845</v>
+        <v>-1.89838872863145</v>
       </c>
       <c r="AA12" s="17" t="n">
         <f aca="false">U12-$Z12</f>
-        <v>0.000446792978553</v>
+        <v>0.0151915126500359</v>
       </c>
       <c r="AB12" s="17" t="n">
         <f aca="false">V12-$Z12</f>
-        <v>1.03473090349998E-005</v>
+        <v>0.000459678826931098</v>
       </c>
       <c r="AC12" s="17" t="n">
         <f aca="false">W12-$Z12</f>
-        <v>0.000118256681555001</v>
+        <v>0.00414883164905677</v>
       </c>
       <c r="AD12" s="17" t="n">
         <f aca="false">X12-$Z12</f>
-        <v>-0.000232318962789999</v>
-      </c>
-      <c r="AE12" s="21" t="n">
+        <v>-0.00795276566557868</v>
+      </c>
+      <c r="AE12" s="19" t="n">
         <f aca="false">Y12-$Z12</f>
-        <v>-0.000343078006352998</v>
+        <v>-0.0118472574604453</v>
       </c>
       <c r="AI12" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AJ12" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK12" s="15" t="n">
+        <v>39</v>
+      </c>
+      <c r="AK12" s="14" t="n">
         <v>0.060485953642081</v>
+      </c>
+      <c r="AN12" s="20" t="n">
+        <v>0.013085875498398</v>
+      </c>
+      <c r="AO12" s="21" t="n">
+        <v>0.01264942982888</v>
+      </c>
+      <c r="AP12" s="21" t="n">
+        <v>0.0127573392014</v>
+      </c>
+      <c r="AQ12" s="21" t="n">
+        <v>0.012406763557055</v>
+      </c>
+      <c r="AR12" s="21" t="n">
+        <v>0.012296004513492</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3652,53 +3785,68 @@
         <f aca="false">F13*G13*H13*I13</f>
         <v>-1</v>
       </c>
-      <c r="U13" s="19" t="n">
-        <v>0.47233724959933</v>
-      </c>
-      <c r="V13" s="20" t="n">
-        <v>0.50989206071191</v>
-      </c>
-      <c r="W13" s="20" t="n">
-        <v>0.47677966565113</v>
-      </c>
-      <c r="X13" s="20" t="n">
-        <v>0.4009701888611</v>
-      </c>
-      <c r="Y13" s="20" t="n">
-        <v>0.37027421958887</v>
+      <c r="U13" s="12" t="n">
+        <v>-0.325747803613357</v>
+      </c>
+      <c r="V13" s="12" t="n">
+        <v>-0.292521750173831</v>
+      </c>
+      <c r="W13" s="12" t="n">
+        <v>-0.321682275255708</v>
+      </c>
+      <c r="X13" s="12" t="n">
+        <v>-0.396887914897008</v>
+      </c>
+      <c r="Y13" s="12" t="n">
+        <v>-0.431476524731702</v>
       </c>
       <c r="Z13" s="17" t="n">
         <f aca="false">AVERAGE(U13:Y13)</f>
-        <v>0.446050676882468</v>
+        <v>-0.353663253734321</v>
       </c>
       <c r="AA13" s="17" t="n">
         <f aca="false">U13-$Z13</f>
-        <v>0.026286572716862</v>
+        <v>0.027915450120964</v>
       </c>
       <c r="AB13" s="17" t="n">
         <f aca="false">V13-$Z13</f>
-        <v>0.0638413838294419</v>
+        <v>0.0611415035604904</v>
       </c>
       <c r="AC13" s="17" t="n">
         <f aca="false">W13-$Z13</f>
-        <v>0.030728988768662</v>
+        <v>0.0319809784786133</v>
       </c>
       <c r="AD13" s="17" t="n">
         <f aca="false">X13-$Z13</f>
-        <v>-0.045080488021368</v>
-      </c>
-      <c r="AE13" s="21" t="n">
+        <v>-0.0432246611626868</v>
+      </c>
+      <c r="AE13" s="19" t="n">
         <f aca="false">Y13-$Z13</f>
-        <v>-0.075776457293598</v>
+        <v>-0.0778132709973807</v>
       </c>
       <c r="AI13" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AJ13" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK13" s="15" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK13" s="14" t="n">
         <v>0.058385768070753</v>
+      </c>
+      <c r="AN13" s="20" t="n">
+        <v>0.47233724959933</v>
+      </c>
+      <c r="AO13" s="21" t="n">
+        <v>0.50989206071191</v>
+      </c>
+      <c r="AP13" s="21" t="n">
+        <v>0.47677966565113</v>
+      </c>
+      <c r="AQ13" s="21" t="n">
+        <v>0.4009701888611</v>
+      </c>
+      <c r="AR13" s="21" t="n">
+        <v>0.37027421958887</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3761,53 +3909,68 @@
         <f aca="false">F14*G14*H14*I14</f>
         <v>1</v>
       </c>
-      <c r="U14" s="19" t="n">
-        <v>0.062883585449605</v>
-      </c>
-      <c r="V14" s="20" t="n">
-        <v>0.060947397528564</v>
-      </c>
-      <c r="W14" s="20" t="n">
-        <v>0.061443486419062</v>
-      </c>
-      <c r="X14" s="20" t="n">
-        <v>0.061957398650074</v>
-      </c>
-      <c r="Y14" s="20" t="n">
-        <v>0.060141997578182</v>
+      <c r="U14" s="12" t="n">
+        <v>-1.20146270398223</v>
+      </c>
+      <c r="V14" s="12" t="n">
+        <v>-1.2150448341492</v>
+      </c>
+      <c r="W14" s="12" t="n">
+        <v>-1.21152414959109</v>
+      </c>
+      <c r="X14" s="12" t="n">
+        <v>-1.20790682486433</v>
+      </c>
+      <c r="Y14" s="12" t="n">
+        <v>-1.22082215118106</v>
       </c>
       <c r="Z14" s="17" t="n">
         <f aca="false">AVERAGE(U14:Y14)</f>
-        <v>0.0614747731250974</v>
+        <v>-1.21135213275358</v>
       </c>
       <c r="AA14" s="17" t="n">
         <f aca="false">U14-$Z14</f>
-        <v>0.0014088123245076</v>
+        <v>0.00988942877135046</v>
       </c>
       <c r="AB14" s="17" t="n">
         <f aca="false">V14-$Z14</f>
-        <v>-0.00052737559653341</v>
+        <v>-0.00369270139561517</v>
       </c>
       <c r="AC14" s="17" t="n">
         <f aca="false">W14-$Z14</f>
-        <v>-3.12867060354091E-005</v>
+        <v>-0.00017201683751078</v>
       </c>
       <c r="AD14" s="17" t="n">
         <f aca="false">X14-$Z14</f>
-        <v>0.00048262552497659</v>
-      </c>
-      <c r="AE14" s="21" t="n">
+        <v>0.00344530788925135</v>
+      </c>
+      <c r="AE14" s="19" t="n">
         <f aca="false">Y14-$Z14</f>
-        <v>-0.00133277554691541</v>
+        <v>-0.0094700184274763</v>
       </c>
       <c r="AI14" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ14" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="AJ14" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="AK14" s="15" t="n">
+      <c r="AK14" s="14" t="n">
         <v>0.058953583575651</v>
+      </c>
+      <c r="AN14" s="20" t="n">
+        <v>0.062883585449605</v>
+      </c>
+      <c r="AO14" s="21" t="n">
+        <v>0.060947397528564</v>
+      </c>
+      <c r="AP14" s="21" t="n">
+        <v>0.061443486419062</v>
+      </c>
+      <c r="AQ14" s="21" t="n">
+        <v>0.061957398650074</v>
+      </c>
+      <c r="AR14" s="21" t="n">
+        <v>0.060141997578182</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3870,53 +4033,68 @@
         <f aca="false">F15*G15*H15*I15</f>
         <v>1</v>
       </c>
-      <c r="U15" s="19" t="n">
-        <v>0.044290998496489</v>
-      </c>
-      <c r="V15" s="20" t="n">
-        <v>0.051227527765673</v>
-      </c>
-      <c r="W15" s="20" t="n">
-        <v>0.044695930243371</v>
-      </c>
-      <c r="X15" s="20" t="n">
-        <v>0.05699835258798</v>
-      </c>
-      <c r="Y15" s="20" t="n">
-        <v>0.046623713439432</v>
+      <c r="U15" s="12" t="n">
+        <v>-1.35368452886793</v>
+      </c>
+      <c r="V15" s="12" t="n">
+        <v>-1.29049660261738</v>
+      </c>
+      <c r="W15" s="12" t="n">
+        <v>-1.34973201944776</v>
+      </c>
+      <c r="X15" s="12" t="n">
+        <v>-1.24413769647293</v>
+      </c>
+      <c r="Y15" s="12" t="n">
+        <v>-1.33139313918035</v>
       </c>
       <c r="Z15" s="17" t="n">
         <f aca="false">AVERAGE(U15:Y15)</f>
-        <v>0.048767304506589</v>
+        <v>-1.31388879731727</v>
       </c>
       <c r="AA15" s="17" t="n">
         <f aca="false">U15-$Z15</f>
-        <v>-0.0044763060101</v>
+        <v>-0.0397957315506618</v>
       </c>
       <c r="AB15" s="17" t="n">
         <f aca="false">V15-$Z15</f>
-        <v>0.002460223259084</v>
+        <v>0.0233921946998858</v>
       </c>
       <c r="AC15" s="17" t="n">
         <f aca="false">W15-$Z15</f>
-        <v>-0.004071374263218</v>
+        <v>-0.0358432221304852</v>
       </c>
       <c r="AD15" s="17" t="n">
         <f aca="false">X15-$Z15</f>
-        <v>0.008231048081391</v>
-      </c>
-      <c r="AE15" s="21" t="n">
+        <v>0.0697511008443399</v>
+      </c>
+      <c r="AE15" s="19" t="n">
         <f aca="false">Y15-$Z15</f>
-        <v>-0.002143591067157</v>
+        <v>-0.017504341863078</v>
       </c>
       <c r="AI15" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AJ15" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK15" s="15" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK15" s="14" t="n">
         <v>0.062712193880956</v>
+      </c>
+      <c r="AN15" s="20" t="n">
+        <v>0.044290998496489</v>
+      </c>
+      <c r="AO15" s="21" t="n">
+        <v>0.051227527765673</v>
+      </c>
+      <c r="AP15" s="21" t="n">
+        <v>0.044695930243371</v>
+      </c>
+      <c r="AQ15" s="21" t="n">
+        <v>0.05699835258798</v>
+      </c>
+      <c r="AR15" s="21" t="n">
+        <v>0.046623713439432</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3979,46 +4157,61 @@
         <f aca="false">F16*G16*H16*I16</f>
         <v>-1</v>
       </c>
-      <c r="U16" s="19" t="n">
-        <v>0.014432408572029</v>
-      </c>
-      <c r="V16" s="20" t="n">
-        <v>0.014238887147733</v>
-      </c>
-      <c r="W16" s="20" t="n">
-        <v>0.014197763353293</v>
-      </c>
-      <c r="X16" s="20" t="n">
-        <v>0.014308349103509</v>
-      </c>
-      <c r="Y16" s="20" t="n">
-        <v>0.014397924547049</v>
+      <c r="U16" s="12" t="n">
+        <v>-1.84066118503592</v>
+      </c>
+      <c r="V16" s="12" t="n">
+        <v>-1.84652395202534</v>
+      </c>
+      <c r="W16" s="12" t="n">
+        <v>-1.84778006687263</v>
+      </c>
+      <c r="X16" s="12" t="n">
+        <v>-1.84441047222184</v>
+      </c>
+      <c r="Y16" s="12" t="n">
+        <v>-1.84170010670517</v>
       </c>
       <c r="Z16" s="17" t="n">
         <f aca="false">AVERAGE(U16:Y16)</f>
-        <v>0.0143150665447226</v>
+        <v>-1.84421515657218</v>
       </c>
       <c r="AA16" s="17" t="n">
         <f aca="false">U16-$Z16</f>
-        <v>0.0001173420273064</v>
+        <v>0.0035539715362618</v>
       </c>
       <c r="AB16" s="17" t="n">
         <f aca="false">V16-$Z16</f>
-        <v>-7.61793969896E-005</v>
+        <v>-0.00230879545316309</v>
       </c>
       <c r="AC16" s="17" t="n">
         <f aca="false">W16-$Z16</f>
-        <v>-0.0001173031914296</v>
+        <v>-0.00356491030044848</v>
       </c>
       <c r="AD16" s="17" t="n">
         <f aca="false">X16-$Z16</f>
-        <v>-6.71744121360021E-006</v>
-      </c>
-      <c r="AE16" s="21" t="n">
+        <v>-0.000195315649659245</v>
+      </c>
+      <c r="AE16" s="19" t="n">
         <f aca="false">Y16-$Z16</f>
-        <v>8.28580023263994E-005</v>
-      </c>
-      <c r="AK16" s="15"/>
+        <v>0.00251504986700901</v>
+      </c>
+      <c r="AK16" s="14"/>
+      <c r="AN16" s="20" t="n">
+        <v>0.014432408572029</v>
+      </c>
+      <c r="AO16" s="21" t="n">
+        <v>0.014238887147733</v>
+      </c>
+      <c r="AP16" s="21" t="n">
+        <v>0.014197763353293</v>
+      </c>
+      <c r="AQ16" s="21" t="n">
+        <v>0.014308349103509</v>
+      </c>
+      <c r="AR16" s="21" t="n">
+        <v>0.014397924547049</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E17" s="16" t="n">
@@ -4080,53 +4273,68 @@
         <f aca="false">F17*G17*H17*I17</f>
         <v>1</v>
       </c>
-      <c r="U17" s="19" t="n">
-        <v>0.10522663492544</v>
-      </c>
-      <c r="V17" s="20" t="n">
-        <v>0.10500570969922</v>
-      </c>
-      <c r="W17" s="20" t="n">
-        <v>0.10558426616291</v>
-      </c>
-      <c r="X17" s="20" t="n">
-        <v>0.10357992953158</v>
-      </c>
-      <c r="Y17" s="20" t="n">
-        <v>0.10183981476932</v>
+      <c r="U17" s="12" t="n">
+        <v>-0.977874317814857</v>
+      </c>
+      <c r="V17" s="12" t="n">
+        <v>-0.978787085468666</v>
+      </c>
+      <c r="W17" s="12" t="n">
+        <v>-0.976400794185985</v>
+      </c>
+      <c r="X17" s="12" t="n">
+        <v>-0.984724388781113</v>
+      </c>
+      <c r="Y17" s="12" t="n">
+        <v>-0.992082399267356</v>
       </c>
       <c r="Z17" s="17" t="n">
         <f aca="false">AVERAGE(U17:Y17)</f>
-        <v>0.104247271017694</v>
+        <v>-0.981973797103595</v>
       </c>
       <c r="AA17" s="17" t="n">
         <f aca="false">U17-$Z17</f>
-        <v>0.000979363907745987</v>
+        <v>0.00409947928873866</v>
       </c>
       <c r="AB17" s="17" t="n">
         <f aca="false">V17-$Z17</f>
-        <v>0.000758438681525989</v>
+        <v>0.00318671163492956</v>
       </c>
       <c r="AC17" s="17" t="n">
         <f aca="false">W17-$Z17</f>
-        <v>0.00133699514521599</v>
+        <v>0.00557300291761009</v>
       </c>
       <c r="AD17" s="17" t="n">
         <f aca="false">X17-$Z17</f>
-        <v>-0.000667341486114012</v>
-      </c>
-      <c r="AE17" s="21" t="n">
+        <v>-0.00275059167751801</v>
+      </c>
+      <c r="AE17" s="19" t="n">
         <f aca="false">Y17-$Z17</f>
-        <v>-0.00240745624837402</v>
+        <v>-0.0101086021637608</v>
       </c>
       <c r="AI17" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ17" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK17" s="15" t="n">
+        <v>39</v>
+      </c>
+      <c r="AK17" s="14" t="n">
         <v>0.014939479680577</v>
+      </c>
+      <c r="AN17" s="20" t="n">
+        <v>0.10522663492544</v>
+      </c>
+      <c r="AO17" s="21" t="n">
+        <v>0.10500570969922</v>
+      </c>
+      <c r="AP17" s="21" t="n">
+        <v>0.10558426616291</v>
+      </c>
+      <c r="AQ17" s="21" t="n">
+        <v>0.10357992953158</v>
+      </c>
+      <c r="AR17" s="21" t="n">
+        <v>0.10183981476932</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4189,53 +4397,68 @@
         <f aca="false">F18*G18*H18*I18</f>
         <v>-1</v>
       </c>
-      <c r="U18" s="19" t="n">
-        <v>0.059046863379219</v>
-      </c>
-      <c r="V18" s="20" t="n">
-        <v>0.057204551266361</v>
-      </c>
-      <c r="W18" s="20" t="n">
-        <v>0.056739430260014</v>
-      </c>
-      <c r="X18" s="20" t="n">
-        <v>0.058472803196988</v>
-      </c>
-      <c r="Y18" s="20" t="n">
-        <v>0.057916763937541</v>
+      <c r="U18" s="12" t="n">
+        <v>-1.22880316753865</v>
+      </c>
+      <c r="V18" s="12" t="n">
+        <v>-1.24256941681477</v>
+      </c>
+      <c r="W18" s="12" t="n">
+        <v>-1.2461150294174</v>
+      </c>
+      <c r="X18" s="12" t="n">
+        <v>-1.23304608550594</v>
+      </c>
+      <c r="Y18" s="12" t="n">
+        <v>-1.2371957120618</v>
       </c>
       <c r="Z18" s="17" t="n">
         <f aca="false">AVERAGE(U18:Y18)</f>
-        <v>0.0578760824080246</v>
+        <v>-1.23754588226771</v>
       </c>
       <c r="AA18" s="17" t="n">
         <f aca="false">U18-$Z18</f>
-        <v>0.00117078097119441</v>
+        <v>0.00874271472905885</v>
       </c>
       <c r="AB18" s="17" t="n">
         <f aca="false">V18-$Z18</f>
-        <v>-0.000671531141663594</v>
+        <v>-0.00502353454705751</v>
       </c>
       <c r="AC18" s="17" t="n">
         <f aca="false">W18-$Z18</f>
-        <v>-0.00113665214801059</v>
+        <v>-0.00856914714968915</v>
       </c>
       <c r="AD18" s="17" t="n">
         <f aca="false">X18-$Z18</f>
-        <v>0.00059672078896341</v>
-      </c>
-      <c r="AE18" s="21" t="n">
+        <v>0.00449979676177104</v>
+      </c>
+      <c r="AE18" s="19" t="n">
         <f aca="false">Y18-$Z18</f>
-        <v>4.06815295164106E-005</v>
+        <v>0.000350170205916545</v>
       </c>
       <c r="AI18" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ18" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="AK18" s="15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK18" s="14" t="n">
         <v>0.014578183176152</v>
+      </c>
+      <c r="AN18" s="20" t="n">
+        <v>0.059046863379219</v>
+      </c>
+      <c r="AO18" s="21" t="n">
+        <v>0.057204551266361</v>
+      </c>
+      <c r="AP18" s="21" t="n">
+        <v>0.056739430260014</v>
+      </c>
+      <c r="AQ18" s="21" t="n">
+        <v>0.058472803196988</v>
+      </c>
+      <c r="AR18" s="21" t="n">
+        <v>0.057916763937541</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4298,53 +4521,68 @@
         <f aca="false">F19*G19*H19*I19</f>
         <v>-1</v>
       </c>
-      <c r="U19" s="19" t="n">
-        <v>0.013916659743746</v>
-      </c>
-      <c r="V19" s="20" t="n">
-        <v>0.013869074182248</v>
-      </c>
-      <c r="W19" s="20" t="n">
-        <v>0.013917911010515</v>
-      </c>
-      <c r="X19" s="20" t="n">
-        <v>0.013888522231672</v>
-      </c>
-      <c r="Y19" s="20" t="n">
-        <v>0.013830597733244</v>
+      <c r="U19" s="12" t="n">
+        <v>-1.85646499094222</v>
+      </c>
+      <c r="V19" s="12" t="n">
+        <v>-1.85795252890226</v>
+      </c>
+      <c r="W19" s="12" t="n">
+        <v>-1.85642594465993</v>
+      </c>
+      <c r="X19" s="12" t="n">
+        <v>-1.85734396166144</v>
+      </c>
+      <c r="Y19" s="12" t="n">
+        <v>-1.85915905006857</v>
       </c>
       <c r="Z19" s="17" t="n">
         <f aca="false">AVERAGE(U19:Y19)</f>
-        <v>0.013884552980285</v>
+        <v>-1.85746929524688</v>
       </c>
       <c r="AA19" s="17" t="n">
         <f aca="false">U19-$Z19</f>
-        <v>3.21067634610015E-005</v>
+        <v>0.00100430430466436</v>
       </c>
       <c r="AB19" s="17" t="n">
         <f aca="false">V19-$Z19</f>
-        <v>-1.54787980369987E-005</v>
+        <v>-0.000483233655375059</v>
       </c>
       <c r="AC19" s="17" t="n">
         <f aca="false">W19-$Z19</f>
-        <v>3.33580302300015E-005</v>
+        <v>0.00104335058695315</v>
       </c>
       <c r="AD19" s="17" t="n">
         <f aca="false">X19-$Z19</f>
-        <v>3.96925138700099E-006</v>
-      </c>
-      <c r="AE19" s="21" t="n">
+        <v>0.000125333585443199</v>
+      </c>
+      <c r="AE19" s="19" t="n">
         <f aca="false">Y19-$Z19</f>
-        <v>-5.39552470410001E-005</v>
+        <v>-0.00168975482168676</v>
       </c>
       <c r="AI19" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ19" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK19" s="15" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK19" s="14" t="n">
         <v>0.014665162003028</v>
+      </c>
+      <c r="AN19" s="20" t="n">
+        <v>0.013916659743746</v>
+      </c>
+      <c r="AO19" s="21" t="n">
+        <v>0.013869074182248</v>
+      </c>
+      <c r="AP19" s="21" t="n">
+        <v>0.013917911010515</v>
+      </c>
+      <c r="AQ19" s="21" t="n">
+        <v>0.013888522231672</v>
+      </c>
+      <c r="AR19" s="21" t="n">
+        <v>0.013830597733244</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4407,87 +4645,102 @@
         <f aca="false">F20*G20*H20*I20</f>
         <v>1</v>
       </c>
-      <c r="U20" s="25" t="n">
-        <v>0.012768703056534</v>
-      </c>
-      <c r="V20" s="26" t="n">
-        <v>0.012734137640021</v>
-      </c>
-      <c r="W20" s="26" t="n">
-        <v>0.012729751229949</v>
-      </c>
-      <c r="X20" s="26" t="n">
-        <v>0.012677739125374</v>
-      </c>
-      <c r="Y20" s="26" t="n">
-        <v>0.012857291284201</v>
+      <c r="U20" s="12" t="n">
+        <v>-1.89385321268139</v>
+      </c>
+      <c r="V20" s="12" t="n">
+        <v>-1.89503046026937</v>
+      </c>
+      <c r="W20" s="12" t="n">
+        <v>-1.89518008342538</v>
+      </c>
+      <c r="X20" s="12" t="n">
+        <v>-1.89695818911367</v>
+      </c>
+      <c r="Y20" s="12" t="n">
+        <v>-1.89085051696647</v>
       </c>
       <c r="Z20" s="23" t="n">
         <f aca="false">AVERAGE(U20:Y20)</f>
-        <v>0.0127535244672158</v>
+        <v>-1.89437449249126</v>
       </c>
       <c r="AA20" s="23" t="n">
         <f aca="false">U20-$Z20</f>
-        <v>1.51785893181995E-005</v>
+        <v>0.000521279809865716</v>
       </c>
       <c r="AB20" s="23" t="n">
         <f aca="false">V20-$Z20</f>
-        <v>-1.93868271948002E-005</v>
+        <v>-0.000655967778113942</v>
       </c>
       <c r="AC20" s="23" t="n">
         <f aca="false">W20-$Z20</f>
-        <v>-2.37732372667995E-005</v>
+        <v>-0.000805590934121581</v>
       </c>
       <c r="AD20" s="23" t="n">
         <f aca="false">X20-$Z20</f>
-        <v>-7.57853418417997E-005</v>
-      </c>
-      <c r="AE20" s="27" t="n">
+        <v>-0.00258369662241731</v>
+      </c>
+      <c r="AE20" s="25" t="n">
         <f aca="false">Y20-$Z20</f>
-        <v>0.0001037668169852</v>
+        <v>0.00352397552478667</v>
       </c>
       <c r="AI20" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ20" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK20" s="15" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK20" s="14" t="n">
         <v>0.014905594386911</v>
+      </c>
+      <c r="AN20" s="26" t="n">
+        <v>0.012768703056534</v>
+      </c>
+      <c r="AO20" s="27" t="n">
+        <v>0.012734137640021</v>
+      </c>
+      <c r="AP20" s="27" t="n">
+        <v>0.012729751229949</v>
+      </c>
+      <c r="AQ20" s="27" t="n">
+        <v>0.012677739125374</v>
+      </c>
+      <c r="AR20" s="27" t="n">
+        <v>0.012857291284201</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="Y21" s="28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z21" s="28"/>
       <c r="AA21" s="29" t="n">
         <f aca="false">SUM(AA5:AA20)</f>
-        <v>0.0322464672973766</v>
+        <v>0.0807760863301739</v>
       </c>
       <c r="AB21" s="29" t="n">
         <f aca="false">SUM(AB5:AB20)</f>
-        <v>0.0679697860219395</v>
+        <v>0.106318422214945</v>
       </c>
       <c r="AC21" s="29" t="n">
         <f aca="false">SUM(AC5:AC20)</f>
-        <v>0.0215129515145906</v>
+        <v>-0.0300372026307375</v>
       </c>
       <c r="AD21" s="29" t="n">
         <f aca="false">SUM(AD5:AD20)</f>
-        <v>-0.0444528614288404</v>
-      </c>
-      <c r="AE21" s="14" t="n">
+        <v>-0.0245875608966756</v>
+      </c>
+      <c r="AE21" s="13" t="n">
         <f aca="false">SUM(AE5:AE20)</f>
-        <v>-0.0772763434050664</v>
+        <v>-0.132469745017707</v>
       </c>
       <c r="AI21" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AJ21" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK21" s="15" t="n">
+        <v>37</v>
+      </c>
+      <c r="AK21" s="14" t="n">
         <v>0.015016094788499</v>
       </c>
     </row>
@@ -4498,40 +4751,40 @@
       <c r="AB22" s="29"/>
       <c r="AC22" s="29"/>
       <c r="AD22" s="29"/>
-      <c r="AE22" s="14"/>
+      <c r="AE22" s="13"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="Y23" s="30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Z23" s="30"/>
       <c r="AA23" s="31" t="n">
         <f aca="false">AVERAGE(AA5:AA20)</f>
-        <v>0.00201540420608603</v>
+        <v>0.00504850539563587</v>
       </c>
       <c r="AB23" s="31" t="n">
         <f aca="false">AVERAGE(AB5:AB20)</f>
-        <v>0.00424811162637122</v>
+        <v>0.00664490138843404</v>
       </c>
       <c r="AC23" s="31" t="n">
         <f aca="false">AVERAGE(AC5:AC20)</f>
-        <v>0.00134455946966191</v>
+        <v>-0.00187732516442109</v>
       </c>
       <c r="AD23" s="31" t="n">
         <f aca="false">AVERAGE(AD5:AD20)</f>
-        <v>-0.00277830383930252</v>
-      </c>
-      <c r="AE23" s="27" t="n">
+        <v>-0.00153672255604223</v>
+      </c>
+      <c r="AE23" s="25" t="n">
         <f aca="false">AVERAGE(AE5:AE20)</f>
-        <v>-0.00482977146281665</v>
+        <v>-0.00827935906360668</v>
       </c>
       <c r="AI23" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AJ23" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK23" s="15" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK23" s="14" t="n">
         <v>0.013175360957011</v>
       </c>
     </row>
@@ -4542,2033 +4795,2033 @@
       <c r="AB24" s="31"/>
       <c r="AC24" s="31"/>
       <c r="AD24" s="31"/>
-      <c r="AE24" s="27"/>
+      <c r="AE24" s="25"/>
       <c r="AI24" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AJ24" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK24" s="15" t="n">
+        <v>37</v>
+      </c>
+      <c r="AK24" s="14" t="n">
         <v>0.012894863618834</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AI25" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AJ25" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK25" s="15" t="n">
+        <v>39</v>
+      </c>
+      <c r="AK25" s="14" t="n">
         <v>0.012841514285575</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AI26" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AJ26" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK26" s="15" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK26" s="14" t="n">
         <v>0.013000346444755</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AI27" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AJ27" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="AK27" s="15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK27" s="14" t="n">
         <v>0.012459581394626</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E28" s="32" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F28" s="33" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H28" s="33" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I28" s="33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J28" s="33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K28" s="33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L28" s="33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M28" s="33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N28" s="33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O28" s="33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P28" s="33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q28" s="33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R28" s="33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S28" s="33" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T28" s="34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="V28" s="35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="W28" s="36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="X28" s="36"/>
       <c r="Y28" s="36"/>
       <c r="Z28" s="36"/>
       <c r="AA28" s="36"/>
-      <c r="AK28" s="15"/>
+      <c r="AK28" s="14"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E29" s="9" t="n">
         <f aca="false">E5*$Z5</f>
-        <v>0.108597102675314</v>
+        <v>-0.964396930254188</v>
       </c>
       <c r="F29" s="10" t="n">
         <f aca="false">F5*$Z5</f>
-        <v>-0.108597102675314</v>
+        <v>0.964396930254188</v>
       </c>
       <c r="G29" s="10" t="n">
         <f aca="false">G5*$Z5</f>
-        <v>-0.108597102675314</v>
+        <v>0.964396930254188</v>
       </c>
       <c r="H29" s="10" t="n">
         <f aca="false">H5*$Z5</f>
-        <v>-0.108597102675314</v>
+        <v>0.964396930254188</v>
       </c>
       <c r="I29" s="10" t="n">
         <f aca="false">I5*$Z5</f>
-        <v>-0.108597102675314</v>
+        <v>0.964396930254188</v>
       </c>
       <c r="J29" s="10" t="n">
         <f aca="false">J5*$Z5</f>
-        <v>0.108597102675314</v>
+        <v>-0.964396930254188</v>
       </c>
       <c r="K29" s="10" t="n">
         <f aca="false">K5*$Z5</f>
-        <v>0.108597102675314</v>
+        <v>-0.964396930254188</v>
       </c>
       <c r="L29" s="10" t="n">
         <f aca="false">L5*$Z5</f>
-        <v>0.108597102675314</v>
+        <v>-0.964396930254188</v>
       </c>
       <c r="M29" s="10" t="n">
         <f aca="false">M5*$Z5</f>
-        <v>0.108597102675314</v>
+        <v>-0.964396930254188</v>
       </c>
       <c r="N29" s="10" t="n">
         <f aca="false">N5*$Z5</f>
-        <v>0.108597102675314</v>
+        <v>-0.964396930254188</v>
       </c>
       <c r="O29" s="10" t="n">
         <f aca="false">O5*$Z5</f>
-        <v>0.108597102675314</v>
+        <v>-0.964396930254188</v>
       </c>
       <c r="P29" s="10" t="n">
         <f aca="false">P5*$Z5</f>
-        <v>-0.108597102675314</v>
+        <v>0.964396930254188</v>
       </c>
       <c r="Q29" s="10" t="n">
         <f aca="false">Q5*$Z5</f>
-        <v>-0.108597102675314</v>
+        <v>0.964396930254188</v>
       </c>
       <c r="R29" s="10" t="n">
         <f aca="false">R5*$Z5</f>
-        <v>-0.108597102675314</v>
+        <v>0.964396930254188</v>
       </c>
       <c r="S29" s="10" t="n">
         <f aca="false">S5*$Z5</f>
-        <v>-0.108597102675314</v>
-      </c>
-      <c r="T29" s="14" t="n">
+        <v>0.964396930254188</v>
+      </c>
+      <c r="T29" s="13" t="n">
         <f aca="false">T5*$Z5</f>
-        <v>0.108597102675314</v>
+        <v>-0.964396930254188</v>
       </c>
       <c r="W29" s="9" t="n">
         <f aca="false">AA5^2</f>
-        <v>1.19171002153043E-007</v>
+        <v>1.36323745328296E-006</v>
       </c>
       <c r="X29" s="10" t="n">
         <f aca="false">AB5^2</f>
-        <v>8.45663074533256E-006</v>
+        <v>0.000133933794296332</v>
       </c>
       <c r="Y29" s="10" t="n">
         <f aca="false">AC5^2</f>
-        <v>4.04480877675799E-010</v>
+        <v>1.81527052632265E-008</v>
       </c>
       <c r="Z29" s="10" t="n">
         <f aca="false">AD5^2</f>
-        <v>9.88151272994585E-006</v>
-      </c>
-      <c r="AA29" s="14" t="n">
+        <v>0.000157291636775373</v>
+      </c>
+      <c r="AA29" s="13" t="n">
         <f aca="false">AE5^2</f>
-        <v>4.11758261406024E-005</v>
+        <v>0.000632392671527021</v>
       </c>
       <c r="AI29" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AJ29" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK29" s="15" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK29" s="14" t="n">
         <v>0.10168682936953</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E30" s="16" t="n">
         <f aca="false">E6*$Z6</f>
-        <v>0.0607526826033172</v>
+        <v>-1.21665623024171</v>
       </c>
       <c r="F30" s="17" t="n">
         <f aca="false">F6*$Z6</f>
-        <v>-0.0607526826033172</v>
+        <v>1.21665623024171</v>
       </c>
       <c r="G30" s="17" t="n">
         <f aca="false">G6*$Z6</f>
-        <v>-0.0607526826033172</v>
+        <v>1.21665623024171</v>
       </c>
       <c r="H30" s="17" t="n">
         <f aca="false">H6*$Z6</f>
-        <v>-0.0607526826033172</v>
+        <v>1.21665623024171</v>
       </c>
       <c r="I30" s="17" t="n">
         <f aca="false">I6*$Z6</f>
-        <v>0.0607526826033172</v>
+        <v>-1.21665623024171</v>
       </c>
       <c r="J30" s="17" t="n">
         <f aca="false">J6*$Z6</f>
-        <v>0.0607526826033172</v>
+        <v>-1.21665623024171</v>
       </c>
       <c r="K30" s="17" t="n">
         <f aca="false">K6*$Z6</f>
-        <v>0.0607526826033172</v>
+        <v>-1.21665623024171</v>
       </c>
       <c r="L30" s="17" t="n">
         <f aca="false">L6*$Z6</f>
-        <v>-0.0607526826033172</v>
+        <v>1.21665623024171</v>
       </c>
       <c r="M30" s="17" t="n">
         <f aca="false">M6*$Z6</f>
-        <v>0.0607526826033172</v>
+        <v>-1.21665623024171</v>
       </c>
       <c r="N30" s="17" t="n">
         <f aca="false">N6*$Z6</f>
-        <v>-0.0607526826033172</v>
+        <v>1.21665623024171</v>
       </c>
       <c r="O30" s="17" t="n">
         <f aca="false">O6*$Z6</f>
-        <v>-0.0607526826033172</v>
+        <v>1.21665623024171</v>
       </c>
       <c r="P30" s="17" t="n">
         <f aca="false">P6*$Z6</f>
-        <v>-0.0607526826033172</v>
+        <v>1.21665623024171</v>
       </c>
       <c r="Q30" s="17" t="n">
         <f aca="false">Q6*$Z6</f>
-        <v>0.0607526826033172</v>
+        <v>-1.21665623024171</v>
       </c>
       <c r="R30" s="17" t="n">
         <f aca="false">R6*$Z6</f>
-        <v>0.0607526826033172</v>
+        <v>-1.21665623024171</v>
       </c>
       <c r="S30" s="17" t="n">
         <f aca="false">S6*$Z6</f>
-        <v>0.0607526826033172</v>
-      </c>
-      <c r="T30" s="21" t="n">
+        <v>-1.21665623024171</v>
+      </c>
+      <c r="T30" s="19" t="n">
         <f aca="false">T6*$Z6</f>
-        <v>-0.0607526826033172</v>
+        <v>1.21665623024171</v>
       </c>
       <c r="W30" s="16" t="n">
         <f aca="false">AA6^2</f>
-        <v>3.83968444719366E-006</v>
+        <v>0.000196230349358748</v>
       </c>
       <c r="X30" s="17" t="n">
         <f aca="false">AB6^2</f>
-        <v>6.11687278544603E-006</v>
+        <v>0.000308049727354812</v>
       </c>
       <c r="Y30" s="17" t="n">
         <f aca="false">AC6^2</f>
-        <v>7.11443387621399E-008</v>
+        <v>2.85352328387439E-006</v>
       </c>
       <c r="Z30" s="17" t="n">
         <f aca="false">AD6^2</f>
-        <v>5.60228440446357E-006</v>
-      </c>
-      <c r="AA30" s="21" t="n">
+        <v>0.000290251599777215</v>
+      </c>
+      <c r="AA30" s="19" t="n">
         <f aca="false">AE6^2</f>
-        <v>3.23675731134945E-006</v>
+        <v>0.00016470027074635</v>
       </c>
       <c r="AI30" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AJ30" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK30" s="15" t="n">
+        <v>37</v>
+      </c>
+      <c r="AK30" s="14" t="n">
         <v>0.099766438283369</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E31" s="16" t="n">
         <f aca="false">E7*$Z7</f>
-        <v>0.0148209028070334</v>
+        <v>-1.82915359204663</v>
       </c>
       <c r="F31" s="17" t="n">
         <f aca="false">F7*$Z7</f>
-        <v>-0.0148209028070334</v>
+        <v>1.82915359204663</v>
       </c>
       <c r="G31" s="17" t="n">
         <f aca="false">G7*$Z7</f>
-        <v>-0.0148209028070334</v>
+        <v>1.82915359204663</v>
       </c>
       <c r="H31" s="17" t="n">
         <f aca="false">H7*$Z7</f>
-        <v>0.0148209028070334</v>
+        <v>-1.82915359204663</v>
       </c>
       <c r="I31" s="17" t="n">
         <f aca="false">I7*$Z7</f>
-        <v>-0.0148209028070334</v>
+        <v>1.82915359204663</v>
       </c>
       <c r="J31" s="17" t="n">
         <f aca="false">J7*$Z7</f>
-        <v>0.0148209028070334</v>
+        <v>-1.82915359204663</v>
       </c>
       <c r="K31" s="17" t="n">
         <f aca="false">K7*$Z7</f>
-        <v>-0.0148209028070334</v>
+        <v>1.82915359204663</v>
       </c>
       <c r="L31" s="17" t="n">
         <f aca="false">L7*$Z7</f>
-        <v>0.0148209028070334</v>
+        <v>-1.82915359204663</v>
       </c>
       <c r="M31" s="17" t="n">
         <f aca="false">M7*$Z7</f>
-        <v>-0.0148209028070334</v>
+        <v>1.82915359204663</v>
       </c>
       <c r="N31" s="17" t="n">
         <f aca="false">N7*$Z7</f>
-        <v>0.0148209028070334</v>
+        <v>-1.82915359204663</v>
       </c>
       <c r="O31" s="17" t="n">
         <f aca="false">O7*$Z7</f>
-        <v>-0.0148209028070334</v>
+        <v>1.82915359204663</v>
       </c>
       <c r="P31" s="17" t="n">
         <f aca="false">P7*$Z7</f>
-        <v>0.0148209028070334</v>
+        <v>-1.82915359204663</v>
       </c>
       <c r="Q31" s="17" t="n">
         <f aca="false">Q7*$Z7</f>
-        <v>-0.0148209028070334</v>
+        <v>1.82915359204663</v>
       </c>
       <c r="R31" s="17" t="n">
         <f aca="false">R7*$Z7</f>
-        <v>0.0148209028070334</v>
+        <v>-1.82915359204663</v>
       </c>
       <c r="S31" s="17" t="n">
         <f aca="false">S7*$Z7</f>
-        <v>0.0148209028070334</v>
-      </c>
-      <c r="T31" s="21" t="n">
+        <v>-1.82915359204663</v>
+      </c>
+      <c r="T31" s="19" t="n">
         <f aca="false">T7*$Z7</f>
-        <v>-0.0148209028070334</v>
+        <v>1.82915359204663</v>
       </c>
       <c r="W31" s="16" t="n">
         <f aca="false">AA7^2</f>
-        <v>7.17266370216397E-009</v>
+        <v>6.26446345978732E-006</v>
       </c>
       <c r="X31" s="17" t="n">
         <f aca="false">AB7^2</f>
-        <v>3.80999096284674E-008</v>
+        <v>3.26108739553338E-005</v>
       </c>
       <c r="Y31" s="17" t="n">
         <f aca="false">AC7^2</f>
-        <v>1.40604749393751E-008</v>
+        <v>1.2173567394946E-005</v>
       </c>
       <c r="Z31" s="17" t="n">
         <f aca="false">AD7^2</f>
-        <v>2.42551980322485E-008</v>
-      </c>
-      <c r="AA31" s="21" t="n">
+        <v>2.07894328110248E-005</v>
+      </c>
+      <c r="AA31" s="19" t="n">
         <f aca="false">AE7^2</f>
-        <v>5.8912819215203E-008</v>
+        <v>5.10225215472415E-005</v>
       </c>
       <c r="AI31" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AJ31" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK31" s="15" t="n">
+        <v>39</v>
+      </c>
+      <c r="AK31" s="14" t="n">
         <v>0.094269419122075</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E32" s="16" t="n">
         <f aca="false">E8*$Z8</f>
-        <v>0.0128743333401602</v>
+        <v>-1.89034922158431</v>
       </c>
       <c r="F32" s="17" t="n">
         <f aca="false">F8*$Z8</f>
-        <v>-0.0128743333401602</v>
+        <v>1.89034922158431</v>
       </c>
       <c r="G32" s="17" t="n">
         <f aca="false">G8*$Z8</f>
-        <v>-0.0128743333401602</v>
+        <v>1.89034922158431</v>
       </c>
       <c r="H32" s="17" t="n">
         <f aca="false">H8*$Z8</f>
-        <v>0.0128743333401602</v>
+        <v>-1.89034922158431</v>
       </c>
       <c r="I32" s="17" t="n">
         <f aca="false">I8*$Z8</f>
-        <v>0.0128743333401602</v>
+        <v>-1.89034922158431</v>
       </c>
       <c r="J32" s="17" t="n">
         <f aca="false">J8*$Z8</f>
-        <v>0.0128743333401602</v>
+        <v>-1.89034922158431</v>
       </c>
       <c r="K32" s="17" t="n">
         <f aca="false">K8*$Z8</f>
-        <v>-0.0128743333401602</v>
+        <v>1.89034922158431</v>
       </c>
       <c r="L32" s="17" t="n">
         <f aca="false">L8*$Z8</f>
-        <v>-0.0128743333401602</v>
+        <v>1.89034922158431</v>
       </c>
       <c r="M32" s="17" t="n">
         <f aca="false">M8*$Z8</f>
-        <v>-0.0128743333401602</v>
+        <v>1.89034922158431</v>
       </c>
       <c r="N32" s="17" t="n">
         <f aca="false">N8*$Z8</f>
-        <v>-0.0128743333401602</v>
+        <v>1.89034922158431</v>
       </c>
       <c r="O32" s="17" t="n">
         <f aca="false">O8*$Z8</f>
-        <v>0.0128743333401602</v>
+        <v>-1.89034922158431</v>
       </c>
       <c r="P32" s="17" t="n">
         <f aca="false">P8*$Z8</f>
-        <v>0.0128743333401602</v>
+        <v>-1.89034922158431</v>
       </c>
       <c r="Q32" s="17" t="n">
         <f aca="false">Q8*$Z8</f>
-        <v>0.0128743333401602</v>
+        <v>-1.89034922158431</v>
       </c>
       <c r="R32" s="17" t="n">
         <f aca="false">R8*$Z8</f>
-        <v>-0.0128743333401602</v>
+        <v>1.89034922158431</v>
       </c>
       <c r="S32" s="17" t="n">
         <f aca="false">S8*$Z8</f>
-        <v>-0.0128743333401602</v>
-      </c>
-      <c r="T32" s="21" t="n">
+        <v>1.89034922158431</v>
+      </c>
+      <c r="T32" s="19" t="n">
         <f aca="false">T8*$Z8</f>
-        <v>0.0128743333401602</v>
+        <v>-1.89034922158431</v>
       </c>
       <c r="W32" s="16" t="n">
         <f aca="false">AA8^2</f>
-        <v>9.06176261068711E-008</v>
+        <v>0.00010224736110871</v>
       </c>
       <c r="X32" s="17" t="n">
         <f aca="false">AB8^2</f>
-        <v>4.21492342423839E-010</v>
+        <v>5.86717413755463E-007</v>
       </c>
       <c r="Y32" s="17" t="n">
         <f aca="false">AC8^2</f>
-        <v>1.07709034386639E-009</v>
+        <v>1.0702713091685E-006</v>
       </c>
       <c r="Z32" s="17" t="n">
         <f aca="false">AD8^2</f>
-        <v>1.58793025296198E-008</v>
-      </c>
-      <c r="AA32" s="21" t="n">
+        <v>1.85256857848619E-005</v>
+      </c>
+      <c r="AA32" s="19" t="n">
         <f aca="false">AE8^2</f>
-        <v>1.72019176324405E-007</v>
+        <v>0.000200146857500212</v>
       </c>
       <c r="AI32" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AJ32" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK32" s="15" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK32" s="14" t="n">
         <v>0.098333928709259</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E33" s="16" t="n">
         <f aca="false">E9*$Z9</f>
-        <v>0.098787496578896</v>
+        <v>-1.00543885977692</v>
       </c>
       <c r="F33" s="17" t="n">
         <f aca="false">F9*$Z9</f>
-        <v>-0.098787496578896</v>
+        <v>1.00543885977692</v>
       </c>
       <c r="G33" s="17" t="n">
         <f aca="false">G9*$Z9</f>
-        <v>0.098787496578896</v>
+        <v>-1.00543885977692</v>
       </c>
       <c r="H33" s="17" t="n">
         <f aca="false">H9*$Z9</f>
-        <v>-0.098787496578896</v>
+        <v>1.00543885977692</v>
       </c>
       <c r="I33" s="17" t="n">
         <f aca="false">I9*$Z9</f>
-        <v>-0.098787496578896</v>
+        <v>1.00543885977692</v>
       </c>
       <c r="J33" s="17" t="n">
         <f aca="false">J9*$Z9</f>
-        <v>-0.098787496578896</v>
+        <v>1.00543885977692</v>
       </c>
       <c r="K33" s="17" t="n">
         <f aca="false">K9*$Z9</f>
-        <v>0.098787496578896</v>
+        <v>-1.00543885977692</v>
       </c>
       <c r="L33" s="17" t="n">
         <f aca="false">L9*$Z9</f>
-        <v>0.098787496578896</v>
+        <v>-1.00543885977692</v>
       </c>
       <c r="M33" s="17" t="n">
         <f aca="false">M9*$Z9</f>
-        <v>-0.098787496578896</v>
+        <v>1.00543885977692</v>
       </c>
       <c r="N33" s="17" t="n">
         <f aca="false">N9*$Z9</f>
-        <v>-0.098787496578896</v>
+        <v>1.00543885977692</v>
       </c>
       <c r="O33" s="17" t="n">
         <f aca="false">O9*$Z9</f>
-        <v>0.098787496578896</v>
+        <v>-1.00543885977692</v>
       </c>
       <c r="P33" s="17" t="n">
         <f aca="false">P9*$Z9</f>
-        <v>0.098787496578896</v>
+        <v>-1.00543885977692</v>
       </c>
       <c r="Q33" s="17" t="n">
         <f aca="false">Q9*$Z9</f>
-        <v>0.098787496578896</v>
+        <v>-1.00543885977692</v>
       </c>
       <c r="R33" s="17" t="n">
         <f aca="false">R9*$Z9</f>
-        <v>-0.098787496578896</v>
+        <v>1.00543885977692</v>
       </c>
       <c r="S33" s="17" t="n">
         <f aca="false">S9*$Z9</f>
-        <v>0.098787496578896</v>
-      </c>
-      <c r="T33" s="21" t="n">
+        <v>-1.00543885977692</v>
+      </c>
+      <c r="T33" s="19" t="n">
         <f aca="false">T9*$Z9</f>
-        <v>-0.098787496578896</v>
+        <v>1.00543885977692</v>
       </c>
       <c r="W33" s="16" t="n">
         <f aca="false">AA9^2</f>
-        <v>8.4061306308455E-006</v>
+        <v>0.000161380585820686</v>
       </c>
       <c r="X33" s="17" t="n">
         <f aca="false">AB9^2</f>
-        <v>9.58326860756512E-007</v>
+        <v>1.95658281229783E-005</v>
       </c>
       <c r="Y33" s="17" t="n">
         <f aca="false">AC9^2</f>
-        <v>2.04130239058341E-005</v>
+        <v>0.000407648585949323</v>
       </c>
       <c r="Z33" s="17" t="n">
         <f aca="false">AD9^2</f>
-        <v>2.05723812367037E-007</v>
-      </c>
-      <c r="AA33" s="21" t="n">
+        <v>3.45123306573936E-006</v>
+      </c>
+      <c r="AA33" s="19" t="n">
         <f aca="false">AE9^2</f>
-        <v>1.19545977484917E-006</v>
+        <v>2.42178657510657E-005</v>
       </c>
       <c r="AI33" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AJ33" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="AK33" s="15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK33" s="14" t="n">
         <v>0.099880867410247</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E34" s="16" t="n">
         <f aca="false">E10*$Z10</f>
-        <v>0.0610791290499902</v>
+        <v>-1.21418436087299</v>
       </c>
       <c r="F34" s="17" t="n">
         <f aca="false">F10*$Z10</f>
-        <v>-0.0610791290499902</v>
+        <v>1.21418436087299</v>
       </c>
       <c r="G34" s="17" t="n">
         <f aca="false">G10*$Z10</f>
-        <v>0.0610791290499902</v>
+        <v>-1.21418436087299</v>
       </c>
       <c r="H34" s="17" t="n">
         <f aca="false">H10*$Z10</f>
-        <v>-0.0610791290499902</v>
+        <v>1.21418436087299</v>
       </c>
       <c r="I34" s="17" t="n">
         <f aca="false">I10*$Z10</f>
-        <v>0.0610791290499902</v>
+        <v>-1.21418436087299</v>
       </c>
       <c r="J34" s="17" t="n">
         <f aca="false">J10*$Z10</f>
-        <v>-0.0610791290499902</v>
+        <v>1.21418436087299</v>
       </c>
       <c r="K34" s="17" t="n">
         <f aca="false">K10*$Z10</f>
-        <v>0.0610791290499902</v>
+        <v>-1.21418436087299</v>
       </c>
       <c r="L34" s="17" t="n">
         <f aca="false">L10*$Z10</f>
-        <v>-0.0610791290499902</v>
+        <v>1.21418436087299</v>
       </c>
       <c r="M34" s="17" t="n">
         <f aca="false">M10*$Z10</f>
-        <v>-0.0610791290499902</v>
+        <v>1.21418436087299</v>
       </c>
       <c r="N34" s="17" t="n">
         <f aca="false">N10*$Z10</f>
-        <v>0.0610791290499902</v>
+        <v>-1.21418436087299</v>
       </c>
       <c r="O34" s="17" t="n">
         <f aca="false">O10*$Z10</f>
-        <v>-0.0610791290499902</v>
+        <v>1.21418436087299</v>
       </c>
       <c r="P34" s="17" t="n">
         <f aca="false">P10*$Z10</f>
-        <v>0.0610791290499902</v>
+        <v>-1.21418436087299</v>
       </c>
       <c r="Q34" s="17" t="n">
         <f aca="false">Q10*$Z10</f>
-        <v>-0.0610791290499902</v>
+        <v>1.21418436087299</v>
       </c>
       <c r="R34" s="17" t="n">
         <f aca="false">R10*$Z10</f>
-        <v>0.0610791290499902</v>
+        <v>-1.21418436087299</v>
       </c>
       <c r="S34" s="17" t="n">
         <f aca="false">S10*$Z10</f>
-        <v>-0.0610791290499902</v>
-      </c>
-      <c r="T34" s="21" t="n">
+        <v>1.21418436087299</v>
+      </c>
+      <c r="T34" s="19" t="n">
         <f aca="false">T10*$Z10</f>
-        <v>0.0610791290499902</v>
+        <v>-1.21418436087299</v>
       </c>
       <c r="W34" s="16" t="n">
         <f aca="false">AA10^2</f>
-        <v>1.67831232795638E-006</v>
+        <v>8.44986627424294E-005</v>
       </c>
       <c r="X34" s="17" t="n">
         <f aca="false">AB10^2</f>
-        <v>1.75527253837182E-006</v>
+        <v>8.82991264307903E-005</v>
       </c>
       <c r="Y34" s="17" t="n">
         <f aca="false">AC10^2</f>
-        <v>3.51857064548247E-007</v>
+        <v>1.73148102558511E-005</v>
       </c>
       <c r="Z34" s="17" t="n">
         <f aca="false">AD10^2</f>
-        <v>2.69291563140183E-006</v>
-      </c>
-      <c r="AA34" s="21" t="n">
+        <v>0.000138076263421634</v>
+      </c>
+      <c r="AA34" s="19" t="n">
         <f aca="false">AE10^2</f>
-        <v>1.49133425759286E-007</v>
-      </c>
-      <c r="AK34" s="15"/>
+        <v>7.16838715392889E-006</v>
+      </c>
+      <c r="AK34" s="14"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E35" s="16" t="n">
         <f aca="false">E11*$Z11</f>
-        <v>0.013405885971452</v>
+        <v>-1.87271378655612</v>
       </c>
       <c r="F35" s="17" t="n">
         <f aca="false">F11*$Z11</f>
-        <v>-0.013405885971452</v>
+        <v>1.87271378655612</v>
       </c>
       <c r="G35" s="17" t="n">
         <f aca="false">G11*$Z11</f>
-        <v>0.013405885971452</v>
+        <v>-1.87271378655612</v>
       </c>
       <c r="H35" s="17" t="n">
         <f aca="false">H11*$Z11</f>
-        <v>0.013405885971452</v>
+        <v>-1.87271378655612</v>
       </c>
       <c r="I35" s="17" t="n">
         <f aca="false">I11*$Z11</f>
-        <v>-0.013405885971452</v>
+        <v>1.87271378655612</v>
       </c>
       <c r="J35" s="17" t="n">
         <f aca="false">J11*$Z11</f>
-        <v>-0.013405885971452</v>
+        <v>1.87271378655612</v>
       </c>
       <c r="K35" s="17" t="n">
         <f aca="false">K11*$Z11</f>
-        <v>-0.013405885971452</v>
+        <v>1.87271378655612</v>
       </c>
       <c r="L35" s="17" t="n">
         <f aca="false">L11*$Z11</f>
-        <v>0.013405885971452</v>
+        <v>-1.87271378655612</v>
       </c>
       <c r="M35" s="17" t="n">
         <f aca="false">M11*$Z11</f>
-        <v>0.013405885971452</v>
+        <v>-1.87271378655612</v>
       </c>
       <c r="N35" s="17" t="n">
         <f aca="false">N11*$Z11</f>
-        <v>-0.013405885971452</v>
+        <v>1.87271378655612</v>
       </c>
       <c r="O35" s="17" t="n">
         <f aca="false">O11*$Z11</f>
-        <v>-0.013405885971452</v>
+        <v>1.87271378655612</v>
       </c>
       <c r="P35" s="17" t="n">
         <f aca="false">P11*$Z11</f>
-        <v>-0.013405885971452</v>
+        <v>1.87271378655612</v>
       </c>
       <c r="Q35" s="17" t="n">
         <f aca="false">Q11*$Z11</f>
-        <v>0.013405885971452</v>
+        <v>-1.87271378655612</v>
       </c>
       <c r="R35" s="17" t="n">
         <f aca="false">R11*$Z11</f>
-        <v>0.013405885971452</v>
+        <v>-1.87271378655612</v>
       </c>
       <c r="S35" s="17" t="n">
         <f aca="false">S11*$Z11</f>
-        <v>-0.013405885971452</v>
-      </c>
-      <c r="T35" s="21" t="n">
+        <v>1.87271378655612</v>
+      </c>
+      <c r="T35" s="19" t="n">
         <f aca="false">T11*$Z11</f>
-        <v>0.013405885971452</v>
+        <v>-1.87271378655612</v>
       </c>
       <c r="W35" s="16" t="n">
         <f aca="false">AA11^2</f>
-        <v>5.03735885871752E-009</v>
+        <v>5.30157022430743E-006</v>
       </c>
       <c r="X35" s="17" t="n">
         <f aca="false">AB11^2</f>
-        <v>1.55279451489629E-008</v>
+        <v>1.62210833557849E-005</v>
       </c>
       <c r="Y35" s="17" t="n">
         <f aca="false">AC11^2</f>
-        <v>1.42130463073198E-010</v>
+        <v>1.42190933440348E-007</v>
       </c>
       <c r="Z35" s="17" t="n">
         <f aca="false">AD11^2</f>
-        <v>4.88123239751353E-009</v>
-      </c>
-      <c r="AA35" s="21" t="n">
+        <v>5.10746569379462E-006</v>
+      </c>
+      <c r="AA35" s="19" t="n">
         <f aca="false">AE11^2</f>
-        <v>1.29499538869224E-008</v>
+        <v>1.36382643939735E-005</v>
       </c>
       <c r="AI35" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AJ35" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK35" s="15" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK35" s="14" t="n">
         <v>0.062374625992463</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E36" s="16" t="n">
         <f aca="false">E12*$Z12</f>
-        <v>0.012639082519845</v>
+        <v>-1.89838872863145</v>
       </c>
       <c r="F36" s="17" t="n">
         <f aca="false">F12*$Z12</f>
-        <v>-0.012639082519845</v>
+        <v>1.89838872863145</v>
       </c>
       <c r="G36" s="17" t="n">
         <f aca="false">G12*$Z12</f>
-        <v>0.012639082519845</v>
+        <v>-1.89838872863145</v>
       </c>
       <c r="H36" s="17" t="n">
         <f aca="false">H12*$Z12</f>
-        <v>0.012639082519845</v>
+        <v>-1.89838872863145</v>
       </c>
       <c r="I36" s="17" t="n">
         <f aca="false">I12*$Z12</f>
-        <v>0.012639082519845</v>
+        <v>-1.89838872863145</v>
       </c>
       <c r="J36" s="17" t="n">
         <f aca="false">J12*$Z12</f>
-        <v>-0.012639082519845</v>
+        <v>1.89838872863145</v>
       </c>
       <c r="K36" s="17" t="n">
         <f aca="false">K12*$Z12</f>
-        <v>-0.012639082519845</v>
+        <v>1.89838872863145</v>
       </c>
       <c r="L36" s="17" t="n">
         <f aca="false">L12*$Z12</f>
-        <v>-0.012639082519845</v>
+        <v>1.89838872863145</v>
       </c>
       <c r="M36" s="17" t="n">
         <f aca="false">M12*$Z12</f>
-        <v>0.012639082519845</v>
+        <v>-1.89838872863145</v>
       </c>
       <c r="N36" s="17" t="n">
         <f aca="false">N12*$Z12</f>
-        <v>0.012639082519845</v>
+        <v>-1.89838872863145</v>
       </c>
       <c r="O36" s="17" t="n">
         <f aca="false">O12*$Z12</f>
-        <v>0.012639082519845</v>
+        <v>-1.89838872863145</v>
       </c>
       <c r="P36" s="17" t="n">
         <f aca="false">P12*$Z12</f>
-        <v>-0.012639082519845</v>
+        <v>1.89838872863145</v>
       </c>
       <c r="Q36" s="17" t="n">
         <f aca="false">Q12*$Z12</f>
-        <v>-0.012639082519845</v>
+        <v>1.89838872863145</v>
       </c>
       <c r="R36" s="17" t="n">
         <f aca="false">R12*$Z12</f>
-        <v>-0.012639082519845</v>
+        <v>1.89838872863145</v>
       </c>
       <c r="S36" s="17" t="n">
         <f aca="false">S12*$Z12</f>
-        <v>0.012639082519845</v>
-      </c>
-      <c r="T36" s="21" t="n">
+        <v>-1.89838872863145</v>
+      </c>
+      <c r="T36" s="19" t="n">
         <f aca="false">T12*$Z12</f>
-        <v>-0.012639082519845</v>
+        <v>1.89838872863145</v>
       </c>
       <c r="W36" s="16" t="n">
         <f aca="false">AA12^2</f>
-        <v>1.99623965684262E-007</v>
+        <v>0.000230782056596202</v>
       </c>
       <c r="X36" s="17" t="n">
         <f aca="false">AB12^2</f>
-        <v>1.07066804265789E-010</v>
+        <v>2.1130462392875E-007</v>
       </c>
       <c r="Y36" s="17" t="n">
         <f aca="false">AC12^2</f>
-        <v>1.39846427324008E-008</v>
+        <v>1.72128040522151E-005</v>
       </c>
       <c r="Z36" s="17" t="n">
         <f aca="false">AD12^2</f>
-        <v>5.3972100471821E-008</v>
-      </c>
-      <c r="AA36" s="21" t="n">
+        <v>6.3246481731607E-005</v>
+      </c>
+      <c r="AA36" s="19" t="n">
         <f aca="false">AE12^2</f>
-        <v>1.17702518443148E-007</v>
+        <v>0.000140357509334078</v>
       </c>
       <c r="AI36" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AJ36" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK36" s="15" t="n">
+        <v>37</v>
+      </c>
+      <c r="AK36" s="14" t="n">
         <v>0.062403996038926</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E37" s="16" t="n">
         <f aca="false">E13*$Z13</f>
-        <v>0.446050676882468</v>
+        <v>-0.353663253734321</v>
       </c>
       <c r="F37" s="17" t="n">
         <f aca="false">F13*$Z13</f>
-        <v>0.446050676882468</v>
+        <v>-0.353663253734321</v>
       </c>
       <c r="G37" s="17" t="n">
         <f aca="false">G13*$Z13</f>
-        <v>-0.446050676882468</v>
+        <v>0.353663253734321</v>
       </c>
       <c r="H37" s="17" t="n">
         <f aca="false">H13*$Z13</f>
-        <v>-0.446050676882468</v>
+        <v>0.353663253734321</v>
       </c>
       <c r="I37" s="17" t="n">
         <f aca="false">I13*$Z13</f>
-        <v>-0.446050676882468</v>
+        <v>0.353663253734321</v>
       </c>
       <c r="J37" s="17" t="n">
         <f aca="false">J13*$Z13</f>
-        <v>-0.446050676882468</v>
+        <v>0.353663253734321</v>
       </c>
       <c r="K37" s="17" t="n">
         <f aca="false">K13*$Z13</f>
-        <v>-0.446050676882468</v>
+        <v>0.353663253734321</v>
       </c>
       <c r="L37" s="17" t="n">
         <f aca="false">L13*$Z13</f>
-        <v>-0.446050676882468</v>
+        <v>0.353663253734321</v>
       </c>
       <c r="M37" s="17" t="n">
         <f aca="false">M13*$Z13</f>
-        <v>0.446050676882468</v>
+        <v>-0.353663253734321</v>
       </c>
       <c r="N37" s="17" t="n">
         <f aca="false">N13*$Z13</f>
-        <v>0.446050676882468</v>
+        <v>-0.353663253734321</v>
       </c>
       <c r="O37" s="17" t="n">
         <f aca="false">O13*$Z13</f>
-        <v>0.446050676882468</v>
+        <v>-0.353663253734321</v>
       </c>
       <c r="P37" s="17" t="n">
         <f aca="false">P13*$Z13</f>
-        <v>0.446050676882468</v>
+        <v>-0.353663253734321</v>
       </c>
       <c r="Q37" s="17" t="n">
         <f aca="false">Q13*$Z13</f>
-        <v>0.446050676882468</v>
+        <v>-0.353663253734321</v>
       </c>
       <c r="R37" s="17" t="n">
         <f aca="false">R13*$Z13</f>
-        <v>0.446050676882468</v>
+        <v>-0.353663253734321</v>
       </c>
       <c r="S37" s="17" t="n">
         <f aca="false">S13*$Z13</f>
-        <v>-0.446050676882468</v>
-      </c>
-      <c r="T37" s="21" t="n">
+        <v>0.353663253734321</v>
+      </c>
+      <c r="T37" s="19" t="n">
         <f aca="false">T13*$Z13</f>
-        <v>-0.446050676882468</v>
+        <v>0.353663253734321</v>
       </c>
       <c r="W37" s="16" t="n">
         <f aca="false">AA13^2</f>
-        <v>0.000690983905198872</v>
+        <v>0.000779272355456027</v>
       </c>
       <c r="X37" s="17" t="n">
         <f aca="false">AB13^2</f>
-        <v>0.00407572228925813</v>
+        <v>0.00373828345763746</v>
       </c>
       <c r="Y37" s="17" t="n">
         <f aca="false">AC13^2</f>
-        <v>0.000944270750744554</v>
+        <v>0.00102278298444952</v>
       </c>
       <c r="Z37" s="17" t="n">
         <f aca="false">AD13^2</f>
-        <v>0.0020322504002447</v>
-      </c>
-      <c r="AA37" s="21" t="n">
+        <v>0.00186837133262909</v>
+      </c>
+      <c r="AA37" s="19" t="n">
         <f aca="false">AE13^2</f>
-        <v>0.00574207147996848</v>
+        <v>0.0060549051433118</v>
       </c>
       <c r="AI37" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AJ37" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK37" s="15" t="n">
+        <v>39</v>
+      </c>
+      <c r="AK37" s="14" t="n">
         <v>0.060485953642081</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E38" s="16" t="n">
         <f aca="false">E14*$Z14</f>
-        <v>0.0614747731250974</v>
+        <v>-1.21135213275358</v>
       </c>
       <c r="F38" s="17" t="n">
         <f aca="false">F14*$Z14</f>
-        <v>0.0614747731250974</v>
+        <v>-1.21135213275358</v>
       </c>
       <c r="G38" s="17" t="n">
         <f aca="false">G14*$Z14</f>
-        <v>-0.0614747731250974</v>
+        <v>1.21135213275358</v>
       </c>
       <c r="H38" s="17" t="n">
         <f aca="false">H14*$Z14</f>
-        <v>-0.0614747731250974</v>
+        <v>1.21135213275358</v>
       </c>
       <c r="I38" s="17" t="n">
         <f aca="false">I14*$Z14</f>
-        <v>0.0614747731250974</v>
+        <v>-1.21135213275358</v>
       </c>
       <c r="J38" s="17" t="n">
         <f aca="false">J14*$Z14</f>
-        <v>-0.0614747731250974</v>
+        <v>1.21135213275358</v>
       </c>
       <c r="K38" s="17" t="n">
         <f aca="false">K14*$Z14</f>
-        <v>-0.0614747731250974</v>
+        <v>1.21135213275358</v>
       </c>
       <c r="L38" s="17" t="n">
         <f aca="false">L14*$Z14</f>
-        <v>0.0614747731250974</v>
+        <v>-1.21135213275358</v>
       </c>
       <c r="M38" s="17" t="n">
         <f aca="false">M14*$Z14</f>
-        <v>0.0614747731250974</v>
+        <v>-1.21135213275358</v>
       </c>
       <c r="N38" s="17" t="n">
         <f aca="false">N14*$Z14</f>
-        <v>-0.0614747731250974</v>
+        <v>1.21135213275358</v>
       </c>
       <c r="O38" s="17" t="n">
         <f aca="false">O14*$Z14</f>
-        <v>-0.0614747731250974</v>
+        <v>1.21135213275358</v>
       </c>
       <c r="P38" s="17" t="n">
         <f aca="false">P14*$Z14</f>
-        <v>0.0614747731250974</v>
+        <v>-1.21135213275358</v>
       </c>
       <c r="Q38" s="17" t="n">
         <f aca="false">Q14*$Z14</f>
-        <v>-0.0614747731250974</v>
+        <v>1.21135213275358</v>
       </c>
       <c r="R38" s="17" t="n">
         <f aca="false">R14*$Z14</f>
-        <v>-0.0614747731250974</v>
+        <v>1.21135213275358</v>
       </c>
       <c r="S38" s="17" t="n">
         <f aca="false">S14*$Z14</f>
-        <v>0.0614747731250974</v>
-      </c>
-      <c r="T38" s="21" t="n">
+        <v>-1.21135213275358</v>
+      </c>
+      <c r="T38" s="19" t="n">
         <f aca="false">T14*$Z14</f>
-        <v>0.0614747731250974</v>
+        <v>-1.21135213275358</v>
       </c>
       <c r="W38" s="16" t="n">
         <f aca="false">AA14^2</f>
-        <v>1.9847521656845E-006</v>
+        <v>9.78008014236143E-005</v>
       </c>
       <c r="X38" s="17" t="n">
         <f aca="false">AB14^2</f>
-        <v>2.7812501981897E-007</v>
+        <v>1.36360435971782E-005</v>
       </c>
       <c r="Y38" s="17" t="n">
         <f aca="false">AC14^2</f>
-        <v>9.78857974546105E-010</v>
+        <v>2.95897923872101E-008</v>
       </c>
       <c r="Z38" s="17" t="n">
         <f aca="false">AD14^2</f>
-        <v>2.32927397358929E-007</v>
-      </c>
-      <c r="AA38" s="21" t="n">
+        <v>1.18701464517376E-005</v>
+      </c>
+      <c r="AA38" s="19" t="n">
         <f aca="false">AE14^2</f>
-        <v>1.77629065845567E-006</v>
+        <v>8.96812490167407E-005</v>
       </c>
       <c r="AI38" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AJ38" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK38" s="15" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK38" s="14" t="n">
         <v>0.059438118498104</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E39" s="16" t="n">
         <f aca="false">E15*$Z15</f>
-        <v>0.048767304506589</v>
+        <v>-1.31388879731727</v>
       </c>
       <c r="F39" s="17" t="n">
         <f aca="false">F15*$Z15</f>
-        <v>0.048767304506589</v>
+        <v>-1.31388879731727</v>
       </c>
       <c r="G39" s="17" t="n">
         <f aca="false">G15*$Z15</f>
-        <v>-0.048767304506589</v>
+        <v>1.31388879731727</v>
       </c>
       <c r="H39" s="17" t="n">
         <f aca="false">H15*$Z15</f>
-        <v>0.048767304506589</v>
+        <v>-1.31388879731727</v>
       </c>
       <c r="I39" s="17" t="n">
         <f aca="false">I15*$Z15</f>
-        <v>-0.048767304506589</v>
+        <v>1.31388879731727</v>
       </c>
       <c r="J39" s="17" t="n">
         <f aca="false">J15*$Z15</f>
-        <v>-0.048767304506589</v>
+        <v>1.31388879731727</v>
       </c>
       <c r="K39" s="17" t="n">
         <f aca="false">K15*$Z15</f>
-        <v>0.048767304506589</v>
+        <v>-1.31388879731727</v>
       </c>
       <c r="L39" s="17" t="n">
         <f aca="false">L15*$Z15</f>
-        <v>-0.048767304506589</v>
+        <v>1.31388879731727</v>
       </c>
       <c r="M39" s="17" t="n">
         <f aca="false">M15*$Z15</f>
-        <v>-0.048767304506589</v>
+        <v>1.31388879731727</v>
       </c>
       <c r="N39" s="17" t="n">
         <f aca="false">N15*$Z15</f>
-        <v>0.048767304506589</v>
+        <v>-1.31388879731727</v>
       </c>
       <c r="O39" s="17" t="n">
         <f aca="false">O15*$Z15</f>
-        <v>-0.048767304506589</v>
+        <v>1.31388879731727</v>
       </c>
       <c r="P39" s="17" t="n">
         <f aca="false">P15*$Z15</f>
-        <v>-0.048767304506589</v>
+        <v>1.31388879731727</v>
       </c>
       <c r="Q39" s="17" t="n">
         <f aca="false">Q15*$Z15</f>
-        <v>0.048767304506589</v>
+        <v>-1.31388879731727</v>
       </c>
       <c r="R39" s="17" t="n">
         <f aca="false">R15*$Z15</f>
-        <v>-0.048767304506589</v>
+        <v>1.31388879731727</v>
       </c>
       <c r="S39" s="17" t="n">
         <f aca="false">S15*$Z15</f>
-        <v>0.048767304506589</v>
-      </c>
-      <c r="T39" s="21" t="n">
+        <v>-1.31388879731727</v>
+      </c>
+      <c r="T39" s="19" t="n">
         <f aca="false">T15*$Z15</f>
-        <v>0.048767304506589</v>
+        <v>-1.31388879731727</v>
       </c>
       <c r="W39" s="16" t="n">
         <f aca="false">AA15^2</f>
-        <v>2.00373154960574E-005</v>
+        <v>0.00158370024965234</v>
       </c>
       <c r="X39" s="17" t="n">
         <f aca="false">AB15^2</f>
-        <v>6.05269848453791E-006</v>
+        <v>0.000547194772877368</v>
       </c>
       <c r="Y39" s="17" t="n">
         <f aca="false">AC15^2</f>
-        <v>1.65760883911939E-005</v>
+        <v>0.0012847365726953</v>
       </c>
       <c r="Z39" s="17" t="n">
         <f aca="false">AD15^2</f>
-        <v>6.77501525181704E-005</v>
-      </c>
-      <c r="AA39" s="21" t="n">
+        <v>0.00486521606899727</v>
+      </c>
+      <c r="AA39" s="19" t="n">
         <f aca="false">AE15^2</f>
-        <v>4.5949826631953E-006</v>
+        <v>0.000306401984059506</v>
       </c>
       <c r="AI39" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AJ39" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="AK39" s="15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK39" s="14" t="n">
         <v>0.060692951078377</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E40" s="16" t="n">
         <f aca="false">E16*$Z16</f>
-        <v>0.0143150665447226</v>
+        <v>-1.84421515657218</v>
       </c>
       <c r="F40" s="17" t="n">
         <f aca="false">F16*$Z16</f>
-        <v>0.0143150665447226</v>
+        <v>-1.84421515657218</v>
       </c>
       <c r="G40" s="17" t="n">
         <f aca="false">G16*$Z16</f>
-        <v>-0.0143150665447226</v>
+        <v>1.84421515657218</v>
       </c>
       <c r="H40" s="17" t="n">
         <f aca="false">H16*$Z16</f>
-        <v>0.0143150665447226</v>
+        <v>-1.84421515657218</v>
       </c>
       <c r="I40" s="17" t="n">
         <f aca="false">I16*$Z16</f>
-        <v>0.0143150665447226</v>
+        <v>-1.84421515657218</v>
       </c>
       <c r="J40" s="17" t="n">
         <f aca="false">J16*$Z16</f>
-        <v>-0.0143150665447226</v>
+        <v>1.84421515657218</v>
       </c>
       <c r="K40" s="17" t="n">
         <f aca="false">K16*$Z16</f>
-        <v>0.0143150665447226</v>
+        <v>-1.84421515657218</v>
       </c>
       <c r="L40" s="17" t="n">
         <f aca="false">L16*$Z16</f>
-        <v>0.0143150665447226</v>
+        <v>-1.84421515657218</v>
       </c>
       <c r="M40" s="17" t="n">
         <f aca="false">M16*$Z16</f>
-        <v>-0.0143150665447226</v>
+        <v>1.84421515657218</v>
       </c>
       <c r="N40" s="17" t="n">
         <f aca="false">N16*$Z16</f>
-        <v>-0.0143150665447226</v>
+        <v>1.84421515657218</v>
       </c>
       <c r="O40" s="17" t="n">
         <f aca="false">O16*$Z16</f>
-        <v>0.0143150665447226</v>
+        <v>-1.84421515657218</v>
       </c>
       <c r="P40" s="17" t="n">
         <f aca="false">P16*$Z16</f>
-        <v>-0.0143150665447226</v>
+        <v>1.84421515657218</v>
       </c>
       <c r="Q40" s="17" t="n">
         <f aca="false">Q16*$Z16</f>
-        <v>-0.0143150665447226</v>
+        <v>1.84421515657218</v>
       </c>
       <c r="R40" s="17" t="n">
         <f aca="false">R16*$Z16</f>
-        <v>0.0143150665447226</v>
+        <v>-1.84421515657218</v>
       </c>
       <c r="S40" s="17" t="n">
         <f aca="false">S16*$Z16</f>
-        <v>-0.0143150665447226</v>
-      </c>
-      <c r="T40" s="21" t="n">
+        <v>1.84421515657218</v>
+      </c>
+      <c r="T40" s="19" t="n">
         <f aca="false">T16*$Z16</f>
-        <v>-0.0143150665447226</v>
+        <v>1.84421515657218</v>
       </c>
       <c r="W40" s="16" t="n">
         <f aca="false">AA16^2</f>
-        <v>1.37691513723758E-008</v>
+        <v>1.26307136805591E-005</v>
       </c>
       <c r="X40" s="17" t="n">
         <f aca="false">AB16^2</f>
-        <v>5.80330052569909E-009</v>
+        <v>5.33053644454657E-006</v>
       </c>
       <c r="Y40" s="17" t="n">
         <f aca="false">AC16^2</f>
-        <v>1.37600387195695E-008</v>
+        <v>1.27085854502436E-005</v>
       </c>
       <c r="Z40" s="17" t="n">
         <f aca="false">AD16^2</f>
-        <v>4.51240164581747E-011</v>
-      </c>
-      <c r="AA40" s="21" t="n">
+        <v>3.81482030018127E-008</v>
+      </c>
+      <c r="AA40" s="19" t="n">
         <f aca="false">AE16^2</f>
-        <v>6.8654485495216E-009</v>
+        <v>6.32547583354205E-006</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E41" s="16" t="n">
         <f aca="false">E17*$Z17</f>
-        <v>0.104247271017694</v>
+        <v>-0.981973797103595</v>
       </c>
       <c r="F41" s="17" t="n">
         <f aca="false">F17*$Z17</f>
-        <v>0.104247271017694</v>
+        <v>-0.981973797103595</v>
       </c>
       <c r="G41" s="17" t="n">
         <f aca="false">G17*$Z17</f>
-        <v>0.104247271017694</v>
+        <v>-0.981973797103595</v>
       </c>
       <c r="H41" s="17" t="n">
         <f aca="false">H17*$Z17</f>
-        <v>-0.104247271017694</v>
+        <v>0.981973797103595</v>
       </c>
       <c r="I41" s="17" t="n">
         <f aca="false">I17*$Z17</f>
-        <v>-0.104247271017694</v>
+        <v>0.981973797103595</v>
       </c>
       <c r="J41" s="17" t="n">
         <f aca="false">J17*$Z17</f>
-        <v>0.104247271017694</v>
+        <v>-0.981973797103595</v>
       </c>
       <c r="K41" s="17" t="n">
         <f aca="false">K17*$Z17</f>
-        <v>-0.104247271017694</v>
+        <v>0.981973797103595</v>
       </c>
       <c r="L41" s="17" t="n">
         <f aca="false">L17*$Z17</f>
-        <v>-0.104247271017694</v>
+        <v>0.981973797103595</v>
       </c>
       <c r="M41" s="17" t="n">
         <f aca="false">M17*$Z17</f>
-        <v>-0.104247271017694</v>
+        <v>0.981973797103595</v>
       </c>
       <c r="N41" s="17" t="n">
         <f aca="false">N17*$Z17</f>
-        <v>-0.104247271017694</v>
+        <v>0.981973797103595</v>
       </c>
       <c r="O41" s="17" t="n">
         <f aca="false">O17*$Z17</f>
-        <v>0.104247271017694</v>
+        <v>-0.981973797103595</v>
       </c>
       <c r="P41" s="17" t="n">
         <f aca="false">P17*$Z17</f>
-        <v>-0.104247271017694</v>
+        <v>0.981973797103595</v>
       </c>
       <c r="Q41" s="17" t="n">
         <f aca="false">Q17*$Z17</f>
-        <v>-0.104247271017694</v>
+        <v>0.981973797103595</v>
       </c>
       <c r="R41" s="17" t="n">
         <f aca="false">R17*$Z17</f>
-        <v>0.104247271017694</v>
+        <v>-0.981973797103595</v>
       </c>
       <c r="S41" s="17" t="n">
         <f aca="false">S17*$Z17</f>
-        <v>0.104247271017694</v>
-      </c>
-      <c r="T41" s="21" t="n">
+        <v>-0.981973797103595</v>
+      </c>
+      <c r="T41" s="19" t="n">
         <f aca="false">T17*$Z17</f>
-        <v>0.104247271017694</v>
+        <v>-0.981973797103595</v>
       </c>
       <c r="W41" s="16" t="n">
         <f aca="false">AA17^2</f>
-        <v>9.59153663795489E-007</v>
+        <v>1.68057304387972E-005</v>
       </c>
       <c r="X41" s="17" t="n">
         <f aca="false">AB17^2</f>
-        <v>5.7522923363488E-007</v>
+        <v>1.01551310441954E-005</v>
       </c>
       <c r="Y41" s="17" t="n">
         <f aca="false">AC17^2</f>
-        <v>1.78755601833111E-006</v>
+        <v>3.10583615196906E-005</v>
       </c>
       <c r="Z41" s="17" t="n">
         <f aca="false">AD17^2</f>
-        <v>4.45344659088858E-007</v>
-      </c>
-      <c r="AA41" s="21" t="n">
+        <v>7.56575457643134E-006</v>
+      </c>
+      <c r="AA41" s="19" t="n">
         <f aca="false">AE17^2</f>
-        <v>5.7958455878351E-006</v>
+        <v>0.000102183837705189</v>
       </c>
       <c r="AI41" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AJ41" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK41" s="15" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK41" s="14" t="n">
         <v>0.01347686032498</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E42" s="16" t="n">
         <f aca="false">E18*$Z18</f>
-        <v>0.0578760824080246</v>
+        <v>-1.23754588226771</v>
       </c>
       <c r="F42" s="17" t="n">
         <f aca="false">F18*$Z18</f>
-        <v>0.0578760824080246</v>
+        <v>-1.23754588226771</v>
       </c>
       <c r="G42" s="17" t="n">
         <f aca="false">G18*$Z18</f>
-        <v>0.0578760824080246</v>
+        <v>-1.23754588226771</v>
       </c>
       <c r="H42" s="17" t="n">
         <f aca="false">H18*$Z18</f>
-        <v>-0.0578760824080246</v>
+        <v>1.23754588226771</v>
       </c>
       <c r="I42" s="17" t="n">
         <f aca="false">I18*$Z18</f>
-        <v>0.0578760824080246</v>
+        <v>-1.23754588226771</v>
       </c>
       <c r="J42" s="17" t="n">
         <f aca="false">J18*$Z18</f>
-        <v>0.0578760824080246</v>
+        <v>-1.23754588226771</v>
       </c>
       <c r="K42" s="17" t="n">
         <f aca="false">K18*$Z18</f>
-        <v>-0.0578760824080246</v>
+        <v>1.23754588226771</v>
       </c>
       <c r="L42" s="17" t="n">
         <f aca="false">L18*$Z18</f>
-        <v>0.0578760824080246</v>
+        <v>-1.23754588226771</v>
       </c>
       <c r="M42" s="17" t="n">
         <f aca="false">M18*$Z18</f>
-        <v>-0.0578760824080246</v>
+        <v>1.23754588226771</v>
       </c>
       <c r="N42" s="17" t="n">
         <f aca="false">N18*$Z18</f>
-        <v>0.0578760824080246</v>
+        <v>-1.23754588226771</v>
       </c>
       <c r="O42" s="17" t="n">
         <f aca="false">O18*$Z18</f>
-        <v>-0.0578760824080246</v>
+        <v>1.23754588226771</v>
       </c>
       <c r="P42" s="17" t="n">
         <f aca="false">P18*$Z18</f>
-        <v>-0.0578760824080246</v>
+        <v>1.23754588226771</v>
       </c>
       <c r="Q42" s="17" t="n">
         <f aca="false">Q18*$Z18</f>
-        <v>0.0578760824080246</v>
+        <v>-1.23754588226771</v>
       </c>
       <c r="R42" s="17" t="n">
         <f aca="false">R18*$Z18</f>
-        <v>-0.0578760824080246</v>
+        <v>1.23754588226771</v>
       </c>
       <c r="S42" s="17" t="n">
         <f aca="false">S18*$Z18</f>
-        <v>-0.0578760824080246</v>
-      </c>
-      <c r="T42" s="21" t="n">
+        <v>1.23754588226771</v>
+      </c>
+      <c r="T42" s="19" t="n">
         <f aca="false">T18*$Z18</f>
-        <v>-0.0578760824080246</v>
+        <v>1.23754588226771</v>
       </c>
       <c r="W42" s="16" t="n">
         <f aca="false">AA18^2</f>
-        <v>1.37072808251092E-006</v>
+        <v>7.64350608337026E-005</v>
       </c>
       <c r="X42" s="17" t="n">
         <f aca="false">AB18^2</f>
-        <v>4.50954074224009E-007</v>
+        <v>2.52358993454803E-005</v>
       </c>
       <c r="Y42" s="17" t="n">
         <f aca="false">AC18^2</f>
-        <v>1.29197810557709E-006</v>
+        <v>7.34302828730257E-005</v>
       </c>
       <c r="Z42" s="17" t="n">
         <f aca="false">AD18^2</f>
-        <v>3.56075699981115E-007</v>
-      </c>
-      <c r="AA42" s="21" t="n">
+        <v>2.02481708972451E-005</v>
+      </c>
+      <c r="AA42" s="19" t="n">
         <f aca="false">AE18^2</f>
-        <v>1.65498684379459E-009</v>
+        <v>1.22619173111635E-007</v>
       </c>
       <c r="AI42" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AJ42" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK42" s="15" t="n">
+        <v>37</v>
+      </c>
+      <c r="AK42" s="14" t="n">
         <v>0.013530497147311</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E43" s="16" t="n">
         <f aca="false">E19*$Z19</f>
-        <v>0.013884552980285</v>
+        <v>-1.85746929524688</v>
       </c>
       <c r="F43" s="17" t="n">
         <f aca="false">F19*$Z19</f>
-        <v>0.013884552980285</v>
+        <v>-1.85746929524688</v>
       </c>
       <c r="G43" s="17" t="n">
         <f aca="false">G19*$Z19</f>
-        <v>0.013884552980285</v>
+        <v>-1.85746929524688</v>
       </c>
       <c r="H43" s="17" t="n">
         <f aca="false">H19*$Z19</f>
-        <v>0.013884552980285</v>
+        <v>-1.85746929524688</v>
       </c>
       <c r="I43" s="17" t="n">
         <f aca="false">I19*$Z19</f>
-        <v>-0.013884552980285</v>
+        <v>1.85746929524688</v>
       </c>
       <c r="J43" s="17" t="n">
         <f aca="false">J19*$Z19</f>
-        <v>0.013884552980285</v>
+        <v>-1.85746929524688</v>
       </c>
       <c r="K43" s="17" t="n">
         <f aca="false">K19*$Z19</f>
-        <v>0.013884552980285</v>
+        <v>-1.85746929524688</v>
       </c>
       <c r="L43" s="17" t="n">
         <f aca="false">L19*$Z19</f>
-        <v>-0.013884552980285</v>
+        <v>1.85746929524688</v>
       </c>
       <c r="M43" s="17" t="n">
         <f aca="false">M19*$Z19</f>
-        <v>0.013884552980285</v>
+        <v>-1.85746929524688</v>
       </c>
       <c r="N43" s="17" t="n">
         <f aca="false">N19*$Z19</f>
-        <v>-0.013884552980285</v>
+        <v>1.85746929524688</v>
       </c>
       <c r="O43" s="17" t="n">
         <f aca="false">O19*$Z19</f>
-        <v>-0.013884552980285</v>
+        <v>1.85746929524688</v>
       </c>
       <c r="P43" s="17" t="n">
         <f aca="false">P19*$Z19</f>
-        <v>0.013884552980285</v>
+        <v>-1.85746929524688</v>
       </c>
       <c r="Q43" s="17" t="n">
         <f aca="false">Q19*$Z19</f>
-        <v>-0.013884552980285</v>
+        <v>1.85746929524688</v>
       </c>
       <c r="R43" s="17" t="n">
         <f aca="false">R19*$Z19</f>
-        <v>-0.013884552980285</v>
+        <v>1.85746929524688</v>
       </c>
       <c r="S43" s="17" t="n">
         <f aca="false">S19*$Z19</f>
-        <v>-0.013884552980285</v>
-      </c>
-      <c r="T43" s="21" t="n">
+        <v>1.85746929524688</v>
+      </c>
+      <c r="T43" s="19" t="n">
         <f aca="false">T19*$Z19</f>
-        <v>-0.013884552980285</v>
+        <v>1.85746929524688</v>
       </c>
       <c r="W43" s="16" t="n">
         <f aca="false">AA19^2</f>
-        <v>1.0308442599407E-009</v>
+        <v>1.00862713636737E-006</v>
       </c>
       <c r="X43" s="17" t="n">
         <f aca="false">AB19^2</f>
-        <v>2.39593188670193E-010</v>
+        <v>2.33514765687142E-007</v>
       </c>
       <c r="Y43" s="17" t="n">
         <f aca="false">AC19^2</f>
-        <v>1.11275818082569E-009</v>
+        <v>1.08858044729549E-006</v>
       </c>
       <c r="Z43" s="17" t="n">
         <f aca="false">AD19^2</f>
-        <v>1.57549565732093E-011</v>
-      </c>
-      <c r="AA43" s="21" t="n">
+        <v>1.57085076400477E-008</v>
+      </c>
+      <c r="AA43" s="19" t="n">
         <f aca="false">AE19^2</f>
-        <v>2.91116868325535E-009</v>
+        <v>2.85527135741366E-006</v>
       </c>
       <c r="AC43" s="37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AD43" s="37"/>
       <c r="AI43" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AJ43" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK43" s="15" t="n">
+        <v>39</v>
+      </c>
+      <c r="AK43" s="14" t="n">
         <v>0.013393964123312</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E44" s="22" t="n">
         <f aca="false">E20*$Z20</f>
-        <v>0.0127535244672158</v>
+        <v>-1.89437449249126</v>
       </c>
       <c r="F44" s="23" t="n">
         <f aca="false">F20*$Z20</f>
-        <v>0.0127535244672158</v>
+        <v>-1.89437449249126</v>
       </c>
       <c r="G44" s="23" t="n">
         <f aca="false">G20*$Z20</f>
-        <v>0.0127535244672158</v>
+        <v>-1.89437449249126</v>
       </c>
       <c r="H44" s="23" t="n">
         <f aca="false">H20*$Z20</f>
-        <v>0.0127535244672158</v>
+        <v>-1.89437449249126</v>
       </c>
       <c r="I44" s="23" t="n">
         <f aca="false">I20*$Z20</f>
-        <v>0.0127535244672158</v>
+        <v>-1.89437449249126</v>
       </c>
       <c r="J44" s="23" t="n">
         <f aca="false">J20*$Z20</f>
-        <v>0.0127535244672158</v>
+        <v>-1.89437449249126</v>
       </c>
       <c r="K44" s="23" t="n">
         <f aca="false">K20*$Z20</f>
-        <v>0.0127535244672158</v>
+        <v>-1.89437449249126</v>
       </c>
       <c r="L44" s="23" t="n">
         <f aca="false">L20*$Z20</f>
-        <v>0.0127535244672158</v>
+        <v>-1.89437449249126</v>
       </c>
       <c r="M44" s="23" t="n">
         <f aca="false">M20*$Z20</f>
-        <v>0.0127535244672158</v>
+        <v>-1.89437449249126</v>
       </c>
       <c r="N44" s="23" t="n">
         <f aca="false">N20*$Z20</f>
-        <v>0.0127535244672158</v>
+        <v>-1.89437449249126</v>
       </c>
       <c r="O44" s="23" t="n">
         <f aca="false">O20*$Z20</f>
-        <v>0.0127535244672158</v>
+        <v>-1.89437449249126</v>
       </c>
       <c r="P44" s="23" t="n">
         <f aca="false">P20*$Z20</f>
-        <v>0.0127535244672158</v>
+        <v>-1.89437449249126</v>
       </c>
       <c r="Q44" s="23" t="n">
         <f aca="false">Q20*$Z20</f>
-        <v>0.0127535244672158</v>
+        <v>-1.89437449249126</v>
       </c>
       <c r="R44" s="23" t="n">
         <f aca="false">R20*$Z20</f>
-        <v>0.0127535244672158</v>
+        <v>-1.89437449249126</v>
       </c>
       <c r="S44" s="23" t="n">
         <f aca="false">S20*$Z20</f>
-        <v>0.0127535244672158</v>
-      </c>
-      <c r="T44" s="27" t="n">
+        <v>-1.89437449249126</v>
+      </c>
+      <c r="T44" s="25" t="n">
         <f aca="false">T20*$Z20</f>
-        <v>0.0127535244672158</v>
+        <v>-1.89437449249126</v>
       </c>
       <c r="W44" s="22" t="n">
         <f aca="false">AA20^2</f>
-        <v>2.3038957369056E-010</v>
+        <v>2.71732640173637E-007</v>
       </c>
       <c r="X44" s="23" t="n">
         <f aca="false">AB20^2</f>
-        <v>3.75849068681045E-010</v>
+        <v>4.30293725923741E-007</v>
       </c>
       <c r="Y44" s="23" t="n">
         <f aca="false">AC20^2</f>
-        <v>5.65166810143543E-010</v>
+        <v>6.48976753138881E-007</v>
       </c>
       <c r="Z44" s="23" t="n">
         <f aca="false">AD20^2</f>
-        <v>5.74341803807844E-009</v>
-      </c>
-      <c r="AA44" s="27" t="n">
+        <v>6.67548823669061E-006</v>
+      </c>
+      <c r="AA44" s="25" t="n">
         <f aca="false">AE20^2</f>
-        <v>1.076755230724E-008</v>
+        <v>1.24184034992955E-005</v>
       </c>
       <c r="AC44" s="37"/>
       <c r="AD44" s="37"/>
       <c r="AI44" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AJ44" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK44" s="15" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK44" s="14" t="n">
         <v>0.013336020154363</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D45" s="38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E45" s="9" t="n">
         <f aca="false">SUM(E29:E44)</f>
-        <v>1.1423258674781</v>
+        <v>-22.5857645174511</v>
       </c>
       <c r="F45" s="39" t="n">
         <f aca="false">SUM(F29:F44)</f>
-        <v>0.376412636386088</v>
+        <v>1.19679890247751</v>
       </c>
       <c r="G45" s="39" t="n">
         <f aca="false">SUM(G29:G44)</f>
-        <v>-0.392979817491299</v>
+        <v>-1.33841388844272</v>
       </c>
       <c r="H45" s="39" t="n">
         <f aca="false">SUM(H29:H44)</f>
-        <v>-0.855404561203499</v>
+        <v>-6.2153416234411</v>
       </c>
       <c r="I45" s="39" t="n">
         <f aca="false">SUM(I29:I44)</f>
-        <v>-0.554796519361359</v>
+        <v>-2.22836789337925</v>
       </c>
       <c r="J45" s="39" t="n">
         <f aca="false">SUM(J29:J44)</f>
-        <v>-0.370712962880016</v>
+        <v>-1.15807436502146</v>
       </c>
       <c r="K45" s="39" t="n">
         <f aca="false">SUM(K29:K44)</f>
-        <v>-0.304452148665445</v>
+        <v>-0.0354837280956606</v>
       </c>
       <c r="L45" s="39" t="n">
         <f aca="false">SUM(L29:L44)</f>
-        <v>-0.378264198322593</v>
+        <v>-1.13261714798607</v>
       </c>
       <c r="M45" s="39" t="n">
         <f aca="false">SUM(M29:M44)</f>
-        <v>0.316790694971884</v>
+        <v>0.0477348176320935</v>
       </c>
       <c r="N45" s="39" t="n">
         <f aca="false">SUM(N29:N44)</f>
-        <v>0.382841743154856</v>
+        <v>1.17457244221949</v>
       </c>
       <c r="O45" s="39" t="n">
         <f aca="false">SUM(O29:O44)</f>
-        <v>0.478203240574527</v>
+        <v>0.920163637154691</v>
       </c>
       <c r="P45" s="39" t="n">
         <f aca="false">SUM(P29:P44)</f>
-        <v>0.301124910984188</v>
+        <v>0.0737941004373324</v>
       </c>
       <c r="Q45" s="39" t="n">
         <f aca="false">SUM(Q29:Q44)</f>
-        <v>0.360210106038141</v>
+        <v>1.01650346951188</v>
       </c>
       <c r="R45" s="39" t="n">
         <f aca="false">SUM(R29:R44)</f>
-        <v>0.312524411209682</v>
+        <v>0.171895178213507</v>
       </c>
       <c r="S45" s="39" t="n">
         <f aca="false">SUM(S29:S44)</f>
-        <v>-0.313839792226729</v>
+        <v>-0.1166887432737</v>
       </c>
       <c r="T45" s="40" t="n">
         <f aca="false">SUM(T29:T44)</f>
-        <v>-0.295927219171079</v>
+        <v>-0.100702520415511</v>
       </c>
       <c r="W45" s="41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X45" s="41"/>
-      <c r="Y45" s="14" t="n">
+      <c r="Y45" s="13" t="n">
         <f aca="false">SUM(W29:AA44)</f>
-        <v>0.0137348337817641</v>
+        <v>0.0264661684523528</v>
       </c>
       <c r="AC45" s="42" t="n">
         <f aca="false">SUM(F47:T47,Y45)</f>
-        <v>0.853925029024205</v>
+        <v>16.5157228832482</v>
       </c>
       <c r="AD45" s="42"/>
       <c r="AI45" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AJ45" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="AK45" s="15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK45" s="14" t="n">
         <v>0.013292088107294</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D46" s="38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E46" s="16" t="n">
         <f aca="false">E45/16</f>
-        <v>0.0713953667173815</v>
+        <v>-1.4116102823407</v>
       </c>
       <c r="F46" s="43" t="n">
         <f aca="false">F45/16</f>
-        <v>0.0235257897741305</v>
+        <v>0.0747999314048444</v>
       </c>
       <c r="G46" s="43" t="n">
         <f aca="false">G45/16</f>
-        <v>-0.0245612385932062</v>
+        <v>-0.0836508680276701</v>
       </c>
       <c r="H46" s="43" t="n">
         <f aca="false">H45/16</f>
-        <v>-0.0534627850752187</v>
+        <v>-0.388458851465068</v>
       </c>
       <c r="I46" s="43" t="n">
         <f aca="false">I45/16</f>
-        <v>-0.0346747824600849</v>
+        <v>-0.139272993336203</v>
       </c>
       <c r="J46" s="43" t="n">
         <f aca="false">J45/16</f>
-        <v>-0.023169560180001</v>
+        <v>-0.0723796478138416</v>
       </c>
       <c r="K46" s="43" t="n">
         <f aca="false">K45/16</f>
-        <v>-0.0190282592915903</v>
+        <v>-0.00221773300597879</v>
       </c>
       <c r="L46" s="43" t="n">
         <f aca="false">L45/16</f>
-        <v>-0.0236415123951621</v>
+        <v>-0.0707885717491296</v>
       </c>
       <c r="M46" s="43" t="n">
         <f aca="false">M45/16</f>
-        <v>0.0197994184357428</v>
+        <v>0.00298342610200585</v>
       </c>
       <c r="N46" s="43" t="n">
         <f aca="false">N45/16</f>
-        <v>0.0239276089471785</v>
+        <v>0.0734107776387183</v>
       </c>
       <c r="O46" s="43" t="n">
         <f aca="false">O45/16</f>
-        <v>0.0298877025359079</v>
+        <v>0.0575102273221682</v>
       </c>
       <c r="P46" s="43" t="n">
         <f aca="false">P45/16</f>
-        <v>0.0188203069365117</v>
+        <v>0.00461213127733327</v>
       </c>
       <c r="Q46" s="43" t="n">
         <f aca="false">Q45/16</f>
-        <v>0.0225131316273838</v>
+        <v>0.0635314668444924</v>
       </c>
       <c r="R46" s="43" t="n">
         <f aca="false">R45/16</f>
-        <v>0.0195327757006051</v>
+        <v>0.0107434486383442</v>
       </c>
       <c r="S46" s="43" t="n">
         <f aca="false">S45/16</f>
-        <v>-0.0196149870141705</v>
+        <v>-0.00729304645460627</v>
       </c>
       <c r="T46" s="44" t="n">
         <f aca="false">T45/16</f>
-        <v>-0.0184954511981925</v>
+        <v>-0.00629390752596944</v>
       </c>
       <c r="V46" s="45"/>
       <c r="W46" s="46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X46" s="46"/>
       <c r="Y46" s="47" t="n">
         <f aca="false">(Y45/AC45)*100</f>
-        <v>1.60843555522189</v>
+        <v>0.160248319976338</v>
       </c>
       <c r="AC46" s="42"/>
       <c r="AD46" s="42"/>
-      <c r="AK46" s="15"/>
+      <c r="AK46" s="14"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D47" s="38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E47" s="16"/>
       <c r="F47" s="43" t="n">
         <f aca="false">16*5*(F46^2)</f>
-        <v>0.0442770227597268</v>
+        <v>0.447602379053554</v>
       </c>
       <c r="G47" s="43" t="n">
         <f aca="false">16*5*(G46^2)</f>
-        <v>0.0482603552985922</v>
+        <v>0.559797417742614</v>
       </c>
       <c r="H47" s="43" t="n">
         <f aca="false">16*5*(H46^2)</f>
-        <v>0.228661551039922</v>
+        <v>12.0720223425248</v>
       </c>
       <c r="I47" s="43" t="n">
         <f aca="false">16*5*(I46^2)</f>
-        <v>0.096187243092337</v>
+        <v>1.55175733382608</v>
       </c>
       <c r="J47" s="43" t="n">
         <f aca="false">16*5*(J46^2)</f>
-        <v>0.042946281514775</v>
+        <v>0.419105073412459</v>
       </c>
       <c r="K47" s="43" t="n">
         <f aca="false">16*5*(K46^2)</f>
-        <v>0.0289659721334394</v>
+        <v>0.000393467174864616</v>
       </c>
       <c r="L47" s="43" t="n">
         <f aca="false">16*5*(L46^2)</f>
-        <v>0.0447136886664481</v>
+        <v>0.400881751222533</v>
       </c>
       <c r="M47" s="43" t="n">
         <f aca="false">16*5*(M46^2)</f>
-        <v>0.0313613576314905</v>
+        <v>0.000712066504490384</v>
       </c>
       <c r="N47" s="43" t="n">
         <f aca="false">16*5*(N46^2)</f>
-        <v>0.0458024375943276</v>
+        <v>0.431131381881707</v>
       </c>
       <c r="O47" s="43" t="n">
         <f aca="false">16*5*(O46^2)</f>
-        <v>0.0714619810299934</v>
+        <v>0.264594099731797</v>
       </c>
       <c r="P47" s="43" t="n">
         <f aca="false">16*5*(P46^2)</f>
-        <v>0.0283363162547609</v>
+        <v>0.00170174039354847</v>
       </c>
       <c r="Q47" s="43" t="n">
         <f aca="false">16*5*(Q46^2)</f>
-        <v>0.0405472876537528</v>
+        <v>0.322899782353027</v>
       </c>
       <c r="R47" s="43" t="n">
         <f aca="false">16*5*(R46^2)</f>
-        <v>0.030522346125612</v>
+        <v>0.00923373509157912</v>
       </c>
       <c r="S47" s="43" t="n">
         <f aca="false">16*5*(S46^2)</f>
-        <v>0.0307798172452863</v>
+        <v>0.0042550821271236</v>
       </c>
       <c r="T47" s="44" t="n">
         <f aca="false">16*5*(T46^2)</f>
-        <v>0.0273665372019775</v>
+        <v>0.00316906175563638</v>
       </c>
       <c r="W47" s="48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X47" s="48"/>
       <c r="Y47" s="49" t="n">
         <f aca="false">Y45/(2^2*(4))</f>
-        <v>0.000858427111360258</v>
+        <v>0.00165413552827205</v>
       </c>
       <c r="AI47" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ47" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK47" s="15" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK47" s="14" t="n">
         <v>0.013085875498398</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D48" s="50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E48" s="51"/>
       <c r="F48" s="52" t="n">
         <f aca="false">(F47/$AC$45)*100</f>
-        <v>5.18511827792691</v>
+        <v>2.71015917509463</v>
       </c>
       <c r="G48" s="52" t="n">
         <f aca="false">(G47/$AC$45)*100</f>
-        <v>5.65159161030098</v>
+        <v>3.38948177866568</v>
       </c>
       <c r="H48" s="52" t="n">
         <f aca="false">(H47/$AC$45)*100</f>
-        <v>26.7777080268062</v>
+        <v>73.0941202384148</v>
       </c>
       <c r="I48" s="52" t="n">
         <f aca="false">(I47/$AC$45)*100</f>
-        <v>11.2641320751837</v>
+        <v>9.39563678075528</v>
       </c>
       <c r="J48" s="52" t="n">
         <f aca="false">(J47/$AC$45)*100</f>
-        <v>5.02928009544942</v>
+        <v>2.53761265174506</v>
       </c>
       <c r="K48" s="52" t="n">
         <f aca="false">(K47/$AC$45)*100</f>
-        <v>3.39209780120151</v>
+        <v>0.00238237937053127</v>
       </c>
       <c r="L48" s="52" t="n">
         <f aca="false">(L47/$AC$45)*100</f>
-        <v>5.23625460627887</v>
+        <v>2.42727341731524</v>
       </c>
       <c r="M48" s="52" t="n">
         <f aca="false">(M47/$AC$45)*100</f>
-        <v>3.67261253219473</v>
+        <v>0.00431144618690974</v>
       </c>
       <c r="N48" s="52" t="n">
         <f aca="false">(N47/$AC$45)*100</f>
-        <v>5.36375396405313</v>
+        <v>2.61042998195981</v>
       </c>
       <c r="O48" s="52" t="n">
         <f aca="false">(O47/$AC$45)*100</f>
-        <v>8.36864813667005</v>
+        <v>1.60207398490667</v>
       </c>
       <c r="P48" s="52" t="n">
         <f aca="false">(P47/$AC$45)*100</f>
-        <v>3.31836113143812</v>
+        <v>0.0103037596693665</v>
       </c>
       <c r="Q48" s="52" t="n">
         <f aca="false">(Q47/$AC$45)*100</f>
-        <v>4.74834280242223</v>
+        <v>1.95510535406563</v>
       </c>
       <c r="R48" s="52" t="n">
         <f aca="false">(R47/$AC$45)*100</f>
-        <v>3.57435899969935</v>
+        <v>0.0559087552924786</v>
       </c>
       <c r="S48" s="52" t="n">
         <f aca="false">(S47/$AC$45)*100</f>
-        <v>3.6045104896924</v>
+        <v>0.025763826126191</v>
       </c>
       <c r="T48" s="53" t="n">
         <f aca="false">(T47/$AC$45)*100</f>
-        <v>3.20479389546055</v>
+        <v>0.0191881504554108</v>
       </c>
       <c r="V48" s="45"/>
       <c r="W48" s="45"/>
       <c r="X48" s="45"/>
       <c r="AI48" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ48" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK48" s="15" t="n">
+        <v>37</v>
+      </c>
+      <c r="AK48" s="14" t="n">
         <v>0.01264942982888</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D49" s="54" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E49" s="55" t="n">
         <f aca="false">E46-SQRT(($Y$47^2)/4*5)*$X$50</f>
-        <v>0.0693606952601674</v>
+        <v>-1.41553096739502</v>
       </c>
       <c r="F49" s="56" t="n">
         <f aca="false">F46-SQRT(($Y$47^2)/4*5)*$X$50</f>
-        <v>0.0214911183169164</v>
+        <v>0.0708792463505177</v>
       </c>
       <c r="G49" s="56" t="n">
         <f aca="false">G46-SQRT(($Y$47^2)/4*5)*$X$50</f>
-        <v>-0.0265959100504203</v>
+        <v>-0.0875715530819968</v>
       </c>
       <c r="H49" s="56" t="n">
         <f aca="false">H46-SQRT(($Y$47^2)/4*5)*$X$50</f>
-        <v>-0.0554974565324328</v>
+        <v>-0.392379536519395</v>
       </c>
       <c r="I49" s="56" t="n">
         <f aca="false">I46-SQRT(($Y$47^2)/4*5)*$X$50</f>
-        <v>-0.036709453917299</v>
+        <v>-0.14319367839053</v>
       </c>
       <c r="J49" s="56" t="n">
         <f aca="false">J46-SQRT(($Y$47^2)/4*5)*$X$50</f>
-        <v>-0.0252042316372151</v>
+        <v>-0.0763003328681682</v>
       </c>
       <c r="K49" s="56" t="n">
         <f aca="false">K46-SQRT(($Y$47^2)/4*5)*$X$50</f>
-        <v>-0.0210629307488044</v>
+        <v>-0.00613841806030545</v>
       </c>
       <c r="L49" s="56" t="n">
         <f aca="false">L46-SQRT(($Y$47^2)/4*5)*$X$50</f>
-        <v>-0.0256761838523762</v>
+        <v>-0.0747092568034562</v>
       </c>
       <c r="M49" s="56" t="n">
         <f aca="false">M46-SQRT(($Y$47^2)/4*5)*$X$50</f>
-        <v>0.0177647469785286</v>
+        <v>-0.000937258952320814</v>
       </c>
       <c r="N49" s="56" t="n">
         <f aca="false">N46-SQRT(($Y$47^2)/4*5)*$X$50</f>
-        <v>0.0218929374899643</v>
+        <v>0.0694900925843916</v>
       </c>
       <c r="O49" s="56" t="n">
         <f aca="false">O46-SQRT(($Y$47^2)/4*5)*$X$50</f>
-        <v>0.0278530310786938</v>
+        <v>0.0535895422678415</v>
       </c>
       <c r="P49" s="56" t="n">
         <f aca="false">P46-SQRT(($Y$47^2)/4*5)*$X$50</f>
-        <v>0.0167856354792976</v>
+        <v>0.000691446223006613</v>
       </c>
       <c r="Q49" s="56" t="n">
         <f aca="false">Q46-SQRT(($Y$47^2)/4*5)*$X$50</f>
-        <v>0.0204784601701697</v>
+        <v>0.0596107817901657</v>
       </c>
       <c r="R49" s="56" t="n">
         <f aca="false">R46-SQRT(($Y$47^2)/4*5)*$X$50</f>
-        <v>0.017498104243391</v>
+        <v>0.0068227635840175</v>
       </c>
       <c r="S49" s="56" t="n">
         <f aca="false">S46-SQRT(($Y$47^2)/4*5)*$X$50</f>
-        <v>-0.0216496584713847</v>
+        <v>-0.0112137315089329</v>
       </c>
       <c r="T49" s="57" t="n">
         <f aca="false">T46-SQRT(($Y$47^2)/4*5)*$X$50</f>
-        <v>-0.0205301226554066</v>
+        <v>-0.0102145925802961</v>
       </c>
       <c r="W49" s="58" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="X49" s="58"/>
       <c r="Y49" s="58"/>
       <c r="AI49" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ49" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK49" s="15" t="n">
+        <v>39</v>
+      </c>
+      <c r="AK49" s="14" t="n">
         <v>0.0127573392014</v>
       </c>
     </row>
@@ -6576,104 +6829,104 @@
       <c r="D50" s="54"/>
       <c r="E50" s="59" t="n">
         <f aca="false">E46+SQRT(($Y$47^2)/4*5)*$X$50</f>
-        <v>0.0734300381745957</v>
+        <v>-1.40768959728637</v>
       </c>
       <c r="F50" s="60" t="n">
         <f aca="false">F46+SQRT(($Y$47^2)/4*5)*$X$50</f>
-        <v>0.0255604612313447</v>
+        <v>0.078720616459171</v>
       </c>
       <c r="G50" s="60" t="n">
         <f aca="false">G46+SQRT(($Y$47^2)/4*5)*$X$50</f>
-        <v>-0.0225265671359921</v>
+        <v>-0.0797301829733434</v>
       </c>
       <c r="H50" s="60" t="n">
         <f aca="false">H46+SQRT(($Y$47^2)/4*5)*$X$50</f>
-        <v>-0.0514281136180045</v>
+        <v>-0.384538166410742</v>
       </c>
       <c r="I50" s="60" t="n">
         <f aca="false">I46+SQRT(($Y$47^2)/4*5)*$X$50</f>
-        <v>-0.0326401110028708</v>
+        <v>-0.135352308281876</v>
       </c>
       <c r="J50" s="60" t="n">
         <f aca="false">J46+SQRT(($Y$47^2)/4*5)*$X$50</f>
-        <v>-0.0211348887227869</v>
+        <v>-0.0684589627595149</v>
       </c>
       <c r="K50" s="60" t="n">
         <f aca="false">K46+SQRT(($Y$47^2)/4*5)*$X$50</f>
-        <v>-0.0169935878343762</v>
+        <v>0.00170295204834787</v>
       </c>
       <c r="L50" s="60" t="n">
         <f aca="false">L46+SQRT(($Y$47^2)/4*5)*$X$50</f>
-        <v>-0.0216068409379479</v>
+        <v>-0.0668678866948029</v>
       </c>
       <c r="M50" s="60" t="n">
         <f aca="false">M46+SQRT(($Y$47^2)/4*5)*$X$50</f>
-        <v>0.0218340898929569</v>
+        <v>0.00690411115633251</v>
       </c>
       <c r="N50" s="60" t="n">
         <f aca="false">N46+SQRT(($Y$47^2)/4*5)*$X$50</f>
-        <v>0.0259622804043926</v>
+        <v>0.0773314626930449</v>
       </c>
       <c r="O50" s="60" t="n">
         <f aca="false">O46+SQRT(($Y$47^2)/4*5)*$X$50</f>
-        <v>0.0319223739931221</v>
+        <v>0.0614309123764949</v>
       </c>
       <c r="P50" s="60" t="n">
         <f aca="false">P46+SQRT(($Y$47^2)/4*5)*$X$50</f>
-        <v>0.0208549783937259</v>
+        <v>0.00853281633165993</v>
       </c>
       <c r="Q50" s="60" t="n">
         <f aca="false">Q46+SQRT(($Y$47^2)/4*5)*$X$50</f>
-        <v>0.024547803084598</v>
+        <v>0.0674521518988191</v>
       </c>
       <c r="R50" s="60" t="n">
         <f aca="false">R46+SQRT(($Y$47^2)/4*5)*$X$50</f>
-        <v>0.0215674471578193</v>
+        <v>0.0146641336926708</v>
       </c>
       <c r="S50" s="60" t="n">
         <f aca="false">S46+SQRT(($Y$47^2)/4*5)*$X$50</f>
-        <v>-0.0175803155569564</v>
+        <v>-0.00337236140027961</v>
       </c>
       <c r="T50" s="49" t="n">
         <f aca="false">T46+SQRT(($Y$47^2)/4*5)*$X$50</f>
-        <v>-0.0164607797409783</v>
+        <v>-0.00237322247164278</v>
       </c>
       <c r="W50" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X50" s="45" t="n">
         <v>2.12</v>
       </c>
       <c r="Y50" s="45"/>
       <c r="AI50" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ50" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK50" s="15" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK50" s="14" t="n">
         <v>0.012406763557055</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AI51" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AJ51" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="AK51" s="15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK51" s="14" t="n">
         <v>0.012296004513492</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK52" s="15"/>
+      <c r="AK52" s="14"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C53" s="61"/>
       <c r="D53" s="62"/>
       <c r="E53" s="63" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F53" s="63"/>
       <c r="G53" s="63"/>
@@ -6682,12 +6935,12 @@
       <c r="J53" s="63"/>
       <c r="K53" s="63"/>
       <c r="AI53" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AJ53" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK53" s="15" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK53" s="14" t="n">
         <v>0.47233724959933</v>
       </c>
     </row>
@@ -6702,12 +6955,12 @@
       <c r="J54" s="63"/>
       <c r="K54" s="63"/>
       <c r="AI54" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AJ54" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK54" s="15" t="n">
+        <v>37</v>
+      </c>
+      <c r="AK54" s="14" t="n">
         <v>0.50989206071191</v>
       </c>
     </row>
@@ -6719,49 +6972,49 @@
       <c r="G55" s="62"/>
       <c r="H55" s="62"/>
       <c r="AI55" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AJ55" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK55" s="15" t="n">
+        <v>39</v>
+      </c>
+      <c r="AK55" s="14" t="n">
         <v>0.47677966565113</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AI56" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AJ56" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK56" s="15" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK56" s="14" t="n">
         <v>0.4009701888611</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E57" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="F57" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="G57" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="H57" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="I57" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI57" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="F57" s="65" t="s">
-        <v>65</v>
-      </c>
-      <c r="G57" s="65" t="s">
-        <v>66</v>
-      </c>
-      <c r="H57" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="I57" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI57" s="0" t="s">
-        <v>63</v>
-      </c>
       <c r="AJ57" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="AK57" s="15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK57" s="14" t="n">
         <v>0.37027421958887</v>
       </c>
     </row>
@@ -6778,11 +7031,11 @@
         <v>-2.49770547441237</v>
       </c>
       <c r="H58" s="17" t="n">
-        <v>-0.075776457293598</v>
+        <v>-0.0778132709973807</v>
       </c>
       <c r="I58" s="69" t="n">
         <f aca="false">AA5</f>
-        <v>-0.000345211532473993</v>
+        <v>-0.00116757760054009</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6799,19 +7052,19 @@
         <v>-2.08027845252527</v>
       </c>
       <c r="H59" s="17" t="n">
-        <v>-0.045080488021368</v>
-      </c>
-      <c r="I59" s="21" t="n">
+        <v>-0.0432246611626868</v>
+      </c>
+      <c r="I59" s="19" t="n">
         <f aca="false">AA6</f>
-        <v>0.0019595112776388</v>
+        <v>0.0140082243471023</v>
       </c>
       <c r="AI59" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AJ59" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK59" s="15" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK59" s="14" t="n">
         <v>0.062883585449605</v>
       </c>
     </row>
@@ -6829,19 +7082,19 @@
         <v>-1.86273186742165</v>
       </c>
       <c r="H60" s="17" t="n">
-        <v>-0.00451807745682099</v>
-      </c>
-      <c r="I60" s="21" t="n">
+        <v>-0.0397957315506618</v>
+      </c>
+      <c r="I60" s="19" t="n">
         <f aca="false">AA7</f>
-        <v>8.46915798776004E-005</v>
+        <v>0.00250289102035772</v>
       </c>
       <c r="AI60" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AJ60" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK60" s="15" t="n">
+        <v>37</v>
+      </c>
+      <c r="AK60" s="14" t="n">
         <v>0.060947397528564</v>
       </c>
     </row>
@@ -6859,19 +7112,19 @@
         <v>-1.7087352578229</v>
       </c>
       <c r="H61" s="17" t="n">
-        <v>-0.0044763060101</v>
-      </c>
-      <c r="I61" s="21" t="n">
+        <v>-0.0358432221304852</v>
+      </c>
+      <c r="I61" s="19" t="n">
         <f aca="false">AA8</f>
-        <v>0.000301027616850798</v>
+        <v>0.01011174372246</v>
       </c>
       <c r="AI61" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AJ61" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK61" s="15" t="n">
+        <v>39</v>
+      </c>
+      <c r="AK61" s="14" t="n">
         <v>0.061443486419062</v>
       </c>
     </row>
@@ -6889,19 +7142,19 @@
         <v>-1.58705583229031</v>
       </c>
       <c r="H62" s="17" t="n">
-        <v>-0.004071374263218</v>
-      </c>
-      <c r="I62" s="21" t="n">
+        <v>-0.0201903092088587</v>
+      </c>
+      <c r="I62" s="19" t="n">
         <f aca="false">AA9</f>
-        <v>0.00289933279063399</v>
+        <v>0.0127035658702857</v>
       </c>
       <c r="AI62" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AJ62" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK62" s="15" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK62" s="14" t="n">
         <v>0.061957398650074</v>
       </c>
     </row>
@@ -6919,19 +7172,19 @@
         <v>-1.48516545690268</v>
       </c>
       <c r="H63" s="17" t="n">
-        <v>-0.00314348735164401</v>
-      </c>
-      <c r="I63" s="21" t="n">
+        <v>-0.017504341863078</v>
+      </c>
+      <c r="I63" s="19" t="n">
         <f aca="false">AA10</f>
-        <v>0.0012954969424728</v>
+        <v>0.00919231541791454</v>
       </c>
       <c r="AI63" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AJ63" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="AK63" s="15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK63" s="14" t="n">
         <v>0.060141997578182</v>
       </c>
     </row>
@@ -6949,13 +7202,13 @@
         <v>-1.39671264539045</v>
       </c>
       <c r="H64" s="17" t="n">
-        <v>-0.00290802866996399</v>
-      </c>
-      <c r="I64" s="21" t="n">
+        <v>-0.0170367719881794</v>
+      </c>
+      <c r="I64" s="19" t="n">
         <f aca="false">AA11</f>
-        <v>7.0974353528E-005</v>
-      </c>
-      <c r="AK64" s="15"/>
+        <v>0.00230251389231584</v>
+      </c>
+      <c r="AK64" s="14"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E65" s="16" t="n">
@@ -6971,19 +7224,19 @@
         <v>-1.31801089730354</v>
       </c>
       <c r="H65" s="17" t="n">
-        <v>-0.00240745624837402</v>
-      </c>
-      <c r="I65" s="21" t="n">
+        <v>-0.0141473268676529</v>
+      </c>
+      <c r="I65" s="19" t="n">
         <f aca="false">AA12</f>
-        <v>0.000446792978553</v>
+        <v>0.0151915126500359</v>
       </c>
       <c r="AI65" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ65" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK65" s="15" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK65" s="14" t="n">
         <v>0.044290998496489</v>
       </c>
     </row>
@@ -7001,19 +7254,19 @@
         <v>-1.24672049837958</v>
       </c>
       <c r="H66" s="17" t="n">
-        <v>-0.00236691453256419</v>
-      </c>
-      <c r="I66" s="21" t="n">
+        <v>-0.0128335603301013</v>
+      </c>
+      <c r="I66" s="19" t="n">
         <f aca="false">AA13</f>
-        <v>0.026286572716862</v>
+        <v>0.027915450120964</v>
       </c>
       <c r="AI66" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ66" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK66" s="15" t="n">
+        <v>37</v>
+      </c>
+      <c r="AK66" s="14" t="n">
         <v>0.051227527765673</v>
       </c>
     </row>
@@ -7031,19 +7284,19 @@
         <v>-1.18125862097704</v>
       </c>
       <c r="H67" s="17" t="n">
-        <v>-0.002143591067157</v>
-      </c>
-      <c r="I67" s="21" t="n">
+        <v>-0.0125415962610576</v>
+      </c>
+      <c r="I67" s="19" t="n">
         <f aca="false">AA14</f>
-        <v>0.0014088123245076</v>
+        <v>0.00988942877135046</v>
       </c>
       <c r="AI67" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ67" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK67" s="15" t="n">
+        <v>39</v>
+      </c>
+      <c r="AK67" s="14" t="n">
         <v>0.044695930243371</v>
       </c>
     </row>
@@ -7061,19 +7314,19 @@
         <v>-1.1205017670747</v>
       </c>
       <c r="H68" s="17" t="n">
-        <v>-0.00179909902766619</v>
-      </c>
-      <c r="I68" s="21" t="n">
+        <v>-0.0118472574604453</v>
+      </c>
+      <c r="I68" s="19" t="n">
         <f aca="false">AA15</f>
-        <v>-0.0044763060101</v>
+        <v>-0.0397957315506618</v>
       </c>
       <c r="AI68" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ68" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK68" s="15" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK68" s="14" t="n">
         <v>0.05699835258798</v>
       </c>
     </row>
@@ -7091,19 +7344,19 @@
         <v>-1.06362193833772</v>
       </c>
       <c r="H69" s="17" t="n">
-        <v>-0.00164101055188619</v>
-      </c>
-      <c r="I69" s="21" t="n">
+        <v>-0.0117505856629205</v>
+      </c>
+      <c r="I69" s="19" t="n">
         <f aca="false">AA16</f>
-        <v>0.0001173420273064</v>
+        <v>0.0035539715362618</v>
       </c>
       <c r="AI69" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ69" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="AK69" s="15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK69" s="14" t="n">
         <v>0.046623713439432</v>
       </c>
     </row>
@@ -7121,13 +7374,13 @@
         <v>-1.00999016924958</v>
       </c>
       <c r="H70" s="17" t="n">
-        <v>-0.00133277554691541</v>
-      </c>
-      <c r="I70" s="21" t="n">
+        <v>-0.0115729768986347</v>
+      </c>
+      <c r="I70" s="19" t="n">
         <f aca="false">AA17</f>
-        <v>0.000979363907745987</v>
-      </c>
-      <c r="AK70" s="15"/>
+        <v>0.00409947928873866</v>
+      </c>
+      <c r="AK70" s="14"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E71" s="16" t="n">
@@ -7143,19 +7396,19 @@
         <v>-0.959116617227602</v>
       </c>
       <c r="H71" s="17" t="n">
-        <v>-0.00113665214801059</v>
-      </c>
-      <c r="I71" s="21" t="n">
+        <v>-0.0101086021637608</v>
+      </c>
+      <c r="I71" s="19" t="n">
         <f aca="false">AA18</f>
-        <v>0.00117078097119441</v>
+        <v>0.00874271472905885</v>
       </c>
       <c r="AI71" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ71" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK71" s="15" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK71" s="14" t="n">
         <v>0.014432408572029</v>
       </c>
     </row>
@@ -7173,19 +7426,19 @@
         <v>-0.91061170687247</v>
       </c>
       <c r="H72" s="17" t="n">
-        <v>-0.000671531141663594</v>
-      </c>
-      <c r="I72" s="21" t="n">
+        <v>-0.0094700184274763</v>
+      </c>
+      <c r="I72" s="19" t="n">
         <f aca="false">AA19</f>
-        <v>3.21067634610015E-005</v>
+        <v>0.00100430430466436</v>
       </c>
       <c r="AI72" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ72" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK72" s="15" t="n">
+        <v>37</v>
+      </c>
+      <c r="AK72" s="14" t="n">
         <v>0.014238887147733</v>
       </c>
     </row>
@@ -7203,19 +7456,19 @@
         <v>-0.864160004318308</v>
       </c>
       <c r="H73" s="17" t="n">
-        <v>-0.000667341486114012</v>
-      </c>
-      <c r="I73" s="21" t="n">
+        <v>-0.00856914714968915</v>
+      </c>
+      <c r="I73" s="19" t="n">
         <f aca="false">AA20</f>
-        <v>1.51785893181995E-005</v>
+        <v>0.000521279809865716</v>
       </c>
       <c r="AI73" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ73" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK73" s="15" t="n">
+        <v>39</v>
+      </c>
+      <c r="AK73" s="14" t="n">
         <v>0.014197763353293</v>
       </c>
     </row>
@@ -7233,19 +7486,19 @@
         <v>-0.819502107568254</v>
       </c>
       <c r="H74" s="17" t="n">
-        <v>-0.000593175407909201</v>
-      </c>
-      <c r="I74" s="21" t="n">
+        <v>-0.00795276566557868</v>
+      </c>
+      <c r="I74" s="19" t="n">
         <f aca="false">AB5</f>
-        <v>-0.00290802866996399</v>
+        <v>-0.0115729768986347</v>
       </c>
       <c r="AI74" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ74" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK74" s="15" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK74" s="14" t="n">
         <v>0.014308349103509</v>
       </c>
     </row>
@@ -7263,19 +7516,19 @@
         <v>-0.776421761147928</v>
       </c>
       <c r="H75" s="17" t="n">
-        <v>-0.00052737559653341</v>
-      </c>
-      <c r="I75" s="21" t="n">
+        <v>-0.00714300507820354</v>
+      </c>
+      <c r="I75" s="19" t="n">
         <f aca="false">AB6</f>
-        <v>0.0024732312438278</v>
+        <v>0.0175513454571099</v>
       </c>
       <c r="AI75" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ75" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="AK75" s="15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK75" s="14" t="n">
         <v>0.014397924547049</v>
       </c>
     </row>
@@ -7293,13 +7546,13 @@
         <v>-0.734736477807254</v>
       </c>
       <c r="H76" s="17" t="n">
-        <v>-0.000453567869636989</v>
-      </c>
-      <c r="I76" s="21" t="n">
+        <v>-0.00502353454705751</v>
+      </c>
+      <c r="I76" s="19" t="n">
         <f aca="false">AB7</f>
-        <v>0.000195191981465601</v>
-      </c>
-      <c r="AK76" s="15"/>
+        <v>0.00571059313515976</v>
+      </c>
+      <c r="AK76" s="14"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E77" s="16" t="n">
@@ -7315,19 +7568,19 @@
         <v>-0.694290575703083</v>
       </c>
       <c r="H77" s="17" t="n">
-        <v>-0.000414751945534201</v>
-      </c>
-      <c r="I77" s="21" t="n">
+        <v>-0.00455954304848905</v>
+      </c>
+      <c r="I77" s="19" t="n">
         <f aca="false">AB8</f>
-        <v>2.05302786737988E-005</v>
+        <v>0.000765974812742209</v>
       </c>
       <c r="AI77" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ77" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK77" s="15" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK77" s="14" t="n">
         <v>0.10522663492544</v>
       </c>
     </row>
@@ -7345,14 +7598,14 @@
         <v>-0.654949917100686</v>
       </c>
       <c r="H78" s="17" t="n">
-        <v>-0.000386177971613201</v>
-      </c>
-      <c r="I78" s="21" t="n">
+        <v>-0.00416110685465432</v>
+      </c>
+      <c r="I78" s="19" t="n">
         <f aca="false">AB9</f>
-        <v>0.000978941704473005</v>
+        <v>0.00442332772050391</v>
       </c>
       <c r="M78" s="70" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N78" s="70"/>
       <c r="O78" s="70"/>
@@ -7364,12 +7617,12 @@
       <c r="U78" s="70"/>
       <c r="V78" s="70"/>
       <c r="AI78" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ78" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK78" s="15" t="n">
+        <v>37</v>
+      </c>
+      <c r="AK78" s="14" t="n">
         <v>0.10500570969922</v>
       </c>
     </row>
@@ -7386,15 +7639,15 @@
         <f aca="false">_xlfn.NORM.S.INV(F79)</f>
         <v>-0.61659786971703</v>
       </c>
-      <c r="H79" s="68" t="n">
-        <v>-0.000345211532473993</v>
-      </c>
-      <c r="I79" s="21" t="n">
+      <c r="H79" s="17" t="n">
+        <v>-0.0036930020842092</v>
+      </c>
+      <c r="I79" s="19" t="n">
         <f aca="false">AB10</f>
-        <v>0.0013248669889358</v>
+        <v>0.00939676148632018</v>
       </c>
       <c r="M79" s="71" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N79" s="71"/>
       <c r="O79" s="71"/>
@@ -7406,12 +7659,12 @@
       <c r="U79" s="71"/>
       <c r="V79" s="71"/>
       <c r="AI79" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ79" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK79" s="15" t="n">
+        <v>39</v>
+      </c>
+      <c r="AK79" s="14" t="n">
         <v>0.10558426616291</v>
       </c>
     </row>
@@ -7429,11 +7682,11 @@
         <v>-0.579132162255556</v>
       </c>
       <c r="H80" s="17" t="n">
-        <v>-0.000343078006352998</v>
-      </c>
-      <c r="I80" s="21" t="n">
+        <v>-0.00369270139561517</v>
+      </c>
+      <c r="I80" s="19" t="n">
         <f aca="false">AB11</f>
-        <v>0.000124611175859001</v>
+        <v>0.00402754060883126</v>
       </c>
       <c r="M80" s="71"/>
       <c r="N80" s="71"/>
@@ -7446,12 +7699,12 @@
       <c r="U80" s="71"/>
       <c r="V80" s="71"/>
       <c r="AI80" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ80" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK80" s="15" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK80" s="14" t="n">
         <v>0.10357992953158</v>
       </c>
     </row>
@@ -7469,14 +7722,14 @@
         <v>-0.542462404312549</v>
       </c>
       <c r="H81" s="17" t="n">
-        <v>-0.000266728961236196</v>
-      </c>
-      <c r="I81" s="21" t="n">
+        <v>-0.00356491030044848</v>
+      </c>
+      <c r="I81" s="19" t="n">
         <f aca="false">AB12</f>
-        <v>1.03473090349998E-005</v>
+        <v>0.000459678826931098</v>
       </c>
       <c r="M81" s="72" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N81" s="72"/>
       <c r="O81" s="72"/>
@@ -7488,12 +7741,12 @@
       <c r="U81" s="72"/>
       <c r="V81" s="72"/>
       <c r="AI81" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ81" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="AK81" s="15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK81" s="14" t="n">
         <v>0.10183981476932</v>
       </c>
     </row>
@@ -7511,11 +7764,11 @@
         <v>-0.506508106929111</v>
       </c>
       <c r="H82" s="17" t="n">
-        <v>-0.0002427196308814</v>
-      </c>
-      <c r="I82" s="21" t="n">
+        <v>-0.00275059167751801</v>
+      </c>
+      <c r="I82" s="19" t="n">
         <f aca="false">AB13</f>
-        <v>0.0638413838294419</v>
+        <v>0.0611415035604904</v>
       </c>
       <c r="M82" s="72"/>
       <c r="N82" s="72"/>
@@ -7542,17 +7795,17 @@
         <v>-0.471197085229966</v>
       </c>
       <c r="H83" s="17" t="n">
-        <v>-0.000232318962789999</v>
-      </c>
-      <c r="I83" s="21" t="n">
+        <v>-0.00267738438665965</v>
+      </c>
+      <c r="I83" s="19" t="n">
         <f aca="false">AB14</f>
-        <v>-0.00052737559653341</v>
+        <v>-0.00369270139561517</v>
       </c>
       <c r="AI83" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ83" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AK83" s="0" t="n">
         <v>0.059046863379219</v>
@@ -7572,17 +7825,17 @@
         <v>-0.436464156008116</v>
       </c>
       <c r="H84" s="17" t="n">
-        <v>-0.0001557408040054</v>
-      </c>
-      <c r="I84" s="21" t="n">
+        <v>-0.00258369662241731</v>
+      </c>
+      <c r="I84" s="19" t="n">
         <f aca="false">AB15</f>
-        <v>0.002460223259084</v>
+        <v>0.0233921946998858</v>
       </c>
       <c r="AI84" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ84" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AK84" s="0" t="n">
         <v>0.057204551266361</v>
@@ -7602,17 +7855,17 @@
         <v>-0.402250065321725</v>
       </c>
       <c r="H85" s="17" t="n">
-        <v>-0.0001173031914296</v>
-      </c>
-      <c r="I85" s="21" t="n">
+        <v>-0.00230879545316309</v>
+      </c>
+      <c r="I85" s="19" t="n">
         <f aca="false">AB16</f>
-        <v>-7.61793969896E-005</v>
+        <v>-0.00230879545316309</v>
       </c>
       <c r="AI85" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ85" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AK85" s="0" t="n">
         <v>0.056739430260014</v>
@@ -7632,17 +7885,17 @@
         <v>-0.368500597097157</v>
       </c>
       <c r="H86" s="17" t="n">
-        <v>-0.000113797864157999</v>
-      </c>
-      <c r="I86" s="21" t="n">
+        <v>-0.00225997028604241</v>
+      </c>
+      <c r="I86" s="19" t="n">
         <f aca="false">AB17</f>
-        <v>0.000758438681525989</v>
+        <v>0.00318671163492956</v>
       </c>
       <c r="AI86" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ86" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AK86" s="0" t="n">
         <v>0.058472803196988</v>
@@ -7662,17 +7915,17 @@
         <v>-0.335165825308025</v>
       </c>
       <c r="H87" s="17" t="n">
-        <v>-7.61793969896E-005</v>
-      </c>
-      <c r="I87" s="21" t="n">
+        <v>-0.00185774946258621</v>
+      </c>
+      <c r="I87" s="19" t="n">
         <f aca="false">AB18</f>
-        <v>-0.000671531141663594</v>
+        <v>-0.00502353454705751</v>
       </c>
       <c r="AI87" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ87" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AK87" s="0" t="n">
         <v>0.057916763937541</v>
@@ -7692,11 +7945,11 @@
         <v>-0.302199480814762</v>
       </c>
       <c r="H88" s="17" t="n">
-        <v>-7.57853418417997E-005</v>
-      </c>
-      <c r="I88" s="21" t="n">
+        <v>-0.00168975482168676</v>
+      </c>
+      <c r="I88" s="19" t="n">
         <f aca="false">AB19</f>
-        <v>-1.54787980369987E-005</v>
+        <v>-0.000483233655375059</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7713,17 +7966,17 @@
         <v>-0.269558410280158</v>
       </c>
       <c r="H89" s="17" t="n">
-        <v>-6.98658170889994E-005</v>
-      </c>
-      <c r="I89" s="21" t="n">
+        <v>-0.00168923748593097</v>
+      </c>
+      <c r="I89" s="19" t="n">
         <f aca="false">AB20</f>
-        <v>-1.93868271948002E-005</v>
+        <v>-0.000655967778113942</v>
       </c>
       <c r="AI89" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ89" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AK89" s="0" t="n">
         <v>0.013916659743746</v>
@@ -7743,17 +7996,17 @@
         <v>-0.237202109328788</v>
       </c>
       <c r="H90" s="17" t="n">
-        <v>-5.39552470410001E-005</v>
-      </c>
-      <c r="I90" s="21" t="n">
+        <v>-0.00116757760054009</v>
+      </c>
+      <c r="I90" s="19" t="n">
         <f aca="false">AC5</f>
-        <v>-2.01117099639936E-005</v>
+        <v>0.000134731975652502</v>
       </c>
       <c r="AI90" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ90" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AK90" s="0" t="n">
         <v>0.013869074182248</v>
@@ -7773,17 +8026,17 @@
         <v>-0.205092315715208</v>
       </c>
       <c r="H91" s="17" t="n">
-        <v>-3.28190545852008E-005</v>
-      </c>
-      <c r="I91" s="21" t="n">
+        <v>-0.00103453917720331</v>
+      </c>
+      <c r="I91" s="19" t="n">
         <f aca="false">AC6</f>
-        <v>-0.000266728961236196</v>
+        <v>-0.00168923748593097</v>
       </c>
       <c r="AI91" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ91" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AK91" s="0" t="n">
         <v>0.013917911010515</v>
@@ -7803,17 +8056,17 @@
         <v>-0.173192651006423</v>
       </c>
       <c r="H92" s="17" t="n">
-        <v>-3.12867060354091E-005</v>
-      </c>
-      <c r="I92" s="21" t="n">
+        <v>-0.000805590934121581</v>
+      </c>
+      <c r="I92" s="19" t="n">
         <f aca="false">AC7</f>
-        <v>0.000118576873543601</v>
+        <v>0.00348906397117421</v>
       </c>
       <c r="AI92" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ92" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AK92" s="0" t="n">
         <v>0.013888522231672</v>
@@ -7833,17 +8086,17 @@
         <v>-0.141468301382159</v>
       </c>
       <c r="H93" s="17" t="n">
-        <v>-2.37732372667995E-005</v>
-      </c>
-      <c r="I93" s="21" t="n">
+        <v>-0.000655967778113942</v>
+      </c>
+      <c r="I93" s="19" t="n">
         <f aca="false">AC8</f>
-        <v>-3.28190545852008E-005</v>
+        <v>-0.00103453917720331</v>
       </c>
       <c r="AI93" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ93" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AK93" s="0" t="n">
         <v>0.013830597733244</v>
@@ -7863,11 +8116,11 @@
         <v>-0.109885729765991</v>
       </c>
       <c r="H94" s="17" t="n">
-        <v>-2.01117099639936E-005</v>
-      </c>
-      <c r="I94" s="21" t="n">
+        <v>-0.000483233655375059</v>
+      </c>
+      <c r="I94" s="19" t="n">
         <f aca="false">AC9</f>
-        <v>-0.00451807745682099</v>
+        <v>-0.0201903092088587</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7884,17 +8137,17 @@
         <v>-0.0784124127331122</v>
       </c>
       <c r="H95" s="17" t="n">
-        <v>-1.93868271948002E-005</v>
-      </c>
-      <c r="I95" s="21" t="n">
+        <v>-0.000377082130895046</v>
+      </c>
+      <c r="I95" s="19" t="n">
         <f aca="false">AC10</f>
-        <v>-0.000593175407909201</v>
+        <v>-0.00416110685465432</v>
       </c>
       <c r="AI95" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ95" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AK95" s="0" t="n">
         <v>0.012768703056534</v>
@@ -7914,17 +8167,17 @@
         <v>-0.0470165965778142</v>
       </c>
       <c r="H96" s="17" t="n">
-        <v>-1.54787980369987E-005</v>
-      </c>
-      <c r="I96" s="21" t="n">
+        <v>-0.000195315649659245</v>
+      </c>
+      <c r="I96" s="19" t="n">
         <f aca="false">AC11</f>
-        <v>-1.1921848139999E-005</v>
+        <v>-0.000377082130895046</v>
       </c>
       <c r="AI96" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ96" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AK96" s="0" t="n">
         <v>0.012734137640021</v>
@@ -7944,17 +8197,17 @@
         <v>-0.01566706762477</v>
       </c>
       <c r="H97" s="17" t="n">
-        <v>-1.1921848139999E-005</v>
-      </c>
-      <c r="I97" s="21" t="n">
+        <v>-0.00017201683751078</v>
+      </c>
+      <c r="I97" s="19" t="n">
         <f aca="false">AC12</f>
-        <v>0.000118256681555001</v>
+        <v>0.00414883164905677</v>
       </c>
       <c r="AI97" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ97" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AK97" s="0" t="n">
         <v>0.012729751229949</v>
@@ -7974,17 +8227,17 @@
         <v>0.01566706762477</v>
       </c>
       <c r="H98" s="17" t="n">
-        <v>-6.71744121360021E-006</v>
-      </c>
-      <c r="I98" s="21" t="n">
+        <v>0.000125333585443199</v>
+      </c>
+      <c r="I98" s="19" t="n">
         <f aca="false">AC13</f>
-        <v>0.030728988768662</v>
+        <v>0.0319809784786133</v>
       </c>
       <c r="AI98" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ98" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AK98" s="0" t="n">
         <v>0.012677739125374</v>
@@ -8004,17 +8257,17 @@
         <v>0.0470165965778143</v>
       </c>
       <c r="H99" s="17" t="n">
-        <v>3.96925138700099E-006</v>
-      </c>
-      <c r="I99" s="21" t="n">
+        <v>0.000134731975652502</v>
+      </c>
+      <c r="I99" s="19" t="n">
         <f aca="false">AC14</f>
-        <v>-3.12867060354091E-005</v>
+        <v>-0.00017201683751078</v>
       </c>
       <c r="AI99" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ99" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AK99" s="0" t="n">
         <v>0.012857291284201</v>
@@ -8034,11 +8287,11 @@
         <v>0.0784124127331122</v>
       </c>
       <c r="H100" s="17" t="n">
-        <v>1.03473090349998E-005</v>
-      </c>
-      <c r="I100" s="21" t="n">
+        <v>0.000350170205916545</v>
+      </c>
+      <c r="I100" s="19" t="n">
         <f aca="false">AC15</f>
-        <v>-0.004071374263218</v>
+        <v>-0.0358432221304852</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8055,11 +8308,11 @@
         <v>0.109885729765991</v>
       </c>
       <c r="H101" s="17" t="n">
-        <v>1.51785893181995E-005</v>
-      </c>
-      <c r="I101" s="21" t="n">
+        <v>0.000459678826931098</v>
+      </c>
+      <c r="I101" s="19" t="n">
         <f aca="false">AC16</f>
-        <v>-0.0001173031914296</v>
+        <v>-0.00356491030044848</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8076,11 +8329,11 @@
         <v>0.141468301382159</v>
       </c>
       <c r="H102" s="17" t="n">
-        <v>2.05302786737988E-005</v>
-      </c>
-      <c r="I102" s="21" t="n">
+        <v>0.000521279809865716</v>
+      </c>
+      <c r="I102" s="19" t="n">
         <f aca="false">AC17</f>
-        <v>0.00133699514521599</v>
+        <v>0.00557300291761009</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8097,11 +8350,11 @@
         <v>0.173192651006423</v>
       </c>
       <c r="H103" s="17" t="n">
-        <v>3.21067634610015E-005</v>
-      </c>
-      <c r="I103" s="21" t="n">
+        <v>0.000765974812742209</v>
+      </c>
+      <c r="I103" s="19" t="n">
         <f aca="false">AC18</f>
-        <v>-0.00113665214801059</v>
+        <v>-0.00856914714968915</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8118,11 +8371,11 @@
         <v>0.205092315715209</v>
       </c>
       <c r="H104" s="17" t="n">
-        <v>3.33580302300015E-005</v>
-      </c>
-      <c r="I104" s="21" t="n">
+        <v>0.00100430430466436</v>
+      </c>
+      <c r="I104" s="19" t="n">
         <f aca="false">AC19</f>
-        <v>3.33580302300015E-005</v>
+        <v>0.00104335058695315</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8139,11 +8392,11 @@
         <v>0.237202109328788</v>
       </c>
       <c r="H105" s="17" t="n">
-        <v>4.06815295164106E-005</v>
-      </c>
-      <c r="I105" s="21" t="n">
+        <v>0.00104335058695315</v>
+      </c>
+      <c r="I105" s="19" t="n">
         <f aca="false">AC20</f>
-        <v>-2.37732372667995E-005</v>
+        <v>-0.000805590934121581</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8160,11 +8413,11 @@
         <v>0.269558410280158</v>
       </c>
       <c r="H106" s="17" t="n">
-        <v>7.0974353528E-005</v>
-      </c>
-      <c r="I106" s="21" t="n">
+        <v>0.00230251389231584</v>
+      </c>
+      <c r="I106" s="19" t="n">
         <f aca="false">AD5</f>
-        <v>-0.00314348735164401</v>
+        <v>-0.0125415962610576</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8181,11 +8434,11 @@
         <v>0.302199480814762</v>
       </c>
       <c r="H107" s="17" t="n">
-        <v>8.28580023263994E-005</v>
-      </c>
-      <c r="I107" s="21" t="n">
+        <v>0.00250289102035772</v>
+      </c>
+      <c r="I107" s="19" t="n">
         <f aca="false">AD6</f>
-        <v>-0.00236691453256419</v>
+        <v>-0.0170367719881794</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8202,11 +8455,11 @@
         <v>0.335165825308025</v>
       </c>
       <c r="H108" s="17" t="n">
-        <v>8.46915798776004E-005</v>
-      </c>
-      <c r="I108" s="21" t="n">
+        <v>0.00251504986700901</v>
+      </c>
+      <c r="I108" s="19" t="n">
         <f aca="false">AD7</f>
-        <v>-0.0001557408040054</v>
+        <v>-0.00455954304848905</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8222,12 +8475,12 @@
         <f aca="false">_xlfn.NORM.S.INV(F109)</f>
         <v>0.368500597097157</v>
       </c>
-      <c r="H109" s="23" t="n">
-        <v>0.0001037668169852</v>
-      </c>
-      <c r="I109" s="21" t="n">
+      <c r="H109" s="17" t="n">
+        <v>0.00318671163492956</v>
+      </c>
+      <c r="I109" s="19" t="n">
         <f aca="false">AD8</f>
-        <v>0.000126013104594799</v>
+        <v>0.00430414750965413</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8244,11 +8497,11 @@
         <v>0.402250065321725</v>
       </c>
       <c r="H110" s="17" t="n">
-        <v>0.0001173420273064</v>
-      </c>
-      <c r="I110" s="21" t="n">
+        <v>0.00344530788925135</v>
+      </c>
+      <c r="I110" s="19" t="n">
         <f aca="false">AD9</f>
-        <v>-0.000453567869636989</v>
+        <v>-0.00185774946258621</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8265,11 +8518,11 @@
         <v>0.436464156008116</v>
       </c>
       <c r="H111" s="17" t="n">
-        <v>0.000118256681555001</v>
-      </c>
-      <c r="I111" s="21" t="n">
+        <v>0.00348906397117421</v>
+      </c>
+      <c r="I111" s="19" t="n">
         <f aca="false">AD10</f>
-        <v>-0.00164101055188619</v>
+        <v>-0.0117505856629205</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8286,11 +8539,11 @@
         <v>0.471197085229966</v>
       </c>
       <c r="H112" s="17" t="n">
-        <v>0.000118576873543601</v>
-      </c>
-      <c r="I112" s="21" t="n">
+        <v>0.00352397552478667</v>
+      </c>
+      <c r="I112" s="19" t="n">
         <f aca="false">AD11</f>
-        <v>-6.98658170889994E-005</v>
+        <v>-0.00225997028604241</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8307,11 +8560,11 @@
         <v>0.506508106929111</v>
       </c>
       <c r="H113" s="17" t="n">
-        <v>0.000124611175859001</v>
-      </c>
-      <c r="I113" s="21" t="n">
+        <v>0.0035539715362618</v>
+      </c>
+      <c r="I113" s="19" t="n">
         <f aca="false">AD12</f>
-        <v>-0.000232318962789999</v>
+        <v>-0.00795276566557868</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8328,11 +8581,11 @@
         <v>0.54246240431255</v>
       </c>
       <c r="H114" s="17" t="n">
-        <v>0.000126013104594799</v>
-      </c>
-      <c r="I114" s="21" t="n">
+        <v>0.00402754060883126</v>
+      </c>
+      <c r="I114" s="19" t="n">
         <f aca="false">AD13</f>
-        <v>-0.045080488021368</v>
+        <v>-0.0432246611626868</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8349,11 +8602,11 @@
         <v>0.579132162255556</v>
       </c>
       <c r="H115" s="17" t="n">
-        <v>0.000195191981465601</v>
-      </c>
-      <c r="I115" s="21" t="n">
+        <v>0.00409947928873866</v>
+      </c>
+      <c r="I115" s="19" t="n">
         <f aca="false">AD14</f>
-        <v>0.00048262552497659</v>
+        <v>0.00344530788925135</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8370,11 +8623,11 @@
         <v>0.61659786971703</v>
       </c>
       <c r="H116" s="17" t="n">
-        <v>0.000301027616850798</v>
-      </c>
-      <c r="I116" s="21" t="n">
+        <v>0.00414883164905677</v>
+      </c>
+      <c r="I116" s="19" t="n">
         <f aca="false">AD15</f>
-        <v>0.008231048081391</v>
+        <v>0.0697511008443399</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8390,12 +8643,12 @@
         <f aca="false">_xlfn.NORM.S.INV(F117)</f>
         <v>0.654949917100686</v>
       </c>
-      <c r="H117" s="17" t="n">
-        <v>0.000446792978553</v>
-      </c>
-      <c r="I117" s="21" t="n">
+      <c r="H117" s="23" t="n">
+        <v>0.00430414750965413</v>
+      </c>
+      <c r="I117" s="19" t="n">
         <f aca="false">AD16</f>
-        <v>-6.71744121360021E-006</v>
+        <v>-0.000195315649659245</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8412,11 +8665,11 @@
         <v>0.694290575703083</v>
       </c>
       <c r="H118" s="17" t="n">
-        <v>0.00048262552497659</v>
-      </c>
-      <c r="I118" s="21" t="n">
+        <v>0.00442332772050391</v>
+      </c>
+      <c r="I118" s="19" t="n">
         <f aca="false">AD17</f>
-        <v>-0.000667341486114012</v>
+        <v>-0.00275059167751801</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8433,11 +8686,11 @@
         <v>0.734736477807255</v>
       </c>
       <c r="H119" s="17" t="n">
-        <v>0.00059672078896341</v>
-      </c>
-      <c r="I119" s="21" t="n">
+        <v>0.00449979676177104</v>
+      </c>
+      <c r="I119" s="19" t="n">
         <f aca="false">AD18</f>
-        <v>0.00059672078896341</v>
+        <v>0.00449979676177104</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8454,11 +8707,11 @@
         <v>0.776421761147928</v>
       </c>
       <c r="H120" s="17" t="n">
-        <v>0.000758438681525989</v>
-      </c>
-      <c r="I120" s="21" t="n">
+        <v>0.00492116508065577</v>
+      </c>
+      <c r="I120" s="19" t="n">
         <f aca="false">AD19</f>
-        <v>3.96925138700099E-006</v>
+        <v>0.000125333585443199</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8475,11 +8728,11 @@
         <v>0.819502107568254</v>
       </c>
       <c r="H121" s="17" t="n">
-        <v>0.000978941704473005</v>
-      </c>
-      <c r="I121" s="21" t="n">
+        <v>0.00557300291761009</v>
+      </c>
+      <c r="I121" s="19" t="n">
         <f aca="false">AD20</f>
-        <v>-7.57853418417997E-005</v>
+        <v>-0.00258369662241731</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8496,11 +8749,11 @@
         <v>0.864160004318308</v>
       </c>
       <c r="H122" s="17" t="n">
-        <v>0.000979363907745987</v>
-      </c>
-      <c r="I122" s="21" t="n">
+        <v>0.00571059313515976</v>
+      </c>
+      <c r="I122" s="19" t="n">
         <f aca="false">AE5</f>
-        <v>0.006416839264046</v>
+        <v>0.0251474187845795</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8517,11 +8770,11 @@
         <v>0.91061170687247</v>
       </c>
       <c r="H123" s="17" t="n">
-        <v>0.001093370831351</v>
-      </c>
-      <c r="I123" s="21" t="n">
+        <v>0.00874271472905885</v>
+      </c>
+      <c r="I123" s="19" t="n">
         <f aca="false">AE6</f>
-        <v>-0.00179909902766619</v>
+        <v>-0.0128335603301013</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8538,11 +8791,11 @@
         <v>0.959116617227602</v>
       </c>
       <c r="H124" s="17" t="n">
-        <v>0.00117078097119441</v>
-      </c>
-      <c r="I124" s="21" t="n">
+        <v>0.00919231541791454</v>
+      </c>
+      <c r="I124" s="19" t="n">
         <f aca="false">AE7</f>
-        <v>-0.0002427196308814</v>
+        <v>-0.00714300507820354</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8558,12 +8811,12 @@
         <f aca="false">_xlfn.NORM.S.INV(F125)</f>
         <v>1.00999016924958</v>
       </c>
-      <c r="H125" s="17" t="n">
-        <v>0.0012954969424728</v>
-      </c>
-      <c r="I125" s="21" t="n">
+      <c r="H125" s="68" t="n">
+        <v>0.00939676148632018</v>
+      </c>
+      <c r="I125" s="19" t="n">
         <f aca="false">AE8</f>
-        <v>-0.000414751945534201</v>
+        <v>-0.0141473268676529</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8580,11 +8833,11 @@
         <v>1.06362193833772</v>
       </c>
       <c r="H126" s="17" t="n">
-        <v>0.0013248669889358</v>
-      </c>
-      <c r="I126" s="21" t="n">
+        <v>0.00988942877135046</v>
+      </c>
+      <c r="I126" s="19" t="n">
         <f aca="false">AE9</f>
-        <v>0.001093370831351</v>
+        <v>0.00492116508065577</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8601,11 +8854,11 @@
         <v>1.1205017670747</v>
       </c>
       <c r="H127" s="17" t="n">
-        <v>0.00133699514521599</v>
-      </c>
-      <c r="I127" s="21" t="n">
+        <v>0.01011174372246</v>
+      </c>
+      <c r="I127" s="19" t="n">
         <f aca="false">AE10</f>
-        <v>-0.000386177971613201</v>
+        <v>-0.00267738438665965</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8622,11 +8875,11 @@
         <v>1.18125862097704</v>
       </c>
       <c r="H128" s="17" t="n">
-        <v>0.0014088123245076</v>
-      </c>
-      <c r="I128" s="21" t="n">
+        <v>0.0127035658702857</v>
+      </c>
+      <c r="I128" s="19" t="n">
         <f aca="false">AE11</f>
-        <v>-0.000113797864157999</v>
+        <v>-0.0036930020842092</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8643,11 +8896,11 @@
         <v>1.24672049837958</v>
       </c>
       <c r="H129" s="17" t="n">
-        <v>0.0019595112776388</v>
-      </c>
-      <c r="I129" s="21" t="n">
+        <v>0.0140082243471023</v>
+      </c>
+      <c r="I129" s="19" t="n">
         <f aca="false">AE12</f>
-        <v>-0.000343078006352998</v>
+        <v>-0.0118472574604453</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8664,11 +8917,11 @@
         <v>1.31801089730354</v>
       </c>
       <c r="H130" s="17" t="n">
-        <v>0.002460223259084</v>
-      </c>
-      <c r="I130" s="21" t="n">
+        <v>0.0151915126500359</v>
+      </c>
+      <c r="I130" s="19" t="n">
         <f aca="false">AE13</f>
-        <v>-0.075776457293598</v>
+        <v>-0.0778132709973807</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8685,11 +8938,11 @@
         <v>1.39671264539045</v>
       </c>
       <c r="H131" s="17" t="n">
-        <v>0.0024732312438278</v>
-      </c>
-      <c r="I131" s="21" t="n">
+        <v>0.0175513454571099</v>
+      </c>
+      <c r="I131" s="19" t="n">
         <f aca="false">AE14</f>
-        <v>-0.00133277554691541</v>
+        <v>-0.0094700184274763</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8706,11 +8959,11 @@
         <v>1.48516545690268</v>
       </c>
       <c r="H132" s="17" t="n">
-        <v>0.00289933279063399</v>
-      </c>
-      <c r="I132" s="21" t="n">
+        <v>0.0233921946998858</v>
+      </c>
+      <c r="I132" s="19" t="n">
         <f aca="false">AE15</f>
-        <v>-0.002143591067157</v>
+        <v>-0.017504341863078</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8727,11 +8980,11 @@
         <v>1.58705583229031</v>
       </c>
       <c r="H133" s="17" t="n">
-        <v>0.006416839264046</v>
-      </c>
-      <c r="I133" s="21" t="n">
+        <v>0.0251474187845795</v>
+      </c>
+      <c r="I133" s="19" t="n">
         <f aca="false">AE16</f>
-        <v>8.28580023263994E-005</v>
+        <v>0.00251504986700901</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8748,11 +9001,11 @@
         <v>1.7087352578229</v>
       </c>
       <c r="H134" s="17" t="n">
-        <v>0.008231048081391</v>
-      </c>
-      <c r="I134" s="21" t="n">
+        <v>0.027915450120964</v>
+      </c>
+      <c r="I134" s="19" t="n">
         <f aca="false">AE17</f>
-        <v>-0.00240745624837402</v>
+        <v>-0.0101086021637608</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8769,11 +9022,11 @@
         <v>1.86273186742165</v>
       </c>
       <c r="H135" s="17" t="n">
-        <v>0.026286572716862</v>
-      </c>
-      <c r="I135" s="21" t="n">
+        <v>0.0319809784786133</v>
+      </c>
+      <c r="I135" s="19" t="n">
         <f aca="false">AE18</f>
-        <v>4.06815295164106E-005</v>
+        <v>0.000350170205916545</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8790,11 +9043,11 @@
         <v>2.08027845252527</v>
       </c>
       <c r="H136" s="17" t="n">
-        <v>0.030728988768662</v>
-      </c>
-      <c r="I136" s="21" t="n">
+        <v>0.0611415035604904</v>
+      </c>
+      <c r="I136" s="19" t="n">
         <f aca="false">AE19</f>
-        <v>-5.39552470410001E-005</v>
+        <v>-0.00168975482168676</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8811,16 +9064,16 @@
         <v>2.49770547441237</v>
       </c>
       <c r="H137" s="17" t="n">
-        <v>0.0638413838294419</v>
-      </c>
-      <c r="I137" s="27" t="n">
+        <v>0.0697511008443399</v>
+      </c>
+      <c r="I137" s="25" t="n">
         <f aca="false">AE20</f>
-        <v>0.0001037668169852</v>
+        <v>0.00352397552478667</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E141" s="63" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F141" s="63"/>
       <c r="G141" s="63"/>
@@ -8840,13 +9093,13 @@
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E145" s="64" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F145" s="65" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G145" s="66" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8855,11 +9108,11 @@
       </c>
       <c r="F146" s="68" t="n">
         <f aca="false">U$5</f>
-        <v>0.10825189114284</v>
+        <v>-0.965564507854728</v>
       </c>
       <c r="G146" s="69" t="n">
         <f aca="false">AA$5</f>
-        <v>-0.000345211532473993</v>
+        <v>-0.00116757760054009</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8869,11 +9122,11 @@
       </c>
       <c r="F147" s="17" t="n">
         <f aca="false">V$5</f>
-        <v>0.10568907400535</v>
-      </c>
-      <c r="G147" s="21" t="n">
+        <v>-0.975969907152823</v>
+      </c>
+      <c r="G147" s="19" t="n">
         <f aca="false">AB$5</f>
-        <v>-0.00290802866996399</v>
+        <v>-0.0115729768986347</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8883,11 +9136,11 @@
       </c>
       <c r="F148" s="17" t="n">
         <f aca="false">W$5</f>
-        <v>0.10857699096535</v>
-      </c>
-      <c r="G148" s="21" t="n">
+        <v>-0.964262198278536</v>
+      </c>
+      <c r="G148" s="19" t="n">
         <f aca="false">AC$5</f>
-        <v>-2.01117099639936E-005</v>
+        <v>0.000134731975652502</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8897,11 +9150,11 @@
       </c>
       <c r="F149" s="17" t="n">
         <f aca="false">X$5</f>
-        <v>0.10545361532367</v>
-      </c>
-      <c r="G149" s="21" t="n">
+        <v>-0.976938526515246</v>
+      </c>
+      <c r="G149" s="19" t="n">
         <f aca="false">AD$5</f>
-        <v>-0.00314348735164401</v>
+        <v>-0.0125415962610576</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8911,11 +9164,11 @@
       </c>
       <c r="F150" s="17" t="n">
         <f aca="false">Y$5</f>
-        <v>0.11501394193936</v>
-      </c>
-      <c r="G150" s="21" t="n">
+        <v>-0.939249511469609</v>
+      </c>
+      <c r="G150" s="19" t="n">
         <f aca="false">AE$5</f>
-        <v>0.006416839264046</v>
+        <v>0.0251474187845795</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8925,11 +9178,11 @@
       </c>
       <c r="F151" s="17" t="n">
         <f aca="false">U$6</f>
-        <v>0.062712193880956</v>
-      </c>
-      <c r="G151" s="21" t="n">
+        <v>-1.20264800589461</v>
+      </c>
+      <c r="G151" s="19" t="n">
         <f aca="false">AA$6</f>
-        <v>0.0019595112776388</v>
+        <v>0.0140082243471023</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8939,11 +9192,11 @@
       </c>
       <c r="F152" s="17" t="n">
         <f aca="false">V$6</f>
-        <v>0.063225913847145</v>
-      </c>
-      <c r="G152" s="21" t="n">
+        <v>-1.1991048847846</v>
+      </c>
+      <c r="G152" s="19" t="n">
         <f aca="false">AB$6</f>
-        <v>0.0024732312438278</v>
+        <v>0.0175513454571099</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8953,11 +9206,11 @@
       </c>
       <c r="F153" s="17" t="n">
         <f aca="false">W$6</f>
-        <v>0.060485953642081</v>
-      </c>
-      <c r="G153" s="21" t="n">
+        <v>-1.21834546772764</v>
+      </c>
+      <c r="G153" s="19" t="n">
         <f aca="false">AC$6</f>
-        <v>-0.000266728961236196</v>
+        <v>-0.00168923748593097</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8967,11 +9220,11 @@
       </c>
       <c r="F154" s="17" t="n">
         <f aca="false">X$6</f>
-        <v>0.058385768070753</v>
-      </c>
-      <c r="G154" s="21" t="n">
+        <v>-1.23369300222989</v>
+      </c>
+      <c r="G154" s="19" t="n">
         <f aca="false">AD$6</f>
-        <v>-0.00236691453256419</v>
+        <v>-0.0170367719881794</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8981,11 +9234,11 @@
       </c>
       <c r="F155" s="17" t="n">
         <f aca="false">Y$6</f>
-        <v>0.058953583575651</v>
-      </c>
-      <c r="G155" s="21" t="n">
+        <v>-1.22948979057181</v>
+      </c>
+      <c r="G155" s="19" t="n">
         <f aca="false">AE$6</f>
-        <v>-0.00179909902766619</v>
+        <v>-0.0128335603301013</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8995,11 +9248,11 @@
       </c>
       <c r="F156" s="17" t="n">
         <f aca="false">U$7</f>
-        <v>0.014905594386911</v>
-      </c>
-      <c r="G156" s="21" t="n">
+        <v>-1.82665070102628</v>
+      </c>
+      <c r="G156" s="19" t="n">
         <f aca="false">AA$7</f>
-        <v>8.46915798776004E-005</v>
+        <v>0.00250289102035772</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9009,11 +9262,11 @@
       </c>
       <c r="F157" s="17" t="n">
         <f aca="false">V$7</f>
-        <v>0.015016094788499</v>
-      </c>
-      <c r="G157" s="21" t="n">
+        <v>-1.82344299891147</v>
+      </c>
+      <c r="G157" s="19" t="n">
         <f aca="false">AB$7</f>
-        <v>0.000195191981465601</v>
+        <v>0.00571059313515976</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9023,11 +9276,11 @@
       </c>
       <c r="F158" s="17" t="n">
         <f aca="false">W$7</f>
-        <v>0.014939479680577</v>
-      </c>
-      <c r="G158" s="21" t="n">
+        <v>-1.82566452807546</v>
+      </c>
+      <c r="G158" s="19" t="n">
         <f aca="false">AC$7</f>
-        <v>0.000118576873543601</v>
+        <v>0.00348906397117421</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9037,11 +9290,11 @@
       </c>
       <c r="F159" s="17" t="n">
         <f aca="false">X$7</f>
-        <v>0.014665162003028</v>
-      </c>
-      <c r="G159" s="21" t="n">
+        <v>-1.83371313509512</v>
+      </c>
+      <c r="G159" s="19" t="n">
         <f aca="false">AD$7</f>
-        <v>-0.0001557408040054</v>
+        <v>-0.00455954304848905</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9051,11 +9304,11 @@
       </c>
       <c r="F160" s="17" t="n">
         <f aca="false">Y$7</f>
-        <v>0.014578183176152</v>
-      </c>
-      <c r="G160" s="21" t="n">
+        <v>-1.83629659712484</v>
+      </c>
+      <c r="G160" s="19" t="n">
         <f aca="false">AE$7</f>
-        <v>-0.0002427196308814</v>
+        <v>-0.00714300507820354</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9065,11 +9318,11 @@
       </c>
       <c r="F161" s="17" t="n">
         <f aca="false">U$8</f>
-        <v>0.013175360957011</v>
-      </c>
-      <c r="G161" s="21" t="n">
+        <v>-1.88023747786185</v>
+      </c>
+      <c r="G161" s="19" t="n">
         <f aca="false">AA$8</f>
-        <v>0.000301027616850798</v>
+        <v>0.01011174372246</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9079,11 +9332,11 @@
       </c>
       <c r="F162" s="17" t="n">
         <f aca="false">V$8</f>
-        <v>0.012894863618834</v>
-      </c>
-      <c r="G162" s="21" t="n">
+        <v>-1.88958324677157</v>
+      </c>
+      <c r="G162" s="19" t="n">
         <f aca="false">AB$8</f>
-        <v>2.05302786737988E-005</v>
+        <v>0.000765974812742209</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9093,11 +9346,11 @@
       </c>
       <c r="F163" s="17" t="n">
         <f aca="false">W$8</f>
-        <v>0.012841514285575</v>
-      </c>
-      <c r="G163" s="21" t="n">
+        <v>-1.89138376076151</v>
+      </c>
+      <c r="G163" s="19" t="n">
         <f aca="false">AC$8</f>
-        <v>-3.28190545852008E-005</v>
+        <v>-0.00103453917720331</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9107,11 +9360,11 @@
       </c>
       <c r="F164" s="17" t="n">
         <f aca="false">X$8</f>
-        <v>0.013000346444755</v>
-      </c>
-      <c r="G164" s="21" t="n">
+        <v>-1.88604507407466</v>
+      </c>
+      <c r="G164" s="19" t="n">
         <f aca="false">AD$8</f>
-        <v>0.000126013104594799</v>
+        <v>0.00430414750965413</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9121,11 +9374,11 @@
       </c>
       <c r="F165" s="17" t="n">
         <f aca="false">Y$8</f>
-        <v>0.012459581394626</v>
-      </c>
-      <c r="G165" s="21" t="n">
+        <v>-1.90449654845196</v>
+      </c>
+      <c r="G165" s="19" t="n">
         <f aca="false">AE$8</f>
-        <v>-0.000414751945534201</v>
+        <v>-0.0141473268676529</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9135,11 +9388,11 @@
       </c>
       <c r="F166" s="17" t="n">
         <f aca="false">U$9</f>
-        <v>0.10168682936953</v>
-      </c>
-      <c r="G166" s="21" t="n">
+        <v>-0.99273529390663</v>
+      </c>
+      <c r="G166" s="19" t="n">
         <f aca="false">AA$9</f>
-        <v>0.00289933279063399</v>
+        <v>0.0127035658702857</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9149,11 +9402,11 @@
       </c>
       <c r="F167" s="17" t="n">
         <f aca="false">V$9</f>
-        <v>0.099766438283369</v>
-      </c>
-      <c r="G167" s="21" t="n">
+        <v>-1.00101553205641</v>
+      </c>
+      <c r="G167" s="19" t="n">
         <f aca="false">AB$9</f>
-        <v>0.000978941704473005</v>
+        <v>0.00442332772050391</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9163,11 +9416,11 @@
       </c>
       <c r="F168" s="17" t="n">
         <f aca="false">W$9</f>
-        <v>0.094269419122075</v>
-      </c>
-      <c r="G168" s="21" t="n">
+        <v>-1.02562916898577</v>
+      </c>
+      <c r="G168" s="19" t="n">
         <f aca="false">AC$9</f>
-        <v>-0.00451807745682099</v>
+        <v>-0.0201903092088587</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9177,11 +9430,11 @@
       </c>
       <c r="F169" s="17" t="n">
         <f aca="false">X$9</f>
-        <v>0.098333928709259</v>
-      </c>
-      <c r="G169" s="21" t="n">
+        <v>-1.0072966092395</v>
+      </c>
+      <c r="G169" s="19" t="n">
         <f aca="false">AD$9</f>
-        <v>-0.000453567869636989</v>
+        <v>-0.00185774946258621</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9191,11 +9444,11 @@
       </c>
       <c r="F170" s="17" t="n">
         <f aca="false">Y$9</f>
-        <v>0.099880867410247</v>
-      </c>
-      <c r="G170" s="21" t="n">
+        <v>-1.00051769469626</v>
+      </c>
+      <c r="G170" s="19" t="n">
         <f aca="false">AE$9</f>
-        <v>0.001093370831351</v>
+        <v>0.00492116508065577</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9205,11 +9458,11 @@
       </c>
       <c r="F171" s="17" t="n">
         <f aca="false">U$10</f>
-        <v>0.062374625992463</v>
-      </c>
-      <c r="G171" s="21" t="n">
+        <v>-1.20499204545507</v>
+      </c>
+      <c r="G171" s="19" t="n">
         <f aca="false">AA$10</f>
-        <v>0.0012954969424728</v>
+        <v>0.00919231541791454</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9219,11 +9472,11 @@
       </c>
       <c r="F172" s="17" t="n">
         <f aca="false">V$10</f>
-        <v>0.062403996038926</v>
-      </c>
-      <c r="G172" s="21" t="n">
+        <v>-1.20478759938666</v>
+      </c>
+      <c r="G172" s="19" t="n">
         <f aca="false">AB$10</f>
-        <v>0.0013248669889358</v>
+        <v>0.00939676148632018</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9233,11 +9486,11 @@
       </c>
       <c r="F173" s="17" t="n">
         <f aca="false">W$10</f>
-        <v>0.060485953642081</v>
-      </c>
-      <c r="G173" s="21" t="n">
+        <v>-1.21834546772764</v>
+      </c>
+      <c r="G173" s="19" t="n">
         <f aca="false">AC$10</f>
-        <v>-0.000593175407909201</v>
+        <v>-0.00416110685465432</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9247,11 +9500,11 @@
       </c>
       <c r="F174" s="17" t="n">
         <f aca="false">X$10</f>
-        <v>0.059438118498104</v>
-      </c>
-      <c r="G174" s="21" t="n">
+        <v>-1.22593494653591</v>
+      </c>
+      <c r="G174" s="19" t="n">
         <f aca="false">AD$10</f>
-        <v>-0.00164101055188619</v>
+        <v>-0.0117505856629205</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9261,11 +9514,11 @@
       </c>
       <c r="F175" s="17" t="n">
         <f aca="false">Y$10</f>
-        <v>0.060692951078377</v>
-      </c>
-      <c r="G175" s="21" t="n">
+        <v>-1.21686174525964</v>
+      </c>
+      <c r="G175" s="19" t="n">
         <f aca="false">AE$10</f>
-        <v>-0.000386177971613201</v>
+        <v>-0.00267738438665965</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9275,11 +9528,11 @@
       </c>
       <c r="F176" s="17" t="n">
         <f aca="false">U$11</f>
-        <v>0.01347686032498</v>
-      </c>
-      <c r="G176" s="21" t="n">
+        <v>-1.87041127266381</v>
+      </c>
+      <c r="G176" s="19" t="n">
         <f aca="false">AA$11</f>
-        <v>7.0974353528E-005</v>
+        <v>0.00230251389231584</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9289,11 +9542,11 @@
       </c>
       <c r="F177" s="17" t="n">
         <f aca="false">V$11</f>
-        <v>0.013530497147311</v>
-      </c>
-      <c r="G177" s="21" t="n">
+        <v>-1.86868624594729</v>
+      </c>
+      <c r="G177" s="19" t="n">
         <f aca="false">AB$11</f>
-        <v>0.000124611175859001</v>
+        <v>0.00402754060883126</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9303,11 +9556,11 @@
       </c>
       <c r="F178" s="17" t="n">
         <f aca="false">W$11</f>
-        <v>0.013393964123312</v>
-      </c>
-      <c r="G178" s="21" t="n">
+        <v>-1.87309086868702</v>
+      </c>
+      <c r="G178" s="19" t="n">
         <f aca="false">AC$11</f>
-        <v>-1.1921848139999E-005</v>
+        <v>-0.000377082130895046</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9317,11 +9570,11 @@
       </c>
       <c r="F179" s="17" t="n">
         <f aca="false">X$11</f>
-        <v>0.013336020154363</v>
-      </c>
-      <c r="G179" s="21" t="n">
+        <v>-1.87497375684217</v>
+      </c>
+      <c r="G179" s="19" t="n">
         <f aca="false">AD$11</f>
-        <v>-6.98658170889994E-005</v>
+        <v>-0.00225997028604241</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9331,11 +9584,11 @@
       </c>
       <c r="F180" s="17" t="n">
         <f aca="false">Y$11</f>
-        <v>0.013292088107294</v>
-      </c>
-      <c r="G180" s="21" t="n">
+        <v>-1.87640678864033</v>
+      </c>
+      <c r="G180" s="19" t="n">
         <f aca="false">AE$11</f>
-        <v>-0.000113797864157999</v>
+        <v>-0.0036930020842092</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9345,11 +9598,11 @@
       </c>
       <c r="F181" s="17" t="n">
         <f aca="false">U$12</f>
-        <v>0.013085875498398</v>
-      </c>
-      <c r="G181" s="21" t="n">
+        <v>-1.88319721598141</v>
+      </c>
+      <c r="G181" s="19" t="n">
         <f aca="false">AA$12</f>
-        <v>0.000446792978553</v>
+        <v>0.0151915126500359</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9359,11 +9612,11 @@
       </c>
       <c r="F182" s="17" t="n">
         <f aca="false">V$12</f>
-        <v>0.01264942982888</v>
-      </c>
-      <c r="G182" s="21" t="n">
+        <v>-1.89792904980451</v>
+      </c>
+      <c r="G182" s="19" t="n">
         <f aca="false">AB$12</f>
-        <v>1.03473090349998E-005</v>
+        <v>0.000459678826931098</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9373,11 +9626,11 @@
       </c>
       <c r="F183" s="17" t="n">
         <f aca="false">W$12</f>
-        <v>0.0127573392014</v>
-      </c>
-      <c r="G183" s="21" t="n">
+        <v>-1.89423989698239</v>
+      </c>
+      <c r="G183" s="19" t="n">
         <f aca="false">AC$12</f>
-        <v>0.000118256681555001</v>
+        <v>0.00414883164905677</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9387,11 +9640,11 @@
       </c>
       <c r="F184" s="17" t="n">
         <f aca="false">X$12</f>
-        <v>0.012406763557055</v>
-      </c>
-      <c r="G184" s="21" t="n">
+        <v>-1.90634149429702</v>
+      </c>
+      <c r="G184" s="19" t="n">
         <f aca="false">AD$12</f>
-        <v>-0.000232318962789999</v>
+        <v>-0.00795276566557868</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9401,11 +9654,11 @@
       </c>
       <c r="F185" s="17" t="n">
         <f aca="false">Y$12</f>
-        <v>0.012296004513492</v>
-      </c>
-      <c r="G185" s="21" t="n">
+        <v>-1.91023598609189</v>
+      </c>
+      <c r="G185" s="19" t="n">
         <f aca="false">AE$12</f>
-        <v>-0.000343078006352998</v>
+        <v>-0.0118472574604453</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9415,11 +9668,11 @@
       </c>
       <c r="F186" s="17" t="n">
         <f aca="false">U$13</f>
-        <v>0.47233724959933</v>
-      </c>
-      <c r="G186" s="21" t="n">
+        <v>-0.325747803613357</v>
+      </c>
+      <c r="G186" s="19" t="n">
         <f aca="false">AA$13</f>
-        <v>0.026286572716862</v>
+        <v>0.027915450120964</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9429,11 +9682,11 @@
       </c>
       <c r="F187" s="17" t="n">
         <f aca="false">V$13</f>
-        <v>0.50989206071191</v>
-      </c>
-      <c r="G187" s="21" t="n">
+        <v>-0.292521750173831</v>
+      </c>
+      <c r="G187" s="19" t="n">
         <f aca="false">AB$13</f>
-        <v>0.0638413838294419</v>
+        <v>0.0611415035604904</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9443,11 +9696,11 @@
       </c>
       <c r="F188" s="17" t="n">
         <f aca="false">W$13</f>
-        <v>0.47677966565113</v>
-      </c>
-      <c r="G188" s="21" t="n">
+        <v>-0.321682275255708</v>
+      </c>
+      <c r="G188" s="19" t="n">
         <f aca="false">AC$13</f>
-        <v>0.030728988768662</v>
+        <v>0.0319809784786133</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9457,11 +9710,11 @@
       </c>
       <c r="F189" s="17" t="n">
         <f aca="false">X$13</f>
-        <v>0.4009701888611</v>
-      </c>
-      <c r="G189" s="21" t="n">
+        <v>-0.396887914897008</v>
+      </c>
+      <c r="G189" s="19" t="n">
         <f aca="false">AD$13</f>
-        <v>-0.045080488021368</v>
+        <v>-0.0432246611626868</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9471,11 +9724,11 @@
       </c>
       <c r="F190" s="17" t="n">
         <f aca="false">Y$13</f>
-        <v>0.37027421958887</v>
-      </c>
-      <c r="G190" s="21" t="n">
+        <v>-0.431476524731702</v>
+      </c>
+      <c r="G190" s="19" t="n">
         <f aca="false">AE$13</f>
-        <v>-0.075776457293598</v>
+        <v>-0.0778132709973807</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9485,11 +9738,11 @@
       </c>
       <c r="F191" s="17" t="n">
         <f aca="false">U$14</f>
-        <v>0.062883585449605</v>
-      </c>
-      <c r="G191" s="21" t="n">
+        <v>-1.20146270398223</v>
+      </c>
+      <c r="G191" s="19" t="n">
         <f aca="false">AA$14</f>
-        <v>0.0014088123245076</v>
+        <v>0.00988942877135046</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9499,11 +9752,11 @@
       </c>
       <c r="F192" s="17" t="n">
         <f aca="false">V$14</f>
-        <v>0.060947397528564</v>
-      </c>
-      <c r="G192" s="21" t="n">
+        <v>-1.2150448341492</v>
+      </c>
+      <c r="G192" s="19" t="n">
         <f aca="false">AB$14</f>
-        <v>-0.00052737559653341</v>
+        <v>-0.00369270139561517</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9513,11 +9766,11 @@
       </c>
       <c r="F193" s="17" t="n">
         <f aca="false">W$14</f>
-        <v>0.061443486419062</v>
-      </c>
-      <c r="G193" s="21" t="n">
+        <v>-1.21152414959109</v>
+      </c>
+      <c r="G193" s="19" t="n">
         <f aca="false">AC$14</f>
-        <v>-3.12867060354091E-005</v>
+        <v>-0.00017201683751078</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9527,11 +9780,11 @@
       </c>
       <c r="F194" s="17" t="n">
         <f aca="false">X$14</f>
-        <v>0.061957398650074</v>
-      </c>
-      <c r="G194" s="21" t="n">
+        <v>-1.20790682486433</v>
+      </c>
+      <c r="G194" s="19" t="n">
         <f aca="false">AD$14</f>
-        <v>0.00048262552497659</v>
+        <v>0.00344530788925135</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9541,11 +9794,11 @@
       </c>
       <c r="F195" s="17" t="n">
         <f aca="false">Y$14</f>
-        <v>0.060141997578182</v>
-      </c>
-      <c r="G195" s="21" t="n">
+        <v>-1.22082215118106</v>
+      </c>
+      <c r="G195" s="19" t="n">
         <f aca="false">AE$14</f>
-        <v>-0.00133277554691541</v>
+        <v>-0.0094700184274763</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9555,11 +9808,11 @@
       </c>
       <c r="F196" s="17" t="n">
         <f aca="false">U$15</f>
-        <v>0.044290998496489</v>
-      </c>
-      <c r="G196" s="21" t="n">
+        <v>-1.35368452886793</v>
+      </c>
+      <c r="G196" s="19" t="n">
         <f aca="false">AA$15</f>
-        <v>-0.0044763060101</v>
+        <v>-0.0397957315506618</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9569,11 +9822,11 @@
       </c>
       <c r="F197" s="17" t="n">
         <f aca="false">V$15</f>
-        <v>0.051227527765673</v>
-      </c>
-      <c r="G197" s="21" t="n">
+        <v>-1.29049660261738</v>
+      </c>
+      <c r="G197" s="19" t="n">
         <f aca="false">AB$15</f>
-        <v>0.002460223259084</v>
+        <v>0.0233921946998858</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9583,11 +9836,11 @@
       </c>
       <c r="F198" s="17" t="n">
         <f aca="false">W$15</f>
-        <v>0.044695930243371</v>
-      </c>
-      <c r="G198" s="21" t="n">
+        <v>-1.34973201944776</v>
+      </c>
+      <c r="G198" s="19" t="n">
         <f aca="false">AC$15</f>
-        <v>-0.004071374263218</v>
+        <v>-0.0358432221304852</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9597,11 +9850,11 @@
       </c>
       <c r="F199" s="17" t="n">
         <f aca="false">X$15</f>
-        <v>0.05699835258798</v>
-      </c>
-      <c r="G199" s="21" t="n">
+        <v>-1.24413769647293</v>
+      </c>
+      <c r="G199" s="19" t="n">
         <f aca="false">AD$15</f>
-        <v>0.008231048081391</v>
+        <v>0.0697511008443399</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9611,11 +9864,11 @@
       </c>
       <c r="F200" s="17" t="n">
         <f aca="false">Y$15</f>
-        <v>0.046623713439432</v>
-      </c>
-      <c r="G200" s="21" t="n">
+        <v>-1.33139313918035</v>
+      </c>
+      <c r="G200" s="19" t="n">
         <f aca="false">AE$15</f>
-        <v>-0.002143591067157</v>
+        <v>-0.017504341863078</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9625,11 +9878,11 @@
       </c>
       <c r="F201" s="17" t="n">
         <f aca="false">U$16</f>
-        <v>0.014432408572029</v>
-      </c>
-      <c r="G201" s="21" t="n">
+        <v>-1.84066118503592</v>
+      </c>
+      <c r="G201" s="19" t="n">
         <f aca="false">AA$16</f>
-        <v>0.0001173420273064</v>
+        <v>0.0035539715362618</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9639,11 +9892,11 @@
       </c>
       <c r="F202" s="17" t="n">
         <f aca="false">V$16</f>
-        <v>0.014238887147733</v>
-      </c>
-      <c r="G202" s="21" t="n">
+        <v>-1.84652395202534</v>
+      </c>
+      <c r="G202" s="19" t="n">
         <f aca="false">AB$16</f>
-        <v>-7.61793969896E-005</v>
+        <v>-0.00230879545316309</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9653,11 +9906,11 @@
       </c>
       <c r="F203" s="17" t="n">
         <f aca="false">W$16</f>
-        <v>0.014197763353293</v>
-      </c>
-      <c r="G203" s="21" t="n">
+        <v>-1.84778006687263</v>
+      </c>
+      <c r="G203" s="19" t="n">
         <f aca="false">AC$16</f>
-        <v>-0.0001173031914296</v>
+        <v>-0.00356491030044848</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9667,11 +9920,11 @@
       </c>
       <c r="F204" s="17" t="n">
         <f aca="false">X$16</f>
-        <v>0.014308349103509</v>
-      </c>
-      <c r="G204" s="21" t="n">
+        <v>-1.84441047222184</v>
+      </c>
+      <c r="G204" s="19" t="n">
         <f aca="false">AD$16</f>
-        <v>-6.71744121360021E-006</v>
+        <v>-0.000195315649659245</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9681,11 +9934,11 @@
       </c>
       <c r="F205" s="17" t="n">
         <f aca="false">Y$16</f>
-        <v>0.014397924547049</v>
-      </c>
-      <c r="G205" s="21" t="n">
+        <v>-1.84170010670517</v>
+      </c>
+      <c r="G205" s="19" t="n">
         <f aca="false">AE$16</f>
-        <v>8.28580023263994E-005</v>
+        <v>0.00251504986700901</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9695,11 +9948,11 @@
       </c>
       <c r="F206" s="17" t="n">
         <f aca="false">U$17</f>
-        <v>0.10522663492544</v>
-      </c>
-      <c r="G206" s="21" t="n">
+        <v>-0.977874317814857</v>
+      </c>
+      <c r="G206" s="19" t="n">
         <f aca="false">AA$17</f>
-        <v>0.000979363907745987</v>
+        <v>0.00409947928873866</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9709,11 +9962,11 @@
       </c>
       <c r="F207" s="17" t="n">
         <f aca="false">V$17</f>
-        <v>0.10500570969922</v>
-      </c>
-      <c r="G207" s="21" t="n">
+        <v>-0.978787085468666</v>
+      </c>
+      <c r="G207" s="19" t="n">
         <f aca="false">AB$17</f>
-        <v>0.000758438681525989</v>
+        <v>0.00318671163492956</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9723,11 +9976,11 @@
       </c>
       <c r="F208" s="17" t="n">
         <f aca="false">W$17</f>
-        <v>0.10558426616291</v>
-      </c>
-      <c r="G208" s="21" t="n">
+        <v>-0.976400794185985</v>
+      </c>
+      <c r="G208" s="19" t="n">
         <f aca="false">AC$17</f>
-        <v>0.00133699514521599</v>
+        <v>0.00557300291761009</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9737,11 +9990,11 @@
       </c>
       <c r="F209" s="17" t="n">
         <f aca="false">X$17</f>
-        <v>0.10357992953158</v>
-      </c>
-      <c r="G209" s="21" t="n">
+        <v>-0.984724388781113</v>
+      </c>
+      <c r="G209" s="19" t="n">
         <f aca="false">AD$17</f>
-        <v>-0.000667341486114012</v>
+        <v>-0.00275059167751801</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9751,11 +10004,11 @@
       </c>
       <c r="F210" s="17" t="n">
         <f aca="false">Y$17</f>
-        <v>0.10183981476932</v>
-      </c>
-      <c r="G210" s="21" t="n">
+        <v>-0.992082399267356</v>
+      </c>
+      <c r="G210" s="19" t="n">
         <f aca="false">AE$17</f>
-        <v>-0.00240745624837402</v>
+        <v>-0.0101086021637608</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9765,11 +10018,11 @@
       </c>
       <c r="F211" s="17" t="n">
         <f aca="false">U$18</f>
-        <v>0.059046863379219</v>
-      </c>
-      <c r="G211" s="21" t="n">
+        <v>-1.22880316753865</v>
+      </c>
+      <c r="G211" s="19" t="n">
         <f aca="false">AA$18</f>
-        <v>0.00117078097119441</v>
+        <v>0.00874271472905885</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9779,11 +10032,11 @@
       </c>
       <c r="F212" s="17" t="n">
         <f aca="false">V$18</f>
-        <v>0.057204551266361</v>
-      </c>
-      <c r="G212" s="21" t="n">
+        <v>-1.24256941681477</v>
+      </c>
+      <c r="G212" s="19" t="n">
         <f aca="false">AB$18</f>
-        <v>-0.000671531141663594</v>
+        <v>-0.00502353454705751</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9793,11 +10046,11 @@
       </c>
       <c r="F213" s="17" t="n">
         <f aca="false">W$18</f>
-        <v>0.056739430260014</v>
-      </c>
-      <c r="G213" s="21" t="n">
+        <v>-1.2461150294174</v>
+      </c>
+      <c r="G213" s="19" t="n">
         <f aca="false">AC$18</f>
-        <v>-0.00113665214801059</v>
+        <v>-0.00856914714968915</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9807,11 +10060,11 @@
       </c>
       <c r="F214" s="17" t="n">
         <f aca="false">X$18</f>
-        <v>0.058472803196988</v>
-      </c>
-      <c r="G214" s="21" t="n">
+        <v>-1.23304608550594</v>
+      </c>
+      <c r="G214" s="19" t="n">
         <f aca="false">AD$18</f>
-        <v>0.00059672078896341</v>
+        <v>0.00449979676177104</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9821,11 +10074,11 @@
       </c>
       <c r="F215" s="17" t="n">
         <f aca="false">Y$18</f>
-        <v>0.057916763937541</v>
-      </c>
-      <c r="G215" s="21" t="n">
+        <v>-1.2371957120618</v>
+      </c>
+      <c r="G215" s="19" t="n">
         <f aca="false">AE$18</f>
-        <v>4.06815295164106E-005</v>
+        <v>0.000350170205916545</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9835,11 +10088,11 @@
       </c>
       <c r="F216" s="17" t="n">
         <f aca="false">U$19</f>
-        <v>0.013916659743746</v>
-      </c>
-      <c r="G216" s="21" t="n">
+        <v>-1.85646499094222</v>
+      </c>
+      <c r="G216" s="19" t="n">
         <f aca="false">AA$19</f>
-        <v>3.21067634610015E-005</v>
+        <v>0.00100430430466436</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9849,11 +10102,11 @@
       </c>
       <c r="F217" s="17" t="n">
         <f aca="false">V$19</f>
-        <v>0.013869074182248</v>
-      </c>
-      <c r="G217" s="21" t="n">
+        <v>-1.85795252890226</v>
+      </c>
+      <c r="G217" s="19" t="n">
         <f aca="false">AB$19</f>
-        <v>-1.54787980369987E-005</v>
+        <v>-0.000483233655375059</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9863,11 +10116,11 @@
       </c>
       <c r="F218" s="17" t="n">
         <f aca="false">W$19</f>
-        <v>0.013917911010515</v>
-      </c>
-      <c r="G218" s="21" t="n">
+        <v>-1.85642594465993</v>
+      </c>
+      <c r="G218" s="19" t="n">
         <f aca="false">AC$19</f>
-        <v>3.33580302300015E-005</v>
+        <v>0.00104335058695315</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9877,11 +10130,11 @@
       </c>
       <c r="F219" s="17" t="n">
         <f aca="false">X$19</f>
-        <v>0.013888522231672</v>
-      </c>
-      <c r="G219" s="21" t="n">
+        <v>-1.85734396166144</v>
+      </c>
+      <c r="G219" s="19" t="n">
         <f aca="false">AD$19</f>
-        <v>3.96925138700099E-006</v>
+        <v>0.000125333585443199</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9891,11 +10144,11 @@
       </c>
       <c r="F220" s="17" t="n">
         <f aca="false">Y$19</f>
-        <v>0.013830597733244</v>
-      </c>
-      <c r="G220" s="21" t="n">
+        <v>-1.85915905006857</v>
+      </c>
+      <c r="G220" s="19" t="n">
         <f aca="false">AE$19</f>
-        <v>-5.39552470410001E-005</v>
+        <v>-0.00168975482168676</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9905,11 +10158,11 @@
       </c>
       <c r="F221" s="17" t="n">
         <f aca="false">U$20</f>
-        <v>0.012768703056534</v>
-      </c>
-      <c r="G221" s="21" t="n">
+        <v>-1.89385321268139</v>
+      </c>
+      <c r="G221" s="19" t="n">
         <f aca="false">AA$20</f>
-        <v>1.51785893181995E-005</v>
+        <v>0.000521279809865716</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9919,11 +10172,11 @@
       </c>
       <c r="F222" s="17" t="n">
         <f aca="false">V$20</f>
-        <v>0.012734137640021</v>
-      </c>
-      <c r="G222" s="21" t="n">
+        <v>-1.89503046026937</v>
+      </c>
+      <c r="G222" s="19" t="n">
         <f aca="false">AB$20</f>
-        <v>-1.93868271948002E-005</v>
+        <v>-0.000655967778113942</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9933,11 +10186,11 @@
       </c>
       <c r="F223" s="17" t="n">
         <f aca="false">W$20</f>
-        <v>0.012729751229949</v>
-      </c>
-      <c r="G223" s="21" t="n">
+        <v>-1.89518008342538</v>
+      </c>
+      <c r="G223" s="19" t="n">
         <f aca="false">AC$20</f>
-        <v>-2.37732372667995E-005</v>
+        <v>-0.000805590934121581</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9947,11 +10200,11 @@
       </c>
       <c r="F224" s="17" t="n">
         <f aca="false">X$20</f>
-        <v>0.012677739125374</v>
-      </c>
-      <c r="G224" s="21" t="n">
+        <v>-1.89695818911367</v>
+      </c>
+      <c r="G224" s="19" t="n">
         <f aca="false">AD$20</f>
-        <v>-7.57853418417997E-005</v>
+        <v>-0.00258369662241731</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9961,11 +10214,11 @@
       </c>
       <c r="F225" s="23" t="n">
         <f aca="false">Y$20</f>
-        <v>0.012857291284201</v>
-      </c>
-      <c r="G225" s="27" t="n">
+        <v>-1.89085051696647</v>
+      </c>
+      <c r="G225" s="25" t="n">
         <f aca="false">AE$20</f>
-        <v>0.0001037668169852</v>
+        <v>0.00352397552478667</v>
       </c>
     </row>
   </sheetData>

--- a/excel/FactorialAnalysis_MeanResponseTime.xlsx
+++ b/excel/FactorialAnalysis_MeanResponseTime.xlsx
@@ -1073,7 +1073,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart123.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart127.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1677,11 +1677,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="67961634"/>
-        <c:axId val="33844260"/>
+        <c:axId val="98419304"/>
+        <c:axId val="21103724"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="67961634"/>
+        <c:axId val="98419304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1723,12 +1723,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33844260"/>
+        <c:crossAx val="21103724"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="33844260"/>
+        <c:axId val="21103724"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1770,7 +1770,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67961634"/>
+        <c:crossAx val="98419304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1798,7 +1798,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart124.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart128.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2386,11 +2386,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="57377667"/>
-        <c:axId val="119025"/>
+        <c:axId val="14235939"/>
+        <c:axId val="13247443"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="57377667"/>
+        <c:axId val="14235939"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2432,12 +2432,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="119025"/>
+        <c:crossAx val="13247443"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="119025"/>
+        <c:axId val="13247443"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2479,7 +2479,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57377667"/>
+        <c:crossAx val="14235939"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2579,7 +2579,7 @@
   </sheetPr>
   <dimension ref="B1:AR225"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C13" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="S2" activeCellId="0" sqref="S2"/>
     </sheetView>
   </sheetViews>

--- a/excel/FactorialAnalysis_MeanResponseTime.xlsx
+++ b/excel/FactorialAnalysis_MeanResponseTime.xlsx
@@ -708,7 +708,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -925,10 +925,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1073,7 +1069,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart127.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1677,11 +1673,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="98419304"/>
-        <c:axId val="21103724"/>
+        <c:axId val="23813114"/>
+        <c:axId val="45855233"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="98419304"/>
+        <c:axId val="23813114"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1723,12 +1719,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="21103724"/>
+        <c:crossAx val="45855233"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="21103724"/>
+        <c:axId val="45855233"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1770,7 +1766,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98419304"/>
+        <c:crossAx val="23813114"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1798,7 +1794,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart128.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2386,11 +2382,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="14235939"/>
-        <c:axId val="13247443"/>
+        <c:axId val="40675582"/>
+        <c:axId val="42024069"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="14235939"/>
+        <c:axId val="40675582"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2432,12 +2428,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="13247443"/>
+        <c:crossAx val="42024069"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="13247443"/>
+        <c:axId val="42024069"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2479,7 +2475,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14235939"/>
+        <c:crossAx val="40675582"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2518,9 +2514,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>212040</xdr:colOff>
+      <xdr:colOff>211320</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>117000</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2528,8 +2524,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="13492440" y="9662040"/>
-        <a:ext cx="7560720" cy="3304080"/>
+        <a:off x="13495320" y="9662040"/>
+        <a:ext cx="7566840" cy="3303360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2548,9 +2544,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>172440</xdr:colOff>
+      <xdr:colOff>171720</xdr:colOff>
       <xdr:row>167</xdr:row>
-      <xdr:rowOff>160200</xdr:rowOff>
+      <xdr:rowOff>159480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2558,8 +2554,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11895120" y="24117840"/>
-        <a:ext cx="9118440" cy="5365800"/>
+        <a:off x="11896920" y="24117840"/>
+        <a:ext cx="9125640" cy="5365080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2579,11 +2575,11 @@
   </sheetPr>
   <dimension ref="B1:AR225"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C13" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S2" activeCellId="0" sqref="S2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X25" activeCellId="0" sqref="X25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.71"/>
@@ -6743,78 +6739,78 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D49" s="54" t="s">
+      <c r="D49" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="E49" s="55" t="n">
+      <c r="E49" s="54" t="n">
         <f aca="false">E46-SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>-1.41553096739502</v>
       </c>
-      <c r="F49" s="56" t="n">
+      <c r="F49" s="55" t="n">
         <f aca="false">F46-SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>0.0708792463505177</v>
       </c>
-      <c r="G49" s="56" t="n">
+      <c r="G49" s="55" t="n">
         <f aca="false">G46-SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>-0.0875715530819968</v>
       </c>
-      <c r="H49" s="56" t="n">
+      <c r="H49" s="55" t="n">
         <f aca="false">H46-SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>-0.392379536519395</v>
       </c>
-      <c r="I49" s="56" t="n">
+      <c r="I49" s="55" t="n">
         <f aca="false">I46-SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>-0.14319367839053</v>
       </c>
-      <c r="J49" s="56" t="n">
+      <c r="J49" s="55" t="n">
         <f aca="false">J46-SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>-0.0763003328681682</v>
       </c>
-      <c r="K49" s="56" t="n">
+      <c r="K49" s="55" t="n">
         <f aca="false">K46-SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>-0.00613841806030545</v>
       </c>
-      <c r="L49" s="56" t="n">
+      <c r="L49" s="55" t="n">
         <f aca="false">L46-SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>-0.0747092568034562</v>
       </c>
-      <c r="M49" s="56" t="n">
+      <c r="M49" s="55" t="n">
         <f aca="false">M46-SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>-0.000937258952320814</v>
       </c>
-      <c r="N49" s="56" t="n">
+      <c r="N49" s="55" t="n">
         <f aca="false">N46-SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>0.0694900925843916</v>
       </c>
-      <c r="O49" s="56" t="n">
+      <c r="O49" s="55" t="n">
         <f aca="false">O46-SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>0.0535895422678415</v>
       </c>
-      <c r="P49" s="56" t="n">
+      <c r="P49" s="55" t="n">
         <f aca="false">P46-SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>0.000691446223006613</v>
       </c>
-      <c r="Q49" s="56" t="n">
+      <c r="Q49" s="55" t="n">
         <f aca="false">Q46-SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>0.0596107817901657</v>
       </c>
-      <c r="R49" s="56" t="n">
+      <c r="R49" s="55" t="n">
         <f aca="false">R46-SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>0.0068227635840175</v>
       </c>
-      <c r="S49" s="56" t="n">
+      <c r="S49" s="55" t="n">
         <f aca="false">S46-SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>-0.0112137315089329</v>
       </c>
-      <c r="T49" s="57" t="n">
+      <c r="T49" s="56" t="n">
         <f aca="false">T46-SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>-0.0102145925802961</v>
       </c>
-      <c r="W49" s="58" t="s">
+      <c r="W49" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="X49" s="58"/>
-      <c r="Y49" s="58"/>
+      <c r="X49" s="57"/>
+      <c r="Y49" s="57"/>
       <c r="AI49" s="0" t="s">
         <v>59</v>
       </c>
@@ -6826,64 +6822,64 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D50" s="54"/>
-      <c r="E50" s="59" t="n">
+      <c r="D50" s="38"/>
+      <c r="E50" s="58" t="n">
         <f aca="false">E46+SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>-1.40768959728637</v>
       </c>
-      <c r="F50" s="60" t="n">
+      <c r="F50" s="59" t="n">
         <f aca="false">F46+SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>0.078720616459171</v>
       </c>
-      <c r="G50" s="60" t="n">
+      <c r="G50" s="59" t="n">
         <f aca="false">G46+SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>-0.0797301829733434</v>
       </c>
-      <c r="H50" s="60" t="n">
+      <c r="H50" s="59" t="n">
         <f aca="false">H46+SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>-0.384538166410742</v>
       </c>
-      <c r="I50" s="60" t="n">
+      <c r="I50" s="59" t="n">
         <f aca="false">I46+SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>-0.135352308281876</v>
       </c>
-      <c r="J50" s="60" t="n">
+      <c r="J50" s="59" t="n">
         <f aca="false">J46+SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>-0.0684589627595149</v>
       </c>
-      <c r="K50" s="60" t="n">
+      <c r="K50" s="59" t="n">
         <f aca="false">K46+SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>0.00170295204834787</v>
       </c>
-      <c r="L50" s="60" t="n">
+      <c r="L50" s="59" t="n">
         <f aca="false">L46+SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>-0.0668678866948029</v>
       </c>
-      <c r="M50" s="60" t="n">
+      <c r="M50" s="59" t="n">
         <f aca="false">M46+SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>0.00690411115633251</v>
       </c>
-      <c r="N50" s="60" t="n">
+      <c r="N50" s="59" t="n">
         <f aca="false">N46+SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>0.0773314626930449</v>
       </c>
-      <c r="O50" s="60" t="n">
+      <c r="O50" s="59" t="n">
         <f aca="false">O46+SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>0.0614309123764949</v>
       </c>
-      <c r="P50" s="60" t="n">
+      <c r="P50" s="59" t="n">
         <f aca="false">P46+SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>0.00853281633165993</v>
       </c>
-      <c r="Q50" s="60" t="n">
+      <c r="Q50" s="59" t="n">
         <f aca="false">Q46+SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>0.0674521518988191</v>
       </c>
-      <c r="R50" s="60" t="n">
+      <c r="R50" s="59" t="n">
         <f aca="false">R46+SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>0.0146641336926708</v>
       </c>
-      <c r="S50" s="60" t="n">
+      <c r="S50" s="59" t="n">
         <f aca="false">S46+SQRT(($Y$47^2)/4*5)*$X$50</f>
         <v>-0.00337236140027961</v>
       </c>
@@ -6923,17 +6919,17 @@
       <c r="AK52" s="14"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C53" s="61"/>
-      <c r="D53" s="62"/>
-      <c r="E53" s="63" t="s">
+      <c r="C53" s="60"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="F53" s="63"/>
-      <c r="G53" s="63"/>
-      <c r="H53" s="63"/>
-      <c r="I53" s="63"/>
-      <c r="J53" s="63"/>
-      <c r="K53" s="63"/>
+      <c r="F53" s="62"/>
+      <c r="G53" s="62"/>
+      <c r="H53" s="62"/>
+      <c r="I53" s="62"/>
+      <c r="J53" s="62"/>
+      <c r="K53" s="62"/>
       <c r="AI53" s="0" t="s">
         <v>64</v>
       </c>
@@ -6945,15 +6941,15 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C54" s="62"/>
-      <c r="D54" s="62"/>
-      <c r="E54" s="63"/>
-      <c r="F54" s="63"/>
-      <c r="G54" s="63"/>
-      <c r="H54" s="63"/>
-      <c r="I54" s="63"/>
-      <c r="J54" s="63"/>
-      <c r="K54" s="63"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="61"/>
+      <c r="E54" s="62"/>
+      <c r="F54" s="62"/>
+      <c r="G54" s="62"/>
+      <c r="H54" s="62"/>
+      <c r="I54" s="62"/>
+      <c r="J54" s="62"/>
+      <c r="K54" s="62"/>
       <c r="AI54" s="0" t="s">
         <v>64</v>
       </c>
@@ -6965,12 +6961,12 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C55" s="62"/>
-      <c r="D55" s="62"/>
-      <c r="E55" s="62"/>
-      <c r="F55" s="62"/>
-      <c r="G55" s="62"/>
-      <c r="H55" s="62"/>
+      <c r="C55" s="61"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="61"/>
+      <c r="F55" s="61"/>
+      <c r="G55" s="61"/>
+      <c r="H55" s="61"/>
       <c r="AI55" s="0" t="s">
         <v>64</v>
       </c>
@@ -6993,19 +6989,19 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E57" s="64" t="s">
+      <c r="E57" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="F57" s="65" t="s">
+      <c r="F57" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="G57" s="65" t="s">
+      <c r="G57" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="H57" s="65" t="s">
+      <c r="H57" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="I57" s="66" t="s">
+      <c r="I57" s="65" t="s">
         <v>69</v>
       </c>
       <c r="AI57" s="0" t="s">
@@ -7019,21 +7015,21 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E58" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="F58" s="68" t="n">
+      <c r="E58" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="F58" s="67" t="n">
         <f aca="false">(E58-0.5)/$E$137</f>
         <v>0.00625</v>
       </c>
-      <c r="G58" s="68" t="n">
+      <c r="G58" s="67" t="n">
         <f aca="false">_xlfn.NORM.S.INV(F58)</f>
         <v>-2.49770547441237</v>
       </c>
       <c r="H58" s="17" t="n">
         <v>-0.0778132709973807</v>
       </c>
-      <c r="I58" s="69" t="n">
+      <c r="I58" s="68" t="n">
         <f aca="false">AA5</f>
         <v>-0.00116757760054009</v>
       </c>
@@ -7604,18 +7600,18 @@
         <f aca="false">AB9</f>
         <v>0.00442332772050391</v>
       </c>
-      <c r="M78" s="70" t="s">
+      <c r="M78" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="N78" s="70"/>
-      <c r="O78" s="70"/>
-      <c r="P78" s="70"/>
-      <c r="Q78" s="70"/>
-      <c r="R78" s="70"/>
-      <c r="S78" s="70"/>
-      <c r="T78" s="70"/>
-      <c r="U78" s="70"/>
-      <c r="V78" s="70"/>
+      <c r="N78" s="69"/>
+      <c r="O78" s="69"/>
+      <c r="P78" s="69"/>
+      <c r="Q78" s="69"/>
+      <c r="R78" s="69"/>
+      <c r="S78" s="69"/>
+      <c r="T78" s="69"/>
+      <c r="U78" s="69"/>
+      <c r="V78" s="69"/>
       <c r="AI78" s="0" t="s">
         <v>73</v>
       </c>
@@ -7646,18 +7642,18 @@
         <f aca="false">AB10</f>
         <v>0.00939676148632018</v>
       </c>
-      <c r="M79" s="71" t="s">
+      <c r="M79" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="N79" s="71"/>
-      <c r="O79" s="71"/>
-      <c r="P79" s="71"/>
-      <c r="Q79" s="71"/>
-      <c r="R79" s="71"/>
-      <c r="S79" s="71"/>
-      <c r="T79" s="71"/>
-      <c r="U79" s="71"/>
-      <c r="V79" s="71"/>
+      <c r="N79" s="70"/>
+      <c r="O79" s="70"/>
+      <c r="P79" s="70"/>
+      <c r="Q79" s="70"/>
+      <c r="R79" s="70"/>
+      <c r="S79" s="70"/>
+      <c r="T79" s="70"/>
+      <c r="U79" s="70"/>
+      <c r="V79" s="70"/>
       <c r="AI79" s="0" t="s">
         <v>73</v>
       </c>
@@ -7688,16 +7684,16 @@
         <f aca="false">AB11</f>
         <v>0.00402754060883126</v>
       </c>
-      <c r="M80" s="71"/>
-      <c r="N80" s="71"/>
-      <c r="O80" s="71"/>
-      <c r="P80" s="71"/>
-      <c r="Q80" s="71"/>
-      <c r="R80" s="71"/>
-      <c r="S80" s="71"/>
-      <c r="T80" s="71"/>
-      <c r="U80" s="71"/>
-      <c r="V80" s="71"/>
+      <c r="M80" s="70"/>
+      <c r="N80" s="70"/>
+      <c r="O80" s="70"/>
+      <c r="P80" s="70"/>
+      <c r="Q80" s="70"/>
+      <c r="R80" s="70"/>
+      <c r="S80" s="70"/>
+      <c r="T80" s="70"/>
+      <c r="U80" s="70"/>
+      <c r="V80" s="70"/>
       <c r="AI80" s="0" t="s">
         <v>73</v>
       </c>
@@ -7728,18 +7724,18 @@
         <f aca="false">AB12</f>
         <v>0.000459678826931098</v>
       </c>
-      <c r="M81" s="72" t="s">
+      <c r="M81" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="N81" s="72"/>
-      <c r="O81" s="72"/>
-      <c r="P81" s="72"/>
-      <c r="Q81" s="72"/>
-      <c r="R81" s="72"/>
-      <c r="S81" s="72"/>
-      <c r="T81" s="72"/>
-      <c r="U81" s="72"/>
-      <c r="V81" s="72"/>
+      <c r="N81" s="71"/>
+      <c r="O81" s="71"/>
+      <c r="P81" s="71"/>
+      <c r="Q81" s="71"/>
+      <c r="R81" s="71"/>
+      <c r="S81" s="71"/>
+      <c r="T81" s="71"/>
+      <c r="U81" s="71"/>
+      <c r="V81" s="71"/>
       <c r="AI81" s="0" t="s">
         <v>73</v>
       </c>
@@ -7770,16 +7766,16 @@
         <f aca="false">AB13</f>
         <v>0.0611415035604904</v>
       </c>
-      <c r="M82" s="72"/>
-      <c r="N82" s="72"/>
-      <c r="O82" s="72"/>
-      <c r="P82" s="72"/>
-      <c r="Q82" s="72"/>
-      <c r="R82" s="72"/>
-      <c r="S82" s="72"/>
-      <c r="T82" s="72"/>
-      <c r="U82" s="72"/>
-      <c r="V82" s="72"/>
+      <c r="M82" s="71"/>
+      <c r="N82" s="71"/>
+      <c r="O82" s="71"/>
+      <c r="P82" s="71"/>
+      <c r="Q82" s="71"/>
+      <c r="R82" s="71"/>
+      <c r="S82" s="71"/>
+      <c r="T82" s="71"/>
+      <c r="U82" s="71"/>
+      <c r="V82" s="71"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E83" s="16" t="n">
@@ -8811,7 +8807,7 @@
         <f aca="false">_xlfn.NORM.S.INV(F125)</f>
         <v>1.00999016924958</v>
       </c>
-      <c r="H125" s="68" t="n">
+      <c r="H125" s="67" t="n">
         <v>0.00939676148632018</v>
       </c>
       <c r="I125" s="19" t="n">
@@ -9072,45 +9068,45 @@
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E141" s="63" t="s">
+      <c r="E141" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="F141" s="63"/>
-      <c r="G141" s="63"/>
-      <c r="H141" s="63"/>
-      <c r="I141" s="63"/>
-      <c r="J141" s="63"/>
-      <c r="K141" s="63"/>
+      <c r="F141" s="62"/>
+      <c r="G141" s="62"/>
+      <c r="H141" s="62"/>
+      <c r="I141" s="62"/>
+      <c r="J141" s="62"/>
+      <c r="K141" s="62"/>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E142" s="63"/>
-      <c r="F142" s="63"/>
-      <c r="G142" s="63"/>
-      <c r="H142" s="63"/>
-      <c r="I142" s="63"/>
-      <c r="J142" s="63"/>
-      <c r="K142" s="63"/>
+      <c r="E142" s="62"/>
+      <c r="F142" s="62"/>
+      <c r="G142" s="62"/>
+      <c r="H142" s="62"/>
+      <c r="I142" s="62"/>
+      <c r="J142" s="62"/>
+      <c r="K142" s="62"/>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E145" s="64" t="s">
+      <c r="E145" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="F145" s="65" t="s">
+      <c r="F145" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="G145" s="66" t="s">
+      <c r="G145" s="65" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E146" s="67" t="n">
-        <v>1</v>
-      </c>
-      <c r="F146" s="68" t="n">
+      <c r="E146" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="F146" s="67" t="n">
         <f aca="false">U$5</f>
         <v>-0.965564507854728</v>
       </c>
-      <c r="G146" s="69" t="n">
+      <c r="G146" s="68" t="n">
         <f aca="false">AA$5</f>
         <v>-0.00116757760054009</v>
       </c>
